--- a/DM/databank/banking/deal_management/DealManagement_Test_39944.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39944.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="553">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1792,6 +1792,12 @@
   </si>
   <si>
     <t>631173988970</t>
+  </si>
+  <si>
+    <t>631127170035</t>
+  </si>
+  <si>
+    <t>631853446011</t>
   </si>
 </sst>
 </file>
@@ -2521,15 +2527,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2538,17 +2535,17 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2558,21 +2555,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2592,22 +2574,25 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2634,17 +2619,38 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2938,19 +2944,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E279" sqref="E279"/>
+    <sheetView tabSelected="1" topLeftCell="H276" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="L292" sqref="L292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.26953125" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
+    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -3699,11 +3705,11 @@
       <c r="I16" s="14"/>
     </row>
     <row r="18" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
     </row>
     <row r="19" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
@@ -3757,24 +3763,24 @@
       </c>
     </row>
     <row r="23" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
       <c r="BM23" s="16"/>
       <c r="BN23" s="16"/>
       <c r="BO23" s="16"/>
@@ -6729,11 +6735,11 @@
       <c r="G63" s="25"/>
       <c r="J63" s="41" t="str">
         <f ca="1">TEXT(TODAY()-320,"MM-DD-YYYY")</f>
-        <v>09-17-2022</v>
+        <v>09-22-2022</v>
       </c>
       <c r="K63" s="41" t="str">
         <f ca="1">TEXT(TODAY()-290,"MM-DD-YYYY")</f>
-        <v>10-17-2022</v>
+        <v>10-22-2022</v>
       </c>
     </row>
     <row r="64" spans="1:117" x14ac:dyDescent="0.35">
@@ -6759,11 +6765,11 @@
       <c r="G64" s="31"/>
       <c r="J64" s="41" t="str">
         <f ca="1">TEXT(TODAY()-289,"MM-DD-YYYY")</f>
-        <v>10-18-2022</v>
+        <v>10-23-2022</v>
       </c>
       <c r="K64" s="41" t="str">
         <f ca="1">TEXT(TODAY()-259,"MM-DD-YYYY")</f>
-        <v>11-17-2022</v>
+        <v>11-22-2022</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -6789,11 +6795,11 @@
       <c r="G65" s="31"/>
       <c r="J65" s="41" t="str">
         <f ca="1">TEXT(TODAY()-258,"MM-DD-YYYY")</f>
-        <v>11-18-2022</v>
+        <v>11-23-2022</v>
       </c>
       <c r="K65" s="41" t="str">
         <f ca="1">TEXT(TODAY()-229,"MM-DD-YYYY")</f>
-        <v>12-17-2022</v>
+        <v>12-22-2022</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -6819,11 +6825,11 @@
       <c r="G66" s="31"/>
       <c r="J66" s="41" t="str">
         <f ca="1">TEXT(TODAY()-381,"MM-DD-YYYY")</f>
-        <v>07-18-2022</v>
+        <v>07-23-2022</v>
       </c>
       <c r="K66" s="41" t="str">
         <f ca="1">TEXT(TODAY()-351,"MM-DD-YYYY")</f>
-        <v>08-17-2022</v>
+        <v>08-22-2022</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -6849,11 +6855,11 @@
       <c r="G67" s="31"/>
       <c r="J67" s="41" t="str">
         <f ca="1">TEXT(TODAY()-350,"MM-DD-YYYY")</f>
-        <v>08-18-2022</v>
+        <v>08-23-2022</v>
       </c>
       <c r="K67" s="41" t="str">
         <f ca="1">TEXT(TODAY()-321,"MM-DD-YYYY")</f>
-        <v>09-16-2022</v>
+        <v>09-21-2022</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
@@ -6940,11 +6946,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="110" t="str">
         <f ca="1">TEXT(TODAY()-60,"DD-MMM-YY")</f>
-        <v>04-Jun-23</v>
+        <v>09-Jun-23</v>
       </c>
       <c r="K71" s="110" t="str">
         <f ca="1">TEXT(TODAY()-30,"DD-MMM-YY")</f>
-        <v>04-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6983,11 +6989,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="110" t="str">
         <f ca="1">TEXT(TODAY()-90,"DD-MMM-YY")</f>
-        <v>05-May-23</v>
+        <v>10-May-23</v>
       </c>
       <c r="K72" s="110" t="str">
         <f ca="1">TEXT(TODAY()-61,"DD-MMM-YY")</f>
-        <v>03-Jun-23</v>
+        <v>08-Jun-23</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -7026,11 +7032,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="110" t="str">
         <f ca="1">TEXT(TODAY()-120,"DD-MMM-YY")</f>
-        <v>05-Apr-23</v>
+        <v>10-Apr-23</v>
       </c>
       <c r="K73" s="110" t="str">
         <f ca="1">TEXT(TODAY()-91,"DD-MMM-YY")</f>
-        <v>04-May-23</v>
+        <v>09-May-23</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -7077,11 +7083,11 @@
       </c>
       <c r="J74" s="110" t="str">
         <f ca="1">TEXT(TODAY()-150,"DD-MMM-YY")</f>
-        <v>06-Mar-23</v>
+        <v>11-Mar-23</v>
       </c>
       <c r="K74" s="110" t="str">
         <f ca="1">TEXT(TODAY()-121,"DD-MMM-YY")</f>
-        <v>04-Apr-23</v>
+        <v>09-Apr-23</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -7128,11 +7134,11 @@
       </c>
       <c r="J75" s="110" t="str">
         <f ca="1">TEXT(TODAY()-180,"DD-MMM-YY")</f>
-        <v>04-Feb-23</v>
+        <v>09-Feb-23</v>
       </c>
       <c r="K75" s="110" t="str">
         <f ca="1">TEXT(TODAY()-151,"DD-MMM-YY")</f>
-        <v>05-Mar-23</v>
+        <v>10-Mar-23</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -7148,27 +7154,27 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="156" t="s">
+      <c r="A77" s="152" t="s">
         <v>267</v>
       </c>
-      <c r="B77" s="156"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="156"/>
-      <c r="K77" s="156"/>
+      <c r="B77" s="152"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="152"/>
+      <c r="E77" s="152"/>
+      <c r="F77" s="152"/>
+      <c r="G77" s="152"/>
+      <c r="H77" s="152"/>
+      <c r="I77" s="152"/>
+      <c r="J77" s="152"/>
+      <c r="K77" s="152"/>
     </row>
     <row r="79" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="157" t="s">
+      <c r="A79" s="153" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="157"/>
-      <c r="C79" s="157"/>
-      <c r="D79" s="157"/>
+      <c r="B79" s="153"/>
+      <c r="C79" s="153"/>
+      <c r="D79" s="153"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="s">
@@ -7209,7 +7215,7 @@
       <c r="G82" s="111"/>
       <c r="H82" s="41" t="str">
         <f ca="1">TEXT(TODAY()-210,"YYYY-MM-DD")</f>
-        <v>2023-01-05</v>
+        <v>2023-01-10</v>
       </c>
     </row>
     <row r="83" spans="1:78" x14ac:dyDescent="0.35">
@@ -7309,53 +7315,53 @@
       <c r="S84" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="T84" s="118" t="s">
+      <c r="T84" s="149" t="s">
         <v>293</v>
       </c>
-      <c r="U84" s="119"/>
-      <c r="V84" s="120"/>
-      <c r="W84" s="118" t="s">
+      <c r="U84" s="150"/>
+      <c r="V84" s="151"/>
+      <c r="W84" s="149" t="s">
         <v>294</v>
       </c>
-      <c r="X84" s="120"/>
+      <c r="X84" s="151"/>
       <c r="Y84" s="47"/>
-      <c r="Z84" s="121" t="s">
+      <c r="Z84" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="AA84" s="122"/>
-      <c r="AB84" s="122"/>
-      <c r="AC84" s="122"/>
-      <c r="AD84" s="122"/>
-      <c r="AE84" s="122"/>
-      <c r="AF84" s="123"/>
-      <c r="AG84" s="121" t="s">
+      <c r="AA84" s="119"/>
+      <c r="AB84" s="119"/>
+      <c r="AC84" s="119"/>
+      <c r="AD84" s="119"/>
+      <c r="AE84" s="119"/>
+      <c r="AF84" s="120"/>
+      <c r="AG84" s="118" t="s">
         <v>296</v>
       </c>
-      <c r="AH84" s="122"/>
-      <c r="AI84" s="122"/>
-      <c r="AJ84" s="122"/>
-      <c r="AK84" s="122"/>
-      <c r="AL84" s="123"/>
+      <c r="AH84" s="119"/>
+      <c r="AI84" s="119"/>
+      <c r="AJ84" s="119"/>
+      <c r="AK84" s="119"/>
+      <c r="AL84" s="120"/>
       <c r="AM84" s="48"/>
       <c r="AN84" s="49"/>
       <c r="AO84" s="49"/>
       <c r="AP84" s="49"/>
-      <c r="AQ84" s="121" t="s">
+      <c r="AQ84" s="118" t="s">
         <v>517</v>
       </c>
-      <c r="AR84" s="122"/>
-      <c r="AS84" s="123"/>
-      <c r="AT84" s="158" t="s">
+      <c r="AR84" s="119"/>
+      <c r="AS84" s="120"/>
+      <c r="AT84" s="121" t="s">
         <v>518</v>
       </c>
-      <c r="AU84" s="159"/>
-      <c r="AV84" s="159"/>
-      <c r="AW84" s="159"/>
-      <c r="AX84" s="159"/>
-      <c r="AY84" s="159"/>
-      <c r="AZ84" s="159"/>
-      <c r="BA84" s="159"/>
-      <c r="BB84" s="159"/>
+      <c r="AU84" s="122"/>
+      <c r="AV84" s="122"/>
+      <c r="AW84" s="122"/>
+      <c r="AX84" s="122"/>
+      <c r="AY84" s="122"/>
+      <c r="AZ84" s="122"/>
+      <c r="BA84" s="122"/>
+      <c r="BB84" s="122"/>
       <c r="BC84" s="50"/>
       <c r="BD84" s="50"/>
       <c r="BE84" s="50"/>
@@ -7553,11 +7559,11 @@
       </c>
       <c r="G86" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="H86" s="41" t="str">
         <f ca="1">TEXT(TODAY()-190,"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-01-30</v>
       </c>
       <c r="I86" s="54"/>
       <c r="J86" s="54">
@@ -7645,7 +7651,7 @@
       </c>
       <c r="AU86" s="40" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="AV86" s="40" t="s">
         <v>320</v>
@@ -7702,11 +7708,11 @@
       </c>
       <c r="G87" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="H87" s="41" t="str">
         <f ca="1">TEXT(TODAY()-190,"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-01-30</v>
       </c>
       <c r="I87" s="54"/>
       <c r="J87" s="54">
@@ -7798,7 +7804,7 @@
       </c>
       <c r="AU87" s="40" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="AV87" s="40" t="s">
         <v>320</v>
@@ -7945,7 +7951,7 @@
       </c>
       <c r="C90" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D90" s="33" t="s">
         <v>153</v>
@@ -8004,7 +8010,7 @@
       </c>
       <c r="C91" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>153</v>
@@ -8055,63 +8061,63 @@
       <c r="BZ91" s="50"/>
     </row>
     <row r="93" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A93" s="128" t="s">
+      <c r="A93" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="B93" s="129"/>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="129"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="129"/>
-      <c r="H93" s="129"/>
-      <c r="I93" s="129"/>
-      <c r="J93" s="129"/>
+      <c r="B93" s="126"/>
+      <c r="C93" s="126"/>
+      <c r="D93" s="126"/>
+      <c r="E93" s="126"/>
+      <c r="F93" s="126"/>
+      <c r="G93" s="126"/>
+      <c r="H93" s="126"/>
+      <c r="I93" s="126"/>
+      <c r="J93" s="126"/>
     </row>
     <row r="94" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A94" s="60"/>
       <c r="B94" s="61"/>
-      <c r="C94" s="130" t="s">
+      <c r="C94" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D94" s="130"/>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="130"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="127"/>
+      <c r="G94" s="127"/>
+      <c r="H94" s="127"/>
+      <c r="I94" s="127"/>
+      <c r="J94" s="127"/>
+      <c r="K94" s="127"/>
     </row>
     <row r="95" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A95" s="136" t="s">
+      <c r="A95" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="B95" s="136" t="s">
+      <c r="B95" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C95" s="138" t="s">
+      <c r="C95" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D95" s="139"/>
-      <c r="E95" s="139"/>
-      <c r="F95" s="140"/>
-      <c r="G95" s="141" t="s">
+      <c r="D95" s="131"/>
+      <c r="E95" s="131"/>
+      <c r="F95" s="132"/>
+      <c r="G95" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H95" s="143"/>
-      <c r="I95" s="143"/>
-      <c r="J95" s="142"/>
-      <c r="K95" s="136" t="s">
+      <c r="H95" s="134"/>
+      <c r="I95" s="134"/>
+      <c r="J95" s="135"/>
+      <c r="K95" s="128" t="s">
         <v>343</v>
       </c>
-      <c r="L95" s="136" t="s">
+      <c r="L95" s="128" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A96" s="137"/>
-      <c r="B96" s="137"/>
+      <c r="A96" s="129"/>
+      <c r="B96" s="129"/>
       <c r="C96" s="62" t="s">
         <v>345</v>
       </c>
@@ -8136,8 +8142,8 @@
       <c r="J96" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K96" s="137"/>
-      <c r="L96" s="137"/>
+      <c r="K96" s="129"/>
+      <c r="L96" s="129"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="40" t="s">
@@ -8187,76 +8193,76 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="128" t="s">
+      <c r="A99" s="125" t="s">
         <v>351</v>
       </c>
-      <c r="B99" s="129"/>
-      <c r="C99" s="129"/>
-      <c r="D99" s="129"/>
-      <c r="E99" s="129"/>
-      <c r="F99" s="129"/>
-      <c r="G99" s="129"/>
-      <c r="H99" s="129"/>
-      <c r="I99" s="129"/>
-      <c r="J99" s="129"/>
-      <c r="K99" s="129"/>
-      <c r="L99" s="129"/>
+      <c r="B99" s="126"/>
+      <c r="C99" s="126"/>
+      <c r="D99" s="126"/>
+      <c r="E99" s="126"/>
+      <c r="F99" s="126"/>
+      <c r="G99" s="126"/>
+      <c r="H99" s="126"/>
+      <c r="I99" s="126"/>
+      <c r="J99" s="126"/>
+      <c r="K99" s="126"/>
+      <c r="L99" s="126"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="133" t="s">
+      <c r="A100" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="B100" s="133" t="s">
+      <c r="B100" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="C100" s="148" t="s">
+      <c r="C100" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="D100" s="151" t="s">
+      <c r="D100" s="144" t="s">
         <v>354</v>
       </c>
-      <c r="E100" s="154" t="s">
+      <c r="E100" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="F100" s="154"/>
-      <c r="G100" s="154"/>
-      <c r="H100" s="154"/>
-      <c r="I100" s="155" t="s">
+      <c r="F100" s="147"/>
+      <c r="G100" s="147"/>
+      <c r="H100" s="147"/>
+      <c r="I100" s="148" t="s">
         <v>355</v>
       </c>
-      <c r="J100" s="155"/>
-      <c r="K100" s="155"/>
-      <c r="L100" s="155"/>
+      <c r="J100" s="148"/>
+      <c r="K100" s="148"/>
+      <c r="L100" s="148"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A101" s="134"/>
-      <c r="B101" s="134"/>
-      <c r="C101" s="149"/>
-      <c r="D101" s="152"/>
-      <c r="E101" s="138" t="s">
+      <c r="A101" s="139"/>
+      <c r="B101" s="139"/>
+      <c r="C101" s="142"/>
+      <c r="D101" s="145"/>
+      <c r="E101" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="F101" s="140"/>
-      <c r="G101" s="141" t="s">
+      <c r="F101" s="132"/>
+      <c r="G101" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H101" s="142"/>
-      <c r="I101" s="138" t="s">
+      <c r="H101" s="135"/>
+      <c r="I101" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="J101" s="140"/>
-      <c r="K101" s="141" t="s">
+      <c r="J101" s="132"/>
+      <c r="K101" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="L101" s="142"/>
+      <c r="L101" s="135"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A102" s="135"/>
-      <c r="B102" s="135" t="s">
+      <c r="A102" s="140"/>
+      <c r="B102" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="C102" s="150"/>
-      <c r="D102" s="153"/>
+      <c r="C102" s="143"/>
+      <c r="D102" s="146"/>
       <c r="E102" s="62" t="s">
         <v>357</v>
       </c>
@@ -8331,61 +8337,61 @@
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="128" t="s">
+      <c r="A105" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="B105" s="129"/>
-      <c r="C105" s="129"/>
-      <c r="D105" s="129"/>
-      <c r="E105" s="129"/>
-      <c r="F105" s="129"/>
-      <c r="G105" s="129"/>
-      <c r="H105" s="129"/>
-      <c r="I105" s="129"/>
-      <c r="J105" s="129"/>
+      <c r="B105" s="126"/>
+      <c r="C105" s="126"/>
+      <c r="D105" s="126"/>
+      <c r="E105" s="126"/>
+      <c r="F105" s="126"/>
+      <c r="G105" s="126"/>
+      <c r="H105" s="126"/>
+      <c r="I105" s="126"/>
+      <c r="J105" s="126"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="60"/>
       <c r="B106" s="61"/>
-      <c r="C106" s="130" t="s">
+      <c r="C106" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D106" s="130"/>
-      <c r="E106" s="130"/>
-      <c r="F106" s="130"/>
-      <c r="G106" s="130"/>
-      <c r="H106" s="130"/>
-      <c r="I106" s="130"/>
-      <c r="J106" s="130"/>
-      <c r="K106" s="130"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="127"/>
+      <c r="G106" s="127"/>
+      <c r="H106" s="127"/>
+      <c r="I106" s="127"/>
+      <c r="J106" s="127"/>
+      <c r="K106" s="127"/>
       <c r="Z106" s="67"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A107" s="136" t="s">
+      <c r="A107" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="B107" s="136" t="s">
+      <c r="B107" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C107" s="138" t="s">
+      <c r="C107" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D107" s="139"/>
-      <c r="E107" s="139"/>
-      <c r="F107" s="140"/>
-      <c r="G107" s="141" t="s">
+      <c r="D107" s="131"/>
+      <c r="E107" s="131"/>
+      <c r="F107" s="132"/>
+      <c r="G107" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H107" s="143"/>
-      <c r="I107" s="143"/>
-      <c r="J107" s="142"/>
-      <c r="K107" s="131" t="s">
+      <c r="H107" s="134"/>
+      <c r="I107" s="134"/>
+      <c r="J107" s="135"/>
+      <c r="K107" s="136" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A108" s="137"/>
-      <c r="B108" s="137"/>
+      <c r="A108" s="129"/>
+      <c r="B108" s="129"/>
       <c r="C108" s="62" t="s">
         <v>345</v>
       </c>
@@ -8410,7 +8416,7 @@
       <c r="J108" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K108" s="132"/>
+      <c r="K108" s="137"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="54" t="s">
@@ -8521,7 +8527,7 @@
       <c r="I113" s="70"/>
       <c r="J113" s="71">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="K113" s="71">
         <v>234</v>
@@ -8627,33 +8633,33 @@
       <c r="S116" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="T116" s="118" t="s">
+      <c r="T116" s="149" t="s">
         <v>293</v>
       </c>
-      <c r="U116" s="119"/>
-      <c r="V116" s="120"/>
-      <c r="W116" s="118" t="s">
+      <c r="U116" s="150"/>
+      <c r="V116" s="151"/>
+      <c r="W116" s="149" t="s">
         <v>294</v>
       </c>
-      <c r="X116" s="120"/>
+      <c r="X116" s="151"/>
       <c r="Y116" s="94"/>
-      <c r="Z116" s="121" t="s">
+      <c r="Z116" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="AA116" s="122"/>
-      <c r="AB116" s="122"/>
-      <c r="AC116" s="122"/>
-      <c r="AD116" s="122"/>
-      <c r="AE116" s="122"/>
-      <c r="AF116" s="123"/>
-      <c r="AG116" s="121" t="s">
+      <c r="AA116" s="119"/>
+      <c r="AB116" s="119"/>
+      <c r="AC116" s="119"/>
+      <c r="AD116" s="119"/>
+      <c r="AE116" s="119"/>
+      <c r="AF116" s="120"/>
+      <c r="AG116" s="118" t="s">
         <v>296</v>
       </c>
-      <c r="AH116" s="122"/>
-      <c r="AI116" s="122"/>
-      <c r="AJ116" s="122"/>
-      <c r="AK116" s="122"/>
-      <c r="AL116" s="123"/>
+      <c r="AH116" s="119"/>
+      <c r="AI116" s="119"/>
+      <c r="AJ116" s="119"/>
+      <c r="AK116" s="119"/>
+      <c r="AL116" s="120"/>
       <c r="AM116" s="48"/>
       <c r="AN116" s="49"/>
       <c r="AO116" s="49"/>
@@ -8839,11 +8845,11 @@
       </c>
       <c r="G118" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="H118" s="41" t="str">
         <f ca="1">TEXT(TODAY()-190,"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-01-30</v>
       </c>
       <c r="I118" s="54"/>
       <c r="J118" s="54">
@@ -8965,63 +8971,63 @@
       <c r="BZ118" s="50"/>
     </row>
     <row r="120" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A120" s="128" t="s">
+      <c r="A120" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="B120" s="129"/>
-      <c r="C120" s="129"/>
-      <c r="D120" s="129"/>
-      <c r="E120" s="129"/>
-      <c r="F120" s="129"/>
-      <c r="G120" s="129"/>
-      <c r="H120" s="129"/>
-      <c r="I120" s="129"/>
-      <c r="J120" s="129"/>
+      <c r="B120" s="126"/>
+      <c r="C120" s="126"/>
+      <c r="D120" s="126"/>
+      <c r="E120" s="126"/>
+      <c r="F120" s="126"/>
+      <c r="G120" s="126"/>
+      <c r="H120" s="126"/>
+      <c r="I120" s="126"/>
+      <c r="J120" s="126"/>
     </row>
     <row r="121" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A121" s="92"/>
       <c r="B121" s="93"/>
-      <c r="C121" s="130" t="s">
+      <c r="C121" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D121" s="130"/>
-      <c r="E121" s="130"/>
-      <c r="F121" s="130"/>
-      <c r="G121" s="130"/>
-      <c r="H121" s="130"/>
-      <c r="I121" s="130"/>
-      <c r="J121" s="130"/>
-      <c r="K121" s="130"/>
+      <c r="D121" s="127"/>
+      <c r="E121" s="127"/>
+      <c r="F121" s="127"/>
+      <c r="G121" s="127"/>
+      <c r="H121" s="127"/>
+      <c r="I121" s="127"/>
+      <c r="J121" s="127"/>
+      <c r="K121" s="127"/>
     </row>
     <row r="122" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A122" s="136" t="s">
+      <c r="A122" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="B122" s="136" t="s">
+      <c r="B122" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C122" s="138" t="s">
+      <c r="C122" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D122" s="139"/>
-      <c r="E122" s="139"/>
-      <c r="F122" s="140"/>
-      <c r="G122" s="141" t="s">
+      <c r="D122" s="131"/>
+      <c r="E122" s="131"/>
+      <c r="F122" s="132"/>
+      <c r="G122" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H122" s="143"/>
-      <c r="I122" s="143"/>
-      <c r="J122" s="142"/>
-      <c r="K122" s="136" t="s">
+      <c r="H122" s="134"/>
+      <c r="I122" s="134"/>
+      <c r="J122" s="135"/>
+      <c r="K122" s="128" t="s">
         <v>343</v>
       </c>
-      <c r="L122" s="136" t="s">
+      <c r="L122" s="128" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A123" s="137"/>
-      <c r="B123" s="137"/>
+      <c r="A123" s="129"/>
+      <c r="B123" s="129"/>
       <c r="C123" s="62" t="s">
         <v>345</v>
       </c>
@@ -9046,8 +9052,8 @@
       <c r="J123" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K123" s="137"/>
-      <c r="L123" s="137"/>
+      <c r="K123" s="129"/>
+      <c r="L123" s="129"/>
     </row>
     <row r="124" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A124" s="40" t="s">
@@ -9097,76 +9103,76 @@
       </c>
     </row>
     <row r="126" spans="1:78" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="128" t="s">
+      <c r="A126" s="125" t="s">
         <v>351</v>
       </c>
-      <c r="B126" s="129"/>
-      <c r="C126" s="129"/>
-      <c r="D126" s="129"/>
-      <c r="E126" s="129"/>
-      <c r="F126" s="129"/>
-      <c r="G126" s="129"/>
-      <c r="H126" s="129"/>
-      <c r="I126" s="129"/>
-      <c r="J126" s="129"/>
-      <c r="K126" s="129"/>
-      <c r="L126" s="129"/>
+      <c r="B126" s="126"/>
+      <c r="C126" s="126"/>
+      <c r="D126" s="126"/>
+      <c r="E126" s="126"/>
+      <c r="F126" s="126"/>
+      <c r="G126" s="126"/>
+      <c r="H126" s="126"/>
+      <c r="I126" s="126"/>
+      <c r="J126" s="126"/>
+      <c r="K126" s="126"/>
+      <c r="L126" s="126"/>
     </row>
     <row r="127" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A127" s="133" t="s">
+      <c r="A127" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="133" t="s">
+      <c r="B127" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="C127" s="148" t="s">
+      <c r="C127" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="D127" s="151" t="s">
+      <c r="D127" s="144" t="s">
         <v>354</v>
       </c>
-      <c r="E127" s="154" t="s">
+      <c r="E127" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="F127" s="154"/>
-      <c r="G127" s="154"/>
-      <c r="H127" s="154"/>
-      <c r="I127" s="155" t="s">
+      <c r="F127" s="147"/>
+      <c r="G127" s="147"/>
+      <c r="H127" s="147"/>
+      <c r="I127" s="148" t="s">
         <v>355</v>
       </c>
-      <c r="J127" s="155"/>
-      <c r="K127" s="155"/>
-      <c r="L127" s="155"/>
+      <c r="J127" s="148"/>
+      <c r="K127" s="148"/>
+      <c r="L127" s="148"/>
     </row>
     <row r="128" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A128" s="134"/>
-      <c r="B128" s="134"/>
-      <c r="C128" s="149"/>
-      <c r="D128" s="152"/>
-      <c r="E128" s="138" t="s">
+      <c r="A128" s="139"/>
+      <c r="B128" s="139"/>
+      <c r="C128" s="142"/>
+      <c r="D128" s="145"/>
+      <c r="E128" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="F128" s="140"/>
-      <c r="G128" s="141" t="s">
+      <c r="F128" s="132"/>
+      <c r="G128" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H128" s="142"/>
-      <c r="I128" s="138" t="s">
+      <c r="H128" s="135"/>
+      <c r="I128" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="J128" s="140"/>
-      <c r="K128" s="141" t="s">
+      <c r="J128" s="132"/>
+      <c r="K128" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="L128" s="142"/>
+      <c r="L128" s="135"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A129" s="135"/>
-      <c r="B129" s="135" t="s">
+      <c r="A129" s="140"/>
+      <c r="B129" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="150"/>
-      <c r="D129" s="153"/>
+      <c r="C129" s="143"/>
+      <c r="D129" s="146"/>
       <c r="E129" s="62" t="s">
         <v>357</v>
       </c>
@@ -9241,61 +9247,61 @@
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A132" s="128" t="s">
+      <c r="A132" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="B132" s="129"/>
-      <c r="C132" s="129"/>
-      <c r="D132" s="129"/>
-      <c r="E132" s="129"/>
-      <c r="F132" s="129"/>
-      <c r="G132" s="129"/>
-      <c r="H132" s="129"/>
-      <c r="I132" s="129"/>
-      <c r="J132" s="129"/>
+      <c r="B132" s="126"/>
+      <c r="C132" s="126"/>
+      <c r="D132" s="126"/>
+      <c r="E132" s="126"/>
+      <c r="F132" s="126"/>
+      <c r="G132" s="126"/>
+      <c r="H132" s="126"/>
+      <c r="I132" s="126"/>
+      <c r="J132" s="126"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" s="92"/>
       <c r="B133" s="93"/>
-      <c r="C133" s="130" t="s">
+      <c r="C133" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D133" s="130"/>
-      <c r="E133" s="130"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="130"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="130"/>
+      <c r="D133" s="127"/>
+      <c r="E133" s="127"/>
+      <c r="F133" s="127"/>
+      <c r="G133" s="127"/>
+      <c r="H133" s="127"/>
+      <c r="I133" s="127"/>
+      <c r="J133" s="127"/>
+      <c r="K133" s="127"/>
       <c r="Z133" s="67"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A134" s="136" t="s">
+      <c r="A134" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="B134" s="136" t="s">
+      <c r="B134" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C134" s="138" t="s">
+      <c r="C134" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D134" s="139"/>
-      <c r="E134" s="139"/>
-      <c r="F134" s="140"/>
-      <c r="G134" s="141" t="s">
+      <c r="D134" s="131"/>
+      <c r="E134" s="131"/>
+      <c r="F134" s="132"/>
+      <c r="G134" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H134" s="143"/>
-      <c r="I134" s="143"/>
-      <c r="J134" s="142"/>
-      <c r="K134" s="131" t="s">
+      <c r="H134" s="134"/>
+      <c r="I134" s="134"/>
+      <c r="J134" s="135"/>
+      <c r="K134" s="136" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A135" s="137"/>
-      <c r="B135" s="137"/>
+      <c r="A135" s="129"/>
+      <c r="B135" s="129"/>
       <c r="C135" s="62" t="s">
         <v>345</v>
       </c>
@@ -9320,7 +9326,7 @@
       <c r="J135" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K135" s="132"/>
+      <c r="K135" s="137"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" s="54" t="s">
@@ -9431,7 +9437,7 @@
       <c r="I140" s="70"/>
       <c r="J140" s="71">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="K140" s="71">
         <v>234</v>
@@ -9464,7 +9470,7 @@
     <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="B144" s="73" t="s">
         <v>382</v>
@@ -9479,7 +9485,7 @@
     <row r="145" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A145" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="B145" s="73" t="s">
         <v>383</v>
@@ -9494,7 +9500,7 @@
     <row r="146" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A146" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="B146" s="73" t="s">
         <v>384</v>
@@ -9507,26 +9513,26 @@
       </c>
     </row>
     <row r="148" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A148" s="124" t="s">
+      <c r="A148" s="123" t="s">
         <v>476</v>
       </c>
-      <c r="B148" s="125"/>
-      <c r="C148" s="125"/>
-      <c r="D148" s="125"/>
-      <c r="E148" s="125"/>
-      <c r="F148" s="125"/>
-      <c r="G148" s="125"/>
-      <c r="H148" s="125"/>
-      <c r="I148" s="125"/>
-      <c r="J148" s="125"/>
-      <c r="K148" s="125"/>
-      <c r="L148" s="125"/>
-      <c r="M148" s="125"/>
-      <c r="N148" s="125"/>
-      <c r="O148" s="125"/>
-      <c r="P148" s="125"/>
-      <c r="Q148" s="125"/>
-      <c r="R148" s="125"/>
+      <c r="B148" s="124"/>
+      <c r="C148" s="124"/>
+      <c r="D148" s="124"/>
+      <c r="E148" s="124"/>
+      <c r="F148" s="124"/>
+      <c r="G148" s="124"/>
+      <c r="H148" s="124"/>
+      <c r="I148" s="124"/>
+      <c r="J148" s="124"/>
+      <c r="K148" s="124"/>
+      <c r="L148" s="124"/>
+      <c r="M148" s="124"/>
+      <c r="N148" s="124"/>
+      <c r="O148" s="124"/>
+      <c r="P148" s="124"/>
+      <c r="Q148" s="124"/>
+      <c r="R148" s="124"/>
       <c r="S148" s="61"/>
       <c r="T148" s="61"/>
       <c r="U148" s="61"/>
@@ -9626,7 +9632,7 @@
       </c>
       <c r="D150" s="79" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E150" s="79"/>
       <c r="F150" s="79" t="str">
@@ -9693,7 +9699,7 @@
       </c>
       <c r="D151" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="E151" s="78"/>
       <c r="F151" s="78">
@@ -9748,7 +9754,7 @@
       </c>
       <c r="D152" s="82" t="str">
         <f ca="1">TEXT(TODAY()+70,"YYYY-MM-DD")</f>
-        <v>2023-10-12</v>
+        <v>2023-10-17</v>
       </c>
       <c r="E152" s="82"/>
       <c r="F152" s="82">
@@ -9794,26 +9800,26 @@
       </c>
     </row>
     <row r="154" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A154" s="124" t="s">
+      <c r="A154" s="123" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="125"/>
-      <c r="C154" s="125"/>
-      <c r="D154" s="125"/>
-      <c r="E154" s="125"/>
-      <c r="F154" s="125"/>
-      <c r="G154" s="125"/>
-      <c r="H154" s="125"/>
-      <c r="I154" s="125"/>
-      <c r="J154" s="125"/>
-      <c r="K154" s="125"/>
-      <c r="L154" s="125"/>
-      <c r="M154" s="125"/>
-      <c r="N154" s="125"/>
-      <c r="O154" s="125"/>
-      <c r="P154" s="125"/>
-      <c r="Q154" s="125"/>
-      <c r="R154" s="125"/>
+      <c r="B154" s="124"/>
+      <c r="C154" s="124"/>
+      <c r="D154" s="124"/>
+      <c r="E154" s="124"/>
+      <c r="F154" s="124"/>
+      <c r="G154" s="124"/>
+      <c r="H154" s="124"/>
+      <c r="I154" s="124"/>
+      <c r="J154" s="124"/>
+      <c r="K154" s="124"/>
+      <c r="L154" s="124"/>
+      <c r="M154" s="124"/>
+      <c r="N154" s="124"/>
+      <c r="O154" s="124"/>
+      <c r="P154" s="124"/>
+      <c r="Q154" s="124"/>
+      <c r="R154" s="124"/>
       <c r="S154" s="80"/>
       <c r="T154" s="80"/>
       <c r="U154" s="80"/>
@@ -10089,7 +10095,7 @@
       </c>
       <c r="D159" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-02</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E159" s="82"/>
       <c r="F159" s="82" t="s">
@@ -10140,26 +10146,26 @@
       </c>
     </row>
     <row r="161" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A161" s="124" t="s">
+      <c r="A161" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="B161" s="125"/>
-      <c r="C161" s="125"/>
-      <c r="D161" s="125"/>
-      <c r="E161" s="125"/>
-      <c r="F161" s="125"/>
-      <c r="G161" s="125"/>
-      <c r="H161" s="125"/>
-      <c r="I161" s="125"/>
-      <c r="J161" s="125"/>
-      <c r="K161" s="125"/>
-      <c r="L161" s="125"/>
-      <c r="M161" s="125"/>
-      <c r="N161" s="125"/>
-      <c r="O161" s="125"/>
-      <c r="P161" s="125"/>
-      <c r="Q161" s="125"/>
-      <c r="R161" s="125"/>
+      <c r="B161" s="124"/>
+      <c r="C161" s="124"/>
+      <c r="D161" s="124"/>
+      <c r="E161" s="124"/>
+      <c r="F161" s="124"/>
+      <c r="G161" s="124"/>
+      <c r="H161" s="124"/>
+      <c r="I161" s="124"/>
+      <c r="J161" s="124"/>
+      <c r="K161" s="124"/>
+      <c r="L161" s="124"/>
+      <c r="M161" s="124"/>
+      <c r="N161" s="124"/>
+      <c r="O161" s="124"/>
+      <c r="P161" s="124"/>
+      <c r="Q161" s="124"/>
+      <c r="R161" s="124"/>
       <c r="S161" s="81"/>
       <c r="T161" s="81"/>
       <c r="U161" s="81"/>
@@ -10431,7 +10437,7 @@
       </c>
       <c r="D166" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-02</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E166" s="82"/>
       <c r="F166" s="82" t="s">
@@ -10482,26 +10488,26 @@
       </c>
     </row>
     <row r="168" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A168" s="124" t="s">
+      <c r="A168" s="123" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="125"/>
-      <c r="C168" s="125"/>
-      <c r="D168" s="125"/>
-      <c r="E168" s="125"/>
-      <c r="F168" s="125"/>
-      <c r="G168" s="125"/>
-      <c r="H168" s="125"/>
-      <c r="I168" s="125"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="125"/>
-      <c r="L168" s="125"/>
-      <c r="M168" s="125"/>
-      <c r="N168" s="125"/>
-      <c r="O168" s="125"/>
-      <c r="P168" s="125"/>
-      <c r="Q168" s="125"/>
-      <c r="R168" s="125"/>
+      <c r="B168" s="124"/>
+      <c r="C168" s="124"/>
+      <c r="D168" s="124"/>
+      <c r="E168" s="124"/>
+      <c r="F168" s="124"/>
+      <c r="G168" s="124"/>
+      <c r="H168" s="124"/>
+      <c r="I168" s="124"/>
+      <c r="J168" s="124"/>
+      <c r="K168" s="124"/>
+      <c r="L168" s="124"/>
+      <c r="M168" s="124"/>
+      <c r="N168" s="124"/>
+      <c r="O168" s="124"/>
+      <c r="P168" s="124"/>
+      <c r="Q168" s="124"/>
+      <c r="R168" s="124"/>
       <c r="S168" s="84"/>
       <c r="T168" s="84"/>
       <c r="U168" s="84"/>
@@ -10729,7 +10735,7 @@
       </c>
       <c r="D172" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="E172" s="77"/>
       <c r="F172" s="77" t="s">
@@ -10786,7 +10792,7 @@
       </c>
       <c r="D173" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-02</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E173" s="82"/>
       <c r="F173" s="82" t="s">
@@ -10832,26 +10838,26 @@
       </c>
     </row>
     <row r="175" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A175" s="124" t="s">
+      <c r="A175" s="123" t="s">
         <v>473</v>
       </c>
-      <c r="B175" s="125"/>
-      <c r="C175" s="125"/>
-      <c r="D175" s="125"/>
-      <c r="E175" s="125"/>
-      <c r="F175" s="125"/>
-      <c r="G175" s="125"/>
-      <c r="H175" s="125"/>
-      <c r="I175" s="125"/>
-      <c r="J175" s="125"/>
-      <c r="K175" s="125"/>
-      <c r="L175" s="125"/>
-      <c r="M175" s="125"/>
-      <c r="N175" s="125"/>
-      <c r="O175" s="125"/>
-      <c r="P175" s="125"/>
-      <c r="Q175" s="125"/>
-      <c r="R175" s="125"/>
+      <c r="B175" s="124"/>
+      <c r="C175" s="124"/>
+      <c r="D175" s="124"/>
+      <c r="E175" s="124"/>
+      <c r="F175" s="124"/>
+      <c r="G175" s="124"/>
+      <c r="H175" s="124"/>
+      <c r="I175" s="124"/>
+      <c r="J175" s="124"/>
+      <c r="K175" s="124"/>
+      <c r="L175" s="124"/>
+      <c r="M175" s="124"/>
+      <c r="N175" s="124"/>
+      <c r="O175" s="124"/>
+      <c r="P175" s="124"/>
+      <c r="Q175" s="124"/>
+      <c r="R175" s="124"/>
       <c r="S175" s="85"/>
       <c r="T175" s="85"/>
       <c r="U175" s="85"/>
@@ -10953,7 +10959,7 @@
       </c>
       <c r="D177" s="79" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E177" s="79"/>
       <c r="F177" s="79"/>
@@ -11077,7 +11083,7 @@
       </c>
       <c r="D179" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="E179" s="78"/>
       <c r="F179" s="78" t="s">
@@ -11132,7 +11138,7 @@
       </c>
       <c r="D180" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-02</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E180" s="82"/>
       <c r="F180" s="82" t="s">
@@ -11176,26 +11182,26 @@
       </c>
     </row>
     <row r="182" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A182" s="124" t="s">
+      <c r="A182" s="123" t="s">
         <v>473</v>
       </c>
-      <c r="B182" s="125"/>
-      <c r="C182" s="125"/>
-      <c r="D182" s="125"/>
-      <c r="E182" s="125"/>
-      <c r="F182" s="125"/>
-      <c r="G182" s="125"/>
-      <c r="H182" s="125"/>
-      <c r="I182" s="125"/>
-      <c r="J182" s="125"/>
-      <c r="K182" s="125"/>
-      <c r="L182" s="125"/>
-      <c r="M182" s="125"/>
-      <c r="N182" s="125"/>
-      <c r="O182" s="125"/>
-      <c r="P182" s="125"/>
-      <c r="Q182" s="125"/>
-      <c r="R182" s="125"/>
+      <c r="B182" s="124"/>
+      <c r="C182" s="124"/>
+      <c r="D182" s="124"/>
+      <c r="E182" s="124"/>
+      <c r="F182" s="124"/>
+      <c r="G182" s="124"/>
+      <c r="H182" s="124"/>
+      <c r="I182" s="124"/>
+      <c r="J182" s="124"/>
+      <c r="K182" s="124"/>
+      <c r="L182" s="124"/>
+      <c r="M182" s="124"/>
+      <c r="N182" s="124"/>
+      <c r="O182" s="124"/>
+      <c r="P182" s="124"/>
+      <c r="Q182" s="124"/>
+      <c r="R182" s="124"/>
       <c r="S182" s="95"/>
       <c r="T182" s="95"/>
       <c r="U182" s="95"/>
@@ -11297,7 +11303,7 @@
       </c>
       <c r="D184" s="79" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-03</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E184" s="79"/>
       <c r="F184" s="79"/>
@@ -11418,7 +11424,7 @@
       </c>
       <c r="D186" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="E186" s="78"/>
       <c r="F186" s="78" t="s">
@@ -11473,7 +11479,7 @@
       </c>
       <c r="D187" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-02</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E187" s="82"/>
       <c r="F187" s="82" t="s">
@@ -11517,26 +11523,26 @@
       </c>
     </row>
     <row r="189" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A189" s="124" t="s">
+      <c r="A189" s="123" t="s">
         <v>473</v>
       </c>
-      <c r="B189" s="125"/>
-      <c r="C189" s="125"/>
-      <c r="D189" s="125"/>
-      <c r="E189" s="125"/>
-      <c r="F189" s="125"/>
-      <c r="G189" s="125"/>
-      <c r="H189" s="125"/>
-      <c r="I189" s="125"/>
-      <c r="J189" s="125"/>
-      <c r="K189" s="125"/>
-      <c r="L189" s="125"/>
-      <c r="M189" s="125"/>
-      <c r="N189" s="125"/>
-      <c r="O189" s="125"/>
-      <c r="P189" s="125"/>
-      <c r="Q189" s="125"/>
-      <c r="R189" s="125"/>
+      <c r="B189" s="124"/>
+      <c r="C189" s="124"/>
+      <c r="D189" s="124"/>
+      <c r="E189" s="124"/>
+      <c r="F189" s="124"/>
+      <c r="G189" s="124"/>
+      <c r="H189" s="124"/>
+      <c r="I189" s="124"/>
+      <c r="J189" s="124"/>
+      <c r="K189" s="124"/>
+      <c r="L189" s="124"/>
+      <c r="M189" s="124"/>
+      <c r="N189" s="124"/>
+      <c r="O189" s="124"/>
+      <c r="P189" s="124"/>
+      <c r="Q189" s="124"/>
+      <c r="R189" s="124"/>
       <c r="S189" s="88"/>
       <c r="T189" s="88"/>
       <c r="U189" s="88"/>
@@ -11760,7 +11766,7 @@
       </c>
       <c r="D193" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="E193" s="77"/>
       <c r="F193" s="78">
@@ -11815,7 +11821,7 @@
       </c>
       <c r="D194" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-02</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E194" s="82"/>
       <c r="F194" s="82">
@@ -11861,26 +11867,26 @@
       </c>
     </row>
     <row r="196" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A196" s="124" t="s">
+      <c r="A196" s="123" t="s">
         <v>477</v>
       </c>
-      <c r="B196" s="125"/>
-      <c r="C196" s="125"/>
-      <c r="D196" s="125"/>
-      <c r="E196" s="125"/>
-      <c r="F196" s="125"/>
-      <c r="G196" s="125"/>
-      <c r="H196" s="125"/>
-      <c r="I196" s="125"/>
-      <c r="J196" s="125"/>
-      <c r="K196" s="125"/>
-      <c r="L196" s="125"/>
-      <c r="M196" s="125"/>
-      <c r="N196" s="125"/>
-      <c r="O196" s="125"/>
-      <c r="P196" s="125"/>
-      <c r="Q196" s="125"/>
-      <c r="R196" s="125"/>
+      <c r="B196" s="124"/>
+      <c r="C196" s="124"/>
+      <c r="D196" s="124"/>
+      <c r="E196" s="124"/>
+      <c r="F196" s="124"/>
+      <c r="G196" s="124"/>
+      <c r="H196" s="124"/>
+      <c r="I196" s="124"/>
+      <c r="J196" s="124"/>
+      <c r="K196" s="124"/>
+      <c r="L196" s="124"/>
+      <c r="M196" s="124"/>
+      <c r="N196" s="124"/>
+      <c r="O196" s="124"/>
+      <c r="P196" s="124"/>
+      <c r="Q196" s="124"/>
+      <c r="R196" s="124"/>
       <c r="S196" s="89"/>
       <c r="T196" s="89"/>
       <c r="U196" s="89"/>
@@ -12037,26 +12043,26 @@
       </c>
     </row>
     <row r="200" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A200" s="124" t="s">
+      <c r="A200" s="123" t="s">
         <v>477</v>
       </c>
-      <c r="B200" s="125"/>
-      <c r="C200" s="125"/>
-      <c r="D200" s="125"/>
-      <c r="E200" s="125"/>
-      <c r="F200" s="125"/>
-      <c r="G200" s="125"/>
-      <c r="H200" s="125"/>
-      <c r="I200" s="125"/>
-      <c r="J200" s="125"/>
-      <c r="K200" s="125"/>
-      <c r="L200" s="125"/>
-      <c r="M200" s="125"/>
-      <c r="N200" s="125"/>
-      <c r="O200" s="125"/>
-      <c r="P200" s="125"/>
-      <c r="Q200" s="125"/>
-      <c r="R200" s="125"/>
+      <c r="B200" s="124"/>
+      <c r="C200" s="124"/>
+      <c r="D200" s="124"/>
+      <c r="E200" s="124"/>
+      <c r="F200" s="124"/>
+      <c r="G200" s="124"/>
+      <c r="H200" s="124"/>
+      <c r="I200" s="124"/>
+      <c r="J200" s="124"/>
+      <c r="K200" s="124"/>
+      <c r="L200" s="124"/>
+      <c r="M200" s="124"/>
+      <c r="N200" s="124"/>
+      <c r="O200" s="124"/>
+      <c r="P200" s="124"/>
+      <c r="Q200" s="124"/>
+      <c r="R200" s="124"/>
       <c r="S200" s="91"/>
       <c r="T200" s="91"/>
       <c r="U200" s="91"/>
@@ -12226,7 +12232,7 @@
       </c>
       <c r="D203" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="E203" s="77"/>
       <c r="F203" s="78">
@@ -12281,7 +12287,7 @@
       </c>
       <c r="D204" s="82" t="str">
         <f ca="1">TEXT(TODAY()+70,"YYYY-MM-DD")</f>
-        <v>2023-10-12</v>
+        <v>2023-10-17</v>
       </c>
       <c r="E204" s="82"/>
       <c r="F204" s="82">
@@ -12393,7 +12399,7 @@
       <c r="I208" s="70"/>
       <c r="J208" s="71">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="K208" s="71">
         <v>234</v>
@@ -12469,7 +12475,7 @@
       <c r="I212" s="70"/>
       <c r="J212" s="71">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="K212" s="71">
         <v>234</v>
@@ -12479,76 +12485,76 @@
       </c>
     </row>
     <row r="214" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="128" t="s">
+      <c r="A214" s="125" t="s">
         <v>351</v>
       </c>
-      <c r="B214" s="129"/>
-      <c r="C214" s="129"/>
-      <c r="D214" s="129"/>
-      <c r="E214" s="129"/>
-      <c r="F214" s="129"/>
-      <c r="G214" s="129"/>
-      <c r="H214" s="129"/>
-      <c r="I214" s="129"/>
-      <c r="J214" s="129"/>
-      <c r="K214" s="129"/>
-      <c r="L214" s="129"/>
+      <c r="B214" s="126"/>
+      <c r="C214" s="126"/>
+      <c r="D214" s="126"/>
+      <c r="E214" s="126"/>
+      <c r="F214" s="126"/>
+      <c r="G214" s="126"/>
+      <c r="H214" s="126"/>
+      <c r="I214" s="126"/>
+      <c r="J214" s="126"/>
+      <c r="K214" s="126"/>
+      <c r="L214" s="126"/>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A215" s="133" t="s">
+      <c r="A215" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="B215" s="133" t="s">
+      <c r="B215" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="C215" s="148" t="s">
+      <c r="C215" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="D215" s="151" t="s">
+      <c r="D215" s="144" t="s">
         <v>354</v>
       </c>
-      <c r="E215" s="154" t="s">
+      <c r="E215" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="F215" s="154"/>
-      <c r="G215" s="154"/>
-      <c r="H215" s="154"/>
-      <c r="I215" s="155" t="s">
+      <c r="F215" s="147"/>
+      <c r="G215" s="147"/>
+      <c r="H215" s="147"/>
+      <c r="I215" s="148" t="s">
         <v>355</v>
       </c>
-      <c r="J215" s="155"/>
-      <c r="K215" s="155"/>
-      <c r="L215" s="155"/>
+      <c r="J215" s="148"/>
+      <c r="K215" s="148"/>
+      <c r="L215" s="148"/>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A216" s="134"/>
-      <c r="B216" s="134"/>
-      <c r="C216" s="149"/>
-      <c r="D216" s="152"/>
-      <c r="E216" s="138" t="s">
+      <c r="A216" s="139"/>
+      <c r="B216" s="139"/>
+      <c r="C216" s="142"/>
+      <c r="D216" s="145"/>
+      <c r="E216" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="F216" s="140"/>
-      <c r="G216" s="141" t="s">
+      <c r="F216" s="132"/>
+      <c r="G216" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H216" s="142"/>
-      <c r="I216" s="138" t="s">
+      <c r="H216" s="135"/>
+      <c r="I216" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="J216" s="140"/>
-      <c r="K216" s="141" t="s">
+      <c r="J216" s="132"/>
+      <c r="K216" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="L216" s="142"/>
+      <c r="L216" s="135"/>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A217" s="135"/>
-      <c r="B217" s="135" t="s">
+      <c r="A217" s="140"/>
+      <c r="B217" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="C217" s="150"/>
-      <c r="D217" s="153"/>
+      <c r="C217" s="143"/>
+      <c r="D217" s="146"/>
       <c r="E217" s="62" t="s">
         <v>357</v>
       </c>
@@ -12623,61 +12629,61 @@
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A220" s="128" t="s">
+      <c r="A220" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="B220" s="129"/>
-      <c r="C220" s="129"/>
-      <c r="D220" s="129"/>
-      <c r="E220" s="129"/>
-      <c r="F220" s="129"/>
-      <c r="G220" s="129"/>
-      <c r="H220" s="129"/>
-      <c r="I220" s="129"/>
-      <c r="J220" s="129"/>
+      <c r="B220" s="126"/>
+      <c r="C220" s="126"/>
+      <c r="D220" s="126"/>
+      <c r="E220" s="126"/>
+      <c r="F220" s="126"/>
+      <c r="G220" s="126"/>
+      <c r="H220" s="126"/>
+      <c r="I220" s="126"/>
+      <c r="J220" s="126"/>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A221" s="97"/>
       <c r="B221" s="98"/>
-      <c r="C221" s="130" t="s">
+      <c r="C221" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D221" s="130"/>
-      <c r="E221" s="130"/>
-      <c r="F221" s="130"/>
-      <c r="G221" s="130"/>
-      <c r="H221" s="130"/>
-      <c r="I221" s="130"/>
-      <c r="J221" s="130"/>
-      <c r="K221" s="130"/>
+      <c r="D221" s="127"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="127"/>
+      <c r="G221" s="127"/>
+      <c r="H221" s="127"/>
+      <c r="I221" s="127"/>
+      <c r="J221" s="127"/>
+      <c r="K221" s="127"/>
       <c r="Z221" s="67"/>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A222" s="136" t="s">
+      <c r="A222" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="B222" s="136" t="s">
+      <c r="B222" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C222" s="138" t="s">
+      <c r="C222" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D222" s="139"/>
-      <c r="E222" s="139"/>
-      <c r="F222" s="140"/>
-      <c r="G222" s="141" t="s">
+      <c r="D222" s="131"/>
+      <c r="E222" s="131"/>
+      <c r="F222" s="132"/>
+      <c r="G222" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H222" s="143"/>
-      <c r="I222" s="143"/>
-      <c r="J222" s="142"/>
-      <c r="K222" s="131" t="s">
+      <c r="H222" s="134"/>
+      <c r="I222" s="134"/>
+      <c r="J222" s="135"/>
+      <c r="K222" s="136" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A223" s="137"/>
-      <c r="B223" s="137"/>
+      <c r="A223" s="129"/>
+      <c r="B223" s="129"/>
       <c r="C223" s="62" t="s">
         <v>345</v>
       </c>
@@ -12702,7 +12708,7 @@
       <c r="J223" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K223" s="132"/>
+      <c r="K223" s="137"/>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A224" s="54" t="s">
@@ -12813,7 +12819,7 @@
       <c r="I228" s="70"/>
       <c r="J228" s="71">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="K228" s="71">
         <v>234</v>
@@ -12823,71 +12829,71 @@
       </c>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A230" s="128" t="s">
+      <c r="A230" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="B230" s="129"/>
-      <c r="C230" s="129"/>
-      <c r="D230" s="129"/>
-      <c r="E230" s="129"/>
-      <c r="F230" s="129"/>
-      <c r="G230" s="129"/>
-      <c r="H230" s="129"/>
-      <c r="I230" s="129"/>
-      <c r="J230" s="129"/>
+      <c r="B230" s="126"/>
+      <c r="C230" s="126"/>
+      <c r="D230" s="126"/>
+      <c r="E230" s="126"/>
+      <c r="F230" s="126"/>
+      <c r="G230" s="126"/>
+      <c r="H230" s="126"/>
+      <c r="I230" s="126"/>
+      <c r="J230" s="126"/>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A231" s="99"/>
       <c r="B231" s="100"/>
-      <c r="C231" s="130" t="s">
+      <c r="C231" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D231" s="130"/>
-      <c r="E231" s="130"/>
-      <c r="F231" s="130"/>
-      <c r="G231" s="130"/>
-      <c r="H231" s="130"/>
-      <c r="I231" s="130"/>
-      <c r="J231" s="130"/>
-      <c r="K231" s="130"/>
-      <c r="L231" s="126" t="s">
+      <c r="D231" s="127"/>
+      <c r="E231" s="127"/>
+      <c r="F231" s="127"/>
+      <c r="G231" s="127"/>
+      <c r="H231" s="127"/>
+      <c r="I231" s="127"/>
+      <c r="J231" s="127"/>
+      <c r="K231" s="127"/>
+      <c r="L231" s="157" t="s">
         <v>430</v>
       </c>
-      <c r="M231" s="127"/>
-      <c r="N231" s="127"/>
+      <c r="M231" s="158"/>
+      <c r="N231" s="158"/>
       <c r="Z231" s="67"/>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A232" s="136" t="s">
+      <c r="A232" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="B232" s="136" t="s">
+      <c r="B232" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C232" s="138" t="s">
+      <c r="C232" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D232" s="139"/>
-      <c r="E232" s="139"/>
-      <c r="F232" s="140"/>
-      <c r="G232" s="141" t="s">
+      <c r="D232" s="131"/>
+      <c r="E232" s="131"/>
+      <c r="F232" s="132"/>
+      <c r="G232" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H232" s="143"/>
-      <c r="I232" s="143"/>
-      <c r="J232" s="142"/>
-      <c r="K232" s="131" t="s">
+      <c r="H232" s="134"/>
+      <c r="I232" s="134"/>
+      <c r="J232" s="135"/>
+      <c r="K232" s="136" t="s">
         <v>363</v>
       </c>
-      <c r="L232" s="126" t="s">
+      <c r="L232" s="157" t="s">
         <v>338</v>
       </c>
-      <c r="M232" s="127"/>
-      <c r="N232" s="144"/>
+      <c r="M232" s="158"/>
+      <c r="N232" s="159"/>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A233" s="137"/>
-      <c r="B233" s="137"/>
+      <c r="A233" s="129"/>
+      <c r="B233" s="129"/>
       <c r="C233" s="62" t="s">
         <v>345</v>
       </c>
@@ -12912,7 +12918,7 @@
       <c r="J233" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K233" s="132"/>
+      <c r="K233" s="137"/>
       <c r="L233" s="90" t="s">
         <v>345</v>
       </c>
@@ -12978,71 +12984,71 @@
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A236" s="128" t="s">
+      <c r="A236" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="B236" s="129"/>
-      <c r="C236" s="129"/>
-      <c r="D236" s="129"/>
-      <c r="E236" s="129"/>
-      <c r="F236" s="129"/>
-      <c r="G236" s="129"/>
-      <c r="H236" s="129"/>
-      <c r="I236" s="129"/>
-      <c r="J236" s="129"/>
+      <c r="B236" s="126"/>
+      <c r="C236" s="126"/>
+      <c r="D236" s="126"/>
+      <c r="E236" s="126"/>
+      <c r="F236" s="126"/>
+      <c r="G236" s="126"/>
+      <c r="H236" s="126"/>
+      <c r="I236" s="126"/>
+      <c r="J236" s="126"/>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A237" s="101"/>
       <c r="B237" s="102"/>
-      <c r="C237" s="130" t="s">
+      <c r="C237" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D237" s="130"/>
-      <c r="E237" s="130"/>
-      <c r="F237" s="130"/>
-      <c r="G237" s="130"/>
-      <c r="H237" s="130"/>
-      <c r="I237" s="130"/>
-      <c r="J237" s="130"/>
-      <c r="K237" s="130"/>
-      <c r="L237" s="126" t="s">
+      <c r="D237" s="127"/>
+      <c r="E237" s="127"/>
+      <c r="F237" s="127"/>
+      <c r="G237" s="127"/>
+      <c r="H237" s="127"/>
+      <c r="I237" s="127"/>
+      <c r="J237" s="127"/>
+      <c r="K237" s="127"/>
+      <c r="L237" s="157" t="s">
         <v>430</v>
       </c>
-      <c r="M237" s="127"/>
-      <c r="N237" s="127"/>
+      <c r="M237" s="158"/>
+      <c r="N237" s="158"/>
       <c r="Z237" s="67"/>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A238" s="136" t="s">
+      <c r="A238" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="B238" s="136" t="s">
+      <c r="B238" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C238" s="138" t="s">
+      <c r="C238" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D238" s="139"/>
-      <c r="E238" s="139"/>
-      <c r="F238" s="140"/>
-      <c r="G238" s="141" t="s">
+      <c r="D238" s="131"/>
+      <c r="E238" s="131"/>
+      <c r="F238" s="132"/>
+      <c r="G238" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H238" s="143"/>
-      <c r="I238" s="143"/>
-      <c r="J238" s="142"/>
-      <c r="K238" s="131" t="s">
+      <c r="H238" s="134"/>
+      <c r="I238" s="134"/>
+      <c r="J238" s="135"/>
+      <c r="K238" s="136" t="s">
         <v>363</v>
       </c>
-      <c r="L238" s="126" t="s">
+      <c r="L238" s="157" t="s">
         <v>338</v>
       </c>
-      <c r="M238" s="127"/>
-      <c r="N238" s="144"/>
+      <c r="M238" s="158"/>
+      <c r="N238" s="159"/>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A239" s="137"/>
-      <c r="B239" s="137"/>
+      <c r="A239" s="129"/>
+      <c r="B239" s="129"/>
       <c r="C239" s="62" t="s">
         <v>345</v>
       </c>
@@ -13067,7 +13073,7 @@
       <c r="J239" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K239" s="132"/>
+      <c r="K239" s="137"/>
       <c r="L239" s="90" t="s">
         <v>345</v>
       </c>
@@ -13133,26 +13139,26 @@
       </c>
     </row>
     <row r="242" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A242" s="124" t="s">
+      <c r="A242" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="B242" s="125"/>
-      <c r="C242" s="125"/>
-      <c r="D242" s="125"/>
-      <c r="E242" s="125"/>
-      <c r="F242" s="125"/>
-      <c r="G242" s="125"/>
-      <c r="H242" s="125"/>
-      <c r="I242" s="125"/>
-      <c r="J242" s="125"/>
-      <c r="K242" s="125"/>
-      <c r="L242" s="125"/>
-      <c r="M242" s="125"/>
-      <c r="N242" s="125"/>
-      <c r="O242" s="125"/>
-      <c r="P242" s="125"/>
-      <c r="Q242" s="125"/>
-      <c r="R242" s="125"/>
+      <c r="B242" s="124"/>
+      <c r="C242" s="124"/>
+      <c r="D242" s="124"/>
+      <c r="E242" s="124"/>
+      <c r="F242" s="124"/>
+      <c r="G242" s="124"/>
+      <c r="H242" s="124"/>
+      <c r="I242" s="124"/>
+      <c r="J242" s="124"/>
+      <c r="K242" s="124"/>
+      <c r="L242" s="124"/>
+      <c r="M242" s="124"/>
+      <c r="N242" s="124"/>
+      <c r="O242" s="124"/>
+      <c r="P242" s="124"/>
+      <c r="Q242" s="124"/>
+      <c r="R242" s="124"/>
       <c r="S242" s="105"/>
       <c r="T242" s="105"/>
       <c r="U242" s="105"/>
@@ -13514,11 +13520,11 @@
     <row r="252" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A252" s="71" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="B252" s="103" t="str">
         <f ca="1">TEXT(TODAY()+75,"YYYY-MM-DD")</f>
-        <v>2023-10-17</v>
+        <v>2023-10-22</v>
       </c>
       <c r="C252" s="70" t="s">
         <v>482</v>
@@ -13591,7 +13597,7 @@
       <c r="I256" s="70"/>
       <c r="J256" s="71">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="K256" s="71">
         <v>234</v>
@@ -13601,76 +13607,76 @@
       </c>
     </row>
     <row r="258" spans="1:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="128" t="s">
+      <c r="A258" s="125" t="s">
         <v>351</v>
       </c>
-      <c r="B258" s="129"/>
-      <c r="C258" s="129"/>
-      <c r="D258" s="129"/>
-      <c r="E258" s="129"/>
-      <c r="F258" s="129"/>
-      <c r="G258" s="129"/>
-      <c r="H258" s="129"/>
-      <c r="I258" s="129"/>
-      <c r="J258" s="129"/>
-      <c r="K258" s="129"/>
-      <c r="L258" s="129"/>
+      <c r="B258" s="126"/>
+      <c r="C258" s="126"/>
+      <c r="D258" s="126"/>
+      <c r="E258" s="126"/>
+      <c r="F258" s="126"/>
+      <c r="G258" s="126"/>
+      <c r="H258" s="126"/>
+      <c r="I258" s="126"/>
+      <c r="J258" s="126"/>
+      <c r="K258" s="126"/>
+      <c r="L258" s="126"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A259" s="133" t="s">
+      <c r="A259" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="B259" s="133" t="s">
+      <c r="B259" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="C259" s="148" t="s">
+      <c r="C259" s="141" t="s">
         <v>353</v>
       </c>
-      <c r="D259" s="151" t="s">
+      <c r="D259" s="144" t="s">
         <v>354</v>
       </c>
-      <c r="E259" s="154" t="s">
+      <c r="E259" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="F259" s="154"/>
-      <c r="G259" s="154"/>
-      <c r="H259" s="154"/>
-      <c r="I259" s="155" t="s">
+      <c r="F259" s="147"/>
+      <c r="G259" s="147"/>
+      <c r="H259" s="147"/>
+      <c r="I259" s="148" t="s">
         <v>355</v>
       </c>
-      <c r="J259" s="155"/>
-      <c r="K259" s="155"/>
-      <c r="L259" s="155"/>
+      <c r="J259" s="148"/>
+      <c r="K259" s="148"/>
+      <c r="L259" s="148"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A260" s="134"/>
-      <c r="B260" s="134"/>
-      <c r="C260" s="149"/>
-      <c r="D260" s="152"/>
-      <c r="E260" s="138" t="s">
+      <c r="A260" s="139"/>
+      <c r="B260" s="139"/>
+      <c r="C260" s="142"/>
+      <c r="D260" s="145"/>
+      <c r="E260" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="F260" s="140"/>
-      <c r="G260" s="141" t="s">
+      <c r="F260" s="132"/>
+      <c r="G260" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H260" s="142"/>
-      <c r="I260" s="138" t="s">
+      <c r="H260" s="135"/>
+      <c r="I260" s="130" t="s">
         <v>356</v>
       </c>
-      <c r="J260" s="140"/>
-      <c r="K260" s="141" t="s">
+      <c r="J260" s="132"/>
+      <c r="K260" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="L260" s="142"/>
+      <c r="L260" s="135"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A261" s="135"/>
-      <c r="B261" s="135" t="s">
+      <c r="A261" s="140"/>
+      <c r="B261" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="C261" s="150"/>
-      <c r="D261" s="153"/>
+      <c r="C261" s="143"/>
+      <c r="D261" s="146"/>
       <c r="E261" s="62" t="s">
         <v>357</v>
       </c>
@@ -13683,10 +13689,10 @@
       <c r="H261" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="I261" s="138" t="s">
+      <c r="I261" s="130" t="s">
         <v>357</v>
       </c>
-      <c r="J261" s="140" t="s">
+      <c r="J261" s="132" t="s">
         <v>358</v>
       </c>
       <c r="K261" s="63" t="s">
@@ -13811,7 +13817,7 @@
       <c r="I266" s="70"/>
       <c r="J266" s="71">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="K266" s="71">
         <v>234</v>
@@ -13887,7 +13893,7 @@
       <c r="I270" s="70"/>
       <c r="J270" s="71">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="K270" s="71">
         <v>234</v>
@@ -13897,61 +13903,61 @@
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A272" s="128" t="s">
+      <c r="A272" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="B272" s="129"/>
-      <c r="C272" s="129"/>
-      <c r="D272" s="129"/>
-      <c r="E272" s="129"/>
-      <c r="F272" s="129"/>
-      <c r="G272" s="129"/>
-      <c r="H272" s="129"/>
-      <c r="I272" s="129"/>
-      <c r="J272" s="129"/>
+      <c r="B272" s="126"/>
+      <c r="C272" s="126"/>
+      <c r="D272" s="126"/>
+      <c r="E272" s="126"/>
+      <c r="F272" s="126"/>
+      <c r="G272" s="126"/>
+      <c r="H272" s="126"/>
+      <c r="I272" s="126"/>
+      <c r="J272" s="126"/>
     </row>
     <row r="273" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A273" s="104"/>
       <c r="B273" s="105"/>
-      <c r="C273" s="130" t="s">
+      <c r="C273" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D273" s="130"/>
-      <c r="E273" s="130"/>
-      <c r="F273" s="130"/>
-      <c r="G273" s="130"/>
-      <c r="H273" s="130"/>
-      <c r="I273" s="130"/>
-      <c r="J273" s="130"/>
-      <c r="K273" s="130"/>
+      <c r="D273" s="127"/>
+      <c r="E273" s="127"/>
+      <c r="F273" s="127"/>
+      <c r="G273" s="127"/>
+      <c r="H273" s="127"/>
+      <c r="I273" s="127"/>
+      <c r="J273" s="127"/>
+      <c r="K273" s="127"/>
       <c r="Z273" s="67"/>
     </row>
     <row r="274" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A274" s="136" t="s">
+      <c r="A274" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="B274" s="136" t="s">
+      <c r="B274" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C274" s="138" t="s">
+      <c r="C274" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="D274" s="139"/>
-      <c r="E274" s="139"/>
-      <c r="F274" s="140"/>
-      <c r="G274" s="141" t="s">
+      <c r="D274" s="131"/>
+      <c r="E274" s="131"/>
+      <c r="F274" s="132"/>
+      <c r="G274" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="H274" s="143"/>
-      <c r="I274" s="143"/>
-      <c r="J274" s="142"/>
-      <c r="K274" s="131" t="s">
+      <c r="H274" s="134"/>
+      <c r="I274" s="134"/>
+      <c r="J274" s="135"/>
+      <c r="K274" s="136" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="275" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A275" s="137"/>
-      <c r="B275" s="137"/>
+      <c r="A275" s="129"/>
+      <c r="B275" s="129"/>
       <c r="C275" s="62" t="s">
         <v>345</v>
       </c>
@@ -13976,7 +13982,7 @@
       <c r="J275" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K275" s="132"/>
+      <c r="K275" s="137"/>
     </row>
     <row r="276" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A276" s="54" t="s">
@@ -14117,33 +14123,33 @@
       <c r="S279" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="T279" s="118" t="s">
+      <c r="T279" s="149" t="s">
         <v>293</v>
       </c>
-      <c r="U279" s="119"/>
-      <c r="V279" s="120"/>
-      <c r="W279" s="118" t="s">
+      <c r="U279" s="150"/>
+      <c r="V279" s="151"/>
+      <c r="W279" s="149" t="s">
         <v>294</v>
       </c>
-      <c r="X279" s="120"/>
+      <c r="X279" s="151"/>
       <c r="Y279" s="109"/>
-      <c r="Z279" s="121" t="s">
+      <c r="Z279" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="AA279" s="122"/>
-      <c r="AB279" s="122"/>
-      <c r="AC279" s="122"/>
-      <c r="AD279" s="122"/>
-      <c r="AE279" s="122"/>
-      <c r="AF279" s="123"/>
-      <c r="AG279" s="121" t="s">
+      <c r="AA279" s="119"/>
+      <c r="AB279" s="119"/>
+      <c r="AC279" s="119"/>
+      <c r="AD279" s="119"/>
+      <c r="AE279" s="119"/>
+      <c r="AF279" s="120"/>
+      <c r="AG279" s="118" t="s">
         <v>296</v>
       </c>
-      <c r="AH279" s="122"/>
-      <c r="AI279" s="122"/>
-      <c r="AJ279" s="122"/>
-      <c r="AK279" s="122"/>
-      <c r="AL279" s="123"/>
+      <c r="AH279" s="119"/>
+      <c r="AI279" s="119"/>
+      <c r="AJ279" s="119"/>
+      <c r="AK279" s="119"/>
+      <c r="AL279" s="120"/>
       <c r="AM279" s="48"/>
       <c r="AN279" s="49"/>
       <c r="AO279" s="49"/>
@@ -14329,11 +14335,11 @@
       </c>
       <c r="G281" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-17</v>
+        <v>2023-09-22</v>
       </c>
       <c r="H281" s="41" t="str">
         <f ca="1">TEXT(TODAY()-190,"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-01-30</v>
       </c>
       <c r="I281" s="54"/>
       <c r="J281" s="54">
@@ -14537,11 +14543,11 @@
       <c r="I285" s="31"/>
       <c r="J285" s="110" t="str">
         <f ca="1">TEXT(TODAY()-241,"DD-MMM-YY")</f>
-        <v>05-Dec-22</v>
+        <v>10-Dec-22</v>
       </c>
       <c r="K285" s="110" t="str">
         <f ca="1">TEXT(TODAY()-211,"DD-MMM-YY")</f>
-        <v>04-Jan-23</v>
+        <v>09-Jan-23</v>
       </c>
       <c r="L285" s="32" t="s">
         <v>168</v>
@@ -14578,11 +14584,11 @@
       <c r="I286" s="31"/>
       <c r="J286" s="110" t="str">
         <f ca="1">TEXT(TODAY()-241,"DD-MMM-YY")</f>
-        <v>05-Dec-22</v>
+        <v>10-Dec-22</v>
       </c>
       <c r="K286" s="110" t="str">
         <f ca="1">TEXT(TODAY()-211,"DD-MMM-YY")</f>
-        <v>04-Jan-23</v>
+        <v>09-Jan-23</v>
       </c>
       <c r="L286" s="32" t="s">
         <v>168</v>
@@ -14618,12 +14624,12 @@
       <c r="H288" s="31"/>
       <c r="I288" s="31"/>
       <c r="J288" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-60,"DD-MMM-YY")</f>
-        <v>04-Jun-23</v>
+        <f ca="1">TEXT(TODAY()-60,"MM-DD-YYYY")</f>
+        <v>06-09-2023</v>
       </c>
       <c r="K288" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-30,"DD-MMM-YY")</f>
-        <v>04-Jul-23</v>
+        <f ca="1">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
+        <v>07-09-2023</v>
       </c>
       <c r="L288" s="32" t="s">
         <v>168</v>
@@ -14632,7 +14638,7 @@
         <v>12</v>
       </c>
       <c r="N288" s="114" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="O288" s="32" t="s">
         <v>337</v>
@@ -14659,12 +14665,12 @@
       <c r="H289" s="31"/>
       <c r="I289" s="31"/>
       <c r="J289" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-90,"DD-MMM-YY")</f>
-        <v>05-May-23</v>
+        <f ca="1">TEXT(TODAY()-90,"MM-DD-YYYY")</f>
+        <v>05-10-2023</v>
       </c>
       <c r="K289" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-61,"DD-MMM-YY")</f>
-        <v>03-Jun-23</v>
+        <f ca="1">TEXT(TODAY()-61,"MM-DD-YYYY")</f>
+        <v>06-08-2023</v>
       </c>
       <c r="L289" s="32" t="s">
         <v>168</v>
@@ -14673,7 +14679,7 @@
         <v>13</v>
       </c>
       <c r="N289" s="114" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="O289" s="32" t="s">
         <v>337</v>
@@ -14700,12 +14706,12 @@
       <c r="H290" s="31"/>
       <c r="I290" s="31"/>
       <c r="J290" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-120,"DD-MMM-YY")</f>
-        <v>05-Apr-23</v>
+        <f ca="1">TEXT(TODAY()-120,"MM-DD-YYYY")</f>
+        <v>04-10-2023</v>
       </c>
       <c r="K290" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-91,"DD-MMM-YY")</f>
-        <v>04-May-23</v>
+        <f ca="1">TEXT(TODAY()-91,"MM-DD-YYYY")</f>
+        <v>05-09-2023</v>
       </c>
       <c r="L290" s="32" t="s">
         <v>168</v>
@@ -14749,12 +14755,12 @@
         <v>261</v>
       </c>
       <c r="J291" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-150,"DD-MMM-YY")</f>
-        <v>06-Mar-23</v>
+        <f ca="1">TEXT(TODAY()-150,"MM-DD-YYYY")</f>
+        <v>03-11-2023</v>
       </c>
       <c r="K291" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-121,"DD-MMM-YY")</f>
-        <v>04-Apr-23</v>
+        <f ca="1">TEXT(TODAY()-121,"MM-DD-YYYY")</f>
+        <v>04-09-2023</v>
       </c>
       <c r="L291" s="32" t="s">
         <v>168</v>
@@ -14798,12 +14804,12 @@
         <v>266</v>
       </c>
       <c r="J292" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-180,"DD-MMM-YY")</f>
-        <v>04-Feb-23</v>
+        <f ca="1">TEXT(TODAY()-180,"MM-DD-YYYY")</f>
+        <v>02-09-2023</v>
       </c>
       <c r="K292" s="110" t="str">
-        <f ca="1">TEXT(TODAY()-151,"DD-MMM-YY")</f>
-        <v>05-Mar-23</v>
+        <f ca="1">TEXT(TODAY()-151,"MM-DD-YYYY")</f>
+        <v>03-10-2023</v>
       </c>
       <c r="L292" s="32" t="s">
         <v>168</v>
@@ -14902,11 +14908,11 @@
       <c r="I417" s="31"/>
       <c r="J417" s="41" t="str">
         <f ca="1">TEXT(TODAY()-60,"MM-DD-YYYY")</f>
-        <v>06-04-2023</v>
+        <v>06-09-2023</v>
       </c>
       <c r="K417" s="41" t="str">
         <f ca="1">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>07-04-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="L417" s="32" t="s">
         <v>168</v>
@@ -14945,11 +14951,11 @@
       <c r="I418" s="31"/>
       <c r="J418" s="41" t="str">
         <f ca="1">TEXT(TODAY()-90,"MM-DD-YYYY")</f>
-        <v>05-05-2023</v>
+        <v>05-10-2023</v>
       </c>
       <c r="K418" s="41" t="str">
         <f ca="1">TEXT(TODAY()-61,"MM-DD-YYYY")</f>
-        <v>06-03-2023</v>
+        <v>06-08-2023</v>
       </c>
       <c r="L418" s="32" t="s">
         <v>168</v>
@@ -14988,11 +14994,11 @@
       <c r="I419" s="31"/>
       <c r="J419" s="41" t="str">
         <f ca="1">TEXT(TODAY()-120,"MM-DD-YYYY")</f>
-        <v>04-05-2023</v>
+        <v>04-10-2023</v>
       </c>
       <c r="K419" s="41" t="str">
         <f ca="1">TEXT(TODAY()-91,"MM-DD-YYYY")</f>
-        <v>05-04-2023</v>
+        <v>05-09-2023</v>
       </c>
       <c r="L419" s="32" t="s">
         <v>168</v>
@@ -15039,11 +15045,11 @@
       </c>
       <c r="J420" s="41" t="str">
         <f ca="1">TEXT(TODAY()-150,"MM-DD-YYYY")</f>
-        <v>03-06-2023</v>
+        <v>03-11-2023</v>
       </c>
       <c r="K420" s="41" t="str">
         <f ca="1">TEXT(TODAY()-121,"MM-DD-YYYY")</f>
-        <v>04-04-2023</v>
+        <v>04-09-2023</v>
       </c>
       <c r="L420" s="32" t="s">
         <v>168</v>
@@ -15090,11 +15096,11 @@
       </c>
       <c r="J421" s="41" t="str">
         <f ca="1">TEXT(TODAY()-180,"MM-DD-YYYY")</f>
-        <v>02-04-2023</v>
+        <v>02-09-2023</v>
       </c>
       <c r="K421" s="41" t="str">
         <f ca="1">TEXT(TODAY()-151,"MM-DD-YYYY")</f>
-        <v>03-05-2023</v>
+        <v>03-10-2023</v>
       </c>
       <c r="L421" s="32" t="s">
         <v>168</v>
@@ -15111,6 +15117,122 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="A283:I283"/>
+    <mergeCell ref="T279:V279"/>
+    <mergeCell ref="W279:X279"/>
+    <mergeCell ref="Z279:AF279"/>
+    <mergeCell ref="AG279:AL279"/>
+    <mergeCell ref="A182:R182"/>
+    <mergeCell ref="L231:N231"/>
+    <mergeCell ref="A220:J220"/>
+    <mergeCell ref="C221:K221"/>
+    <mergeCell ref="K222:K223"/>
+    <mergeCell ref="A230:J230"/>
+    <mergeCell ref="C231:K231"/>
+    <mergeCell ref="A196:R196"/>
+    <mergeCell ref="A200:R200"/>
+    <mergeCell ref="A214:L214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A258:L258"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:F238"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="A132:J132"/>
+    <mergeCell ref="C133:K133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="G232:J232"/>
+    <mergeCell ref="K232:K233"/>
+    <mergeCell ref="L232:N232"/>
+    <mergeCell ref="A236:J236"/>
+    <mergeCell ref="C237:K237"/>
+    <mergeCell ref="L237:N237"/>
+    <mergeCell ref="G238:J238"/>
+    <mergeCell ref="K238:K239"/>
+    <mergeCell ref="L238:N238"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A168:R168"/>
+    <mergeCell ref="A154:R154"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="A126:L126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="AG84:AL84"/>
+    <mergeCell ref="T84:V84"/>
+    <mergeCell ref="W84:X84"/>
+    <mergeCell ref="Z84:AF84"/>
+    <mergeCell ref="A189:R189"/>
+    <mergeCell ref="A175:R175"/>
+    <mergeCell ref="A161:R161"/>
+    <mergeCell ref="A148:R148"/>
+    <mergeCell ref="E100:H100"/>
+    <mergeCell ref="A120:J120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W116:X116"/>
+    <mergeCell ref="Z116:AF116"/>
+    <mergeCell ref="AG116:AL116"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="E215:H215"/>
+    <mergeCell ref="I215:L215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="I216:J216"/>
+    <mergeCell ref="K216:L216"/>
     <mergeCell ref="A415:I415"/>
     <mergeCell ref="AQ84:AS84"/>
     <mergeCell ref="AT84:BB84"/>
@@ -15135,122 +15257,6 @@
     <mergeCell ref="A222:A223"/>
     <mergeCell ref="B222:B223"/>
     <mergeCell ref="C222:F222"/>
-    <mergeCell ref="G222:J222"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="E215:H215"/>
-    <mergeCell ref="I215:L215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="I216:J216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="AG84:AL84"/>
-    <mergeCell ref="T84:V84"/>
-    <mergeCell ref="W84:X84"/>
-    <mergeCell ref="Z84:AF84"/>
-    <mergeCell ref="A189:R189"/>
-    <mergeCell ref="A175:R175"/>
-    <mergeCell ref="A161:R161"/>
-    <mergeCell ref="A148:R148"/>
-    <mergeCell ref="E100:H100"/>
-    <mergeCell ref="A120:J120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W116:X116"/>
-    <mergeCell ref="Z116:AF116"/>
-    <mergeCell ref="AG116:AL116"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="A93:J93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A168:R168"/>
-    <mergeCell ref="A154:R154"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="A126:L126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="G232:J232"/>
-    <mergeCell ref="K232:K233"/>
-    <mergeCell ref="L232:N232"/>
-    <mergeCell ref="A236:J236"/>
-    <mergeCell ref="C237:K237"/>
-    <mergeCell ref="L237:N237"/>
-    <mergeCell ref="G238:J238"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="L238:N238"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="A132:J132"/>
-    <mergeCell ref="C133:K133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="G134:J134"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="A283:I283"/>
-    <mergeCell ref="T279:V279"/>
-    <mergeCell ref="W279:X279"/>
-    <mergeCell ref="Z279:AF279"/>
-    <mergeCell ref="AG279:AL279"/>
-    <mergeCell ref="A182:R182"/>
-    <mergeCell ref="L231:N231"/>
-    <mergeCell ref="A220:J220"/>
-    <mergeCell ref="C221:K221"/>
-    <mergeCell ref="K222:K223"/>
-    <mergeCell ref="A230:J230"/>
-    <mergeCell ref="C231:K231"/>
-    <mergeCell ref="A196:R196"/>
-    <mergeCell ref="A200:R200"/>
-    <mergeCell ref="A214:L214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A258:L258"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:F238"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C232:F232"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C58 MFR184:MFR187 MZJ170:MZJ173 MZJ177:MZJ180 OCX202:OCX204 OMT202:OMT204 OWP202:OWP204 PGL202:PGL204 PQH202:PQH204 QAD202:QAD204 QJZ202:QJZ204 QTV202:QTV204 RDR202:RDR204 RNN202:RNN204 RXJ202:RXJ204 SHF202:SHF204 SRB202:SRB204 TAX202:TAX204 TKT202:TKT204 TUP202:TUP204 UEL202:UEL204 UOH202:UOH204 UYD202:UYD204 VHZ202:VHZ204 VRV202:VRV204 WBR202:WBR204 WLN202:WLN204 WVJ202:WVJ204 IX202:IX204 ST202:ST204 ACP202:ACP204 AML202:AML204 AWH202:AWH204 BGD202:BGD204 BPZ202:BPZ204 BZV202:BZV204 CJR202:CJR204 CTN202:CTN204 DDJ202:DDJ204 DNF202:DNF204 DXB202:DXB204 EGX202:EGX204 EQT202:EQT204 FAP202:FAP204 LCD202:LCD204 FKL202:FKL204 FUH202:FUH204 GED202:GED204 GNZ202:GNZ204 GXV202:GXV204 HHR202:HHR204 HRN202:HRN204 IBJ202:IBJ204 ILF202:ILF204 IVB202:IVB204 JEX202:JEX204 JOT202:JOT204 JYP202:JYP204 KIL202:KIL204 KSH202:KSH204 LLZ202:LLZ204 LVV202:LVV204 MFR202:MFR204 MPN202:MPN204 MZJ202:MZJ204 NJF202:NJF204 MPN191:MPN194 MZJ150:MZJ152 MPN150:MPN152 MFR150:MFR152 LVV150:LVV152 LLZ150:LLZ152 KSH150:KSH152 KIL150:KIL152 JYP150:JYP152 JOT150:JOT152 JEX150:JEX152 IVB150:IVB152 ILF150:ILF152 IBJ150:IBJ152 HRN150:HRN152 HHR150:HHR152 GXV150:GXV152 GNZ150:GNZ152 GED150:GED152 FUH150:FUH152 FKL150:FKL152 LCD150:LCD152 FAP150:FAP152 EQT150:EQT152 EGX150:EGX152 DXB150:DXB152 DNF150:DNF152 DDJ150:DDJ152 CTN150:CTN152 CJR150:CJR152 BZV150:BZV152 BPZ150:BPZ152 BGD150:BGD152 AWH150:AWH152 AML150:AML152 ACP150:ACP152 ST150:ST152 IX150:IX152 WVJ150:WVJ152 WLN150:WLN152 WBR150:WBR152 VRV150:VRV152 VHZ150:VHZ152 UYD150:UYD152 UOH150:UOH152 UEL150:UEL152 TUP150:TUP152 TKT150:TKT152 TAX150:TAX152 SRB150:SRB152 SHF150:SHF152 RXJ150:RXJ152 RNN150:RNN152 RDR150:RDR152 QTV150:QTV152 QJZ150:QJZ152 QAD150:QAD152 PQH150:PQH152 PGL150:PGL152 OWP150:OWP152 OMT150:OMT152 OCX150:OCX152 NTB150:NTB152 NJF150:NJF152 OCX198 NTB198 NJF198 MZJ198 MPN198 MFR198 LVV198 LLZ198 KSH198 KIL198 JYP198 JOT198 JEX198 IVB198 ILF198 IBJ198 HRN198 HHR198 GXV198 GNZ198 GED198 FUH198 FKL198 LCD198 FAP198 EQT198 EGX198 DXB198 DNF198 DDJ198 CTN198 CJR198 BZV198 BPZ198 BGD198 AWH198 AML198 ACP198 ST198 IX198 WVJ198 WLN198 WBR198 VRV198 VHZ198 UYD198 UOH198 UEL198 TUP198 TKT198 TAX198 SRB198 SHF198 RXJ198 RNN198 RDR198 QTV198 QJZ198 QAD198 PQH198 PGL198 OWP198 OMT198 NTB202:NTB204 MFR163:MFR166 NJF170:NJF173 NTB170:NTB173 OCX170:OCX173 OMT170:OMT173 OWP170:OWP173 PGL170:PGL173 PQH170:PQH173 QAD170:QAD173 QJZ170:QJZ173 QTV170:QTV173 RDR170:RDR173 RNN170:RNN173 RXJ170:RXJ173 SHF170:SHF173 SRB170:SRB173 TAX170:TAX173 TKT170:TKT173 TUP170:TUP173 UEL170:UEL173 UOH170:UOH173 UYD170:UYD173 VHZ170:VHZ173 VRV170:VRV173 WBR170:WBR173 WLN170:WLN173 WVJ170:WVJ173 IX170:IX173 ST170:ST173 ACP170:ACP173 AML170:AML173 AWH170:AWH173 BGD170:BGD173 BPZ170:BPZ173 BZV170:BZV173 CJR170:CJR173 CTN170:CTN173 DDJ170:DDJ173 DNF170:DNF173 DXB170:DXB173 EGX170:EGX173 EQT170:EQT173 FAP170:FAP173 LCD170:LCD173 FKL170:FKL173 FUH170:FUH173 GED170:GED173 GNZ170:GNZ173 GXV170:GXV173 HHR170:HHR173 HRN170:HRN173 IBJ170:IBJ173 ILF170:ILF173 IVB170:IVB173 JEX170:JEX173 JOT170:JOT173 JYP170:JYP173 KIL170:KIL173 KSH170:KSH173 LLZ170:LLZ173 LVV170:LVV173 MFR170:MFR173 MPN170:MPN173 MPN177:MPN180 MFR177:MFR180 LVV177:LVV180 LLZ177:LLZ180 KSH177:KSH180 KIL177:KIL180 JYP177:JYP180 JOT177:JOT180 JEX177:JEX180 IVB177:IVB180 ILF177:ILF180 IBJ177:IBJ180 HRN177:HRN180 HHR177:HHR180 GXV177:GXV180 GNZ177:GNZ180 GED177:GED180 FUH177:FUH180 FKL177:FKL180 LCD177:LCD180 FAP177:FAP180 EQT177:EQT180 EGX177:EGX180 DXB177:DXB180 DNF177:DNF180 DDJ177:DDJ180 CTN177:CTN180 CJR177:CJR180 BZV177:BZV180 BPZ177:BPZ180 BGD177:BGD180 AWH177:AWH180 AML177:AML180 ACP177:ACP180 ST177:ST180 IX177:IX180 WVJ177:WVJ180 WLN177:WLN180 WBR177:WBR180 VRV177:VRV180 VHZ177:VHZ180 UYD177:UYD180 UOH177:UOH180 UEL177:UEL180 TUP177:TUP180 TKT177:TKT180 TAX177:TAX180 SRB177:SRB180 SHF177:SHF180 RXJ177:RXJ180 RNN177:RNN180 RDR177:RDR180 QTV177:QTV180 QJZ177:QJZ180 QAD177:QAD180 PQH177:PQH180 PGL177:PGL180 OWP177:OWP180 OMT177:OMT180 OCX177:OCX180 NTB177:NTB180 NJF177:NJF180 MPN184:MPN187 MZJ184:MZJ187 NJF184:NJF187 NTB184:NTB187 OCX184:OCX187 OMT184:OMT187 OWP184:OWP187 PGL184:PGL187 PQH184:PQH187 QAD184:QAD187 QJZ184:QJZ187 QTV184:QTV187 RDR184:RDR187 RNN184:RNN187 RXJ184:RXJ187 SHF184:SHF187 SRB184:SRB187 TAX184:TAX187 TKT184:TKT187 TUP184:TUP187 UEL184:UEL187 UOH184:UOH187 UYD184:UYD187 VHZ184:VHZ187 VRV184:VRV187 WBR184:WBR187 WLN184:WLN187 WVJ184:WVJ187 IX184:IX187 ST184:ST187 ACP184:ACP187 AML184:AML187 AWH184:AWH187 BGD184:BGD187 BPZ184:BPZ187 BZV184:BZV187 CJR184:CJR187 CTN184:CTN187 DDJ184:DDJ187 DNF184:DNF187 DXB184:DXB187 EGX184:EGX187 EQT184:EQT187 FAP184:FAP187 LCD184:LCD187 FKL184:FKL187 FUH184:FUH187 GED184:GED187 GNZ184:GNZ187 GXV184:GXV187 HHR184:HHR187 HRN184:HRN187 IBJ184:IBJ187 ILF184:ILF187 IVB184:IVB187 JEX184:JEX187 JOT184:JOT187 JYP184:JYP187 KIL184:KIL187 KSH184:KSH187 LLZ184:LLZ187 LVV184:LVV187 MZJ191:MZJ194 NJF191:NJF194 NTB191:NTB194 OCX191:OCX194 OMT191:OMT194 OWP191:OWP194 PGL191:PGL194 PQH191:PQH194 QAD191:QAD194 QJZ191:QJZ194 QTV191:QTV194 RDR191:RDR194 RNN191:RNN194 RXJ191:RXJ194 SHF191:SHF194 SRB191:SRB194 TAX191:TAX194 TKT191:TKT194 TUP191:TUP194 UEL191:UEL194 UOH191:UOH194 UYD191:UYD194 VHZ191:VHZ194 VRV191:VRV194 WBR191:WBR194 WLN191:WLN194 WVJ191:WVJ194 IX191:IX194 ST191:ST194 ACP191:ACP194 AML191:AML194 AWH191:AWH194 BGD191:BGD194 BPZ191:BPZ194 BZV191:BZV194 CJR191:CJR194 CTN191:CTN194 DDJ191:DDJ194 DNF191:DNF194 DXB191:DXB194 EGX191:EGX194 EQT191:EQT194 FAP191:FAP194 LCD191:LCD194 FKL191:FKL194 FUH191:FUH194 GED191:GED194 GNZ191:GNZ194 GXV191:GXV194 HHR191:HHR194 HRN191:HRN194 IBJ191:IBJ194 ILF191:ILF194 IVB191:IVB194 JEX191:JEX194 JOT191:JOT194 JYP191:JYP194 KIL191:KIL194 KSH191:KSH194 LLZ191:LLZ194 LVV191:LVV194 MFR191:MFR194 MPN163:MPN166 MZJ163:MZJ166 NJF163:NJF166 NTB163:NTB166 OCX163:OCX166 OMT163:OMT166 OWP163:OWP166 PGL163:PGL166 PQH163:PQH166 QAD163:QAD166 QJZ163:QJZ166 QTV163:QTV166 RDR163:RDR166 RNN163:RNN166 RXJ163:RXJ166 SHF163:SHF166 SRB163:SRB166 TAX163:TAX166 TKT163:TKT166 TUP163:TUP166 UEL163:UEL166 UOH163:UOH166 UYD163:UYD166 VHZ163:VHZ166 VRV163:VRV166 WBR163:WBR166 WLN163:WLN166 WVJ163:WVJ166 IX163:IX166 ST163:ST166 ACP163:ACP166 AML163:AML166 AWH163:AWH166 BGD163:BGD166 BPZ163:BPZ166 BZV163:BZV166 CJR163:CJR166 CTN163:CTN166 DDJ163:DDJ166 DNF163:DNF166 DXB163:DXB166 EGX163:EGX166 EQT163:EQT166 FAP163:FAP166 LCD163:LCD166 FKL163:FKL166 FUH163:FUH166 GED163:GED166 GNZ163:GNZ166 GXV163:GXV166 HHR163:HHR166 HRN163:HRN166 IBJ163:IBJ166 ILF163:ILF166 IVB163:IVB166 JEX163:JEX166 JOT163:JOT166 JYP163:JYP166 KIL163:KIL166 KSH163:KSH166 LLZ163:LLZ166 LVV163:LVV166 LVV156:LVV159 MFR156:MFR159 MPN156:MPN159 MZJ156:MZJ159 NJF156:NJF159 NTB156:NTB159 OCX156:OCX159 OMT156:OMT159 OWP156:OWP159 PGL156:PGL159 PQH156:PQH159 QAD156:QAD159 QJZ156:QJZ159 QTV156:QTV159 RDR156:RDR159 RNN156:RNN159 RXJ156:RXJ159 SHF156:SHF159 SRB156:SRB159 TAX156:TAX159 TKT156:TKT159 TUP156:TUP159 UEL156:UEL159 UOH156:UOH159 UYD156:UYD159 VHZ156:VHZ159 VRV156:VRV159 WBR156:WBR159 WLN156:WLN159 WVJ156:WVJ159 IX156:IX159 ST156:ST159 ACP156:ACP159 AML156:AML159 AWH156:AWH159 BGD156:BGD159 BPZ156:BPZ159 BZV156:BZV159 CJR156:CJR159 CTN156:CTN159 DDJ156:DDJ159 DNF156:DNF159 DXB156:DXB159 EGX156:EGX159 EQT156:EQT159 FAP156:FAP159 LCD156:LCD159 FKL156:FKL159 FUH156:FUH159 GED156:GED159 GNZ156:GNZ159 GXV156:GXV159 HHR156:HHR159 HRN156:HRN159 IBJ156:IBJ159 ILF156:ILF159 IVB156:IVB159 JEX156:JEX159 JOT156:JOT159 JYP156:JYP159 KIL156:KIL159 KSH156:KSH159 LLZ156:LLZ159 NJF246:NJF248 NTB246:NTB248 OCX246:OCX248 OMT246:OMT248 OWP246:OWP248 PGL246:PGL248 PQH246:PQH248 QAD246:QAD248 QJZ246:QJZ248 QTV246:QTV248 RDR246:RDR248 RNN246:RNN248 RXJ246:RXJ248 SHF246:SHF248 SRB246:SRB248 TAX246:TAX248 TKT246:TKT248 TUP246:TUP248 UEL246:UEL248 UOH246:UOH248 UYD246:UYD248 VHZ246:VHZ248 VRV246:VRV248 WBR246:WBR248 WLN246:WLN248 WVJ246:WVJ248 IX246:IX248 ST246:ST248 ACP246:ACP248 AML246:AML248 AWH246:AWH248 BGD246:BGD248 BPZ246:BPZ248 BZV246:BZV248 CJR246:CJR248 CTN246:CTN248 DDJ246:DDJ248 DNF246:DNF248 DXB246:DXB248 EGX246:EGX248 EQT246:EQT248 FAP246:FAP248 LCD246:LCD248 FKL246:FKL248 FUH246:FUH248 GED246:GED248 GNZ246:GNZ248 GXV246:GXV248 HHR246:HHR248 HRN246:HRN248 IBJ246:IBJ248 ILF246:ILF248 IVB246:IVB248 JEX246:JEX248 JOT246:JOT248 JYP246:JYP248 KIL246:KIL248 KSH246:KSH248 LLZ246:LLZ248 LVV246:LVV248 MFR246:MFR248 MPN246:MPN248 MZJ246:MZJ248">
@@ -15282,13 +15288,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39944.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39944.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="561">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1794,10 +1794,34 @@
     <t>631173988970</t>
   </si>
   <si>
-    <t>631127170035</t>
-  </si>
-  <si>
-    <t>631853446011</t>
+    <t>631760657368</t>
+  </si>
+  <si>
+    <t>631331944229</t>
+  </si>
+  <si>
+    <t>631097328523</t>
+  </si>
+  <si>
+    <t>631280827731</t>
+  </si>
+  <si>
+    <t>631059956807</t>
+  </si>
+  <si>
+    <t>631501183800</t>
+  </si>
+  <si>
+    <t>631572853701</t>
+  </si>
+  <si>
+    <t>631338237995</t>
+  </si>
+  <si>
+    <t>631107278003</t>
+  </si>
+  <si>
+    <t>631118195758</t>
   </si>
 </sst>
 </file>
@@ -14638,7 +14662,7 @@
         <v>12</v>
       </c>
       <c r="N288" s="114" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="O288" s="32" t="s">
         <v>337</v>
@@ -14679,7 +14703,7 @@
         <v>13</v>
       </c>
       <c r="N289" s="114" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="O289" s="32" t="s">
         <v>337</v>
@@ -14720,7 +14744,7 @@
         <v>6</v>
       </c>
       <c r="N290" s="114" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="O290" s="32" t="s">
         <v>337</v>
@@ -14769,7 +14793,7 @@
         <v>7</v>
       </c>
       <c r="N291" s="114" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="O291" s="32" t="s">
         <v>337</v>
@@ -14818,7 +14842,7 @@
         <v>10</v>
       </c>
       <c r="N292" s="114" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="O292" s="32" t="s">
         <v>337</v>

--- a/DM/databank/banking/deal_management/DealManagement_Test_39944.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39944.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_DATA" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="556">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1776,9 +1776,6 @@
     <t>6319627953</t>
   </si>
   <si>
-    <t>=B81</t>
-  </si>
-  <si>
     <t>631377401600</t>
   </si>
   <si>
@@ -1794,34 +1791,22 @@
     <t>631173988970</t>
   </si>
   <si>
-    <t>631760657368</t>
-  </si>
-  <si>
-    <t>631331944229</t>
-  </si>
-  <si>
-    <t>631097328523</t>
-  </si>
-  <si>
-    <t>631280827731</t>
-  </si>
-  <si>
-    <t>631059956807</t>
-  </si>
-  <si>
-    <t>631501183800</t>
-  </si>
-  <si>
-    <t>631572853701</t>
-  </si>
-  <si>
-    <t>631338237995</t>
-  </si>
-  <si>
-    <t>631107278003</t>
-  </si>
-  <si>
-    <t>631118195758</t>
+    <t>631302633334</t>
+  </si>
+  <si>
+    <t>631778935347</t>
+  </si>
+  <si>
+    <t>631034613613</t>
+  </si>
+  <si>
+    <t>631727818849</t>
+  </si>
+  <si>
+    <t>631615658134</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -2551,6 +2536,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2559,17 +2553,17 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2579,6 +2573,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2598,25 +2607,22 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2643,38 +2649,17 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2968,22 +2953,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H276" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="L292" sqref="L292"/>
+    <sheetView tabSelected="1" topLeftCell="R66" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="Z84" sqref="Z84:AF84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
-    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
-    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="94.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="11" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:118" s="14" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>126</v>
       </c>
@@ -3053,7 +3038,7 @@
       <c r="DK1" s="16"/>
       <c r="DL1" s="16"/>
     </row>
-    <row r="2" spans="1:118" s="21" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:118" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>127</v>
       </c>
@@ -3125,7 +3110,7 @@
       <c r="DK2" s="23"/>
       <c r="DL2" s="23"/>
     </row>
-    <row r="3" spans="1:118" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:118" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>129</v>
       </c>
@@ -3157,7 +3142,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>456</v>
       </c>
@@ -3183,7 +3168,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>457</v>
       </c>
@@ -3209,7 +3194,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>458</v>
       </c>
@@ -3235,7 +3220,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:118" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:118" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>142</v>
       </c>
@@ -3335,7 +3320,7 @@
       <c r="DK8" s="16"/>
       <c r="DL8" s="16"/>
     </row>
-    <row r="9" spans="1:118" s="14" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:118" s="14" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>129</v>
       </c>
@@ -3456,7 +3441,7 @@
       <c r="DM9" s="16"/>
       <c r="DN9" s="16"/>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>456</v>
       </c>
@@ -3490,7 +3475,7 @@
       </c>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>457</v>
       </c>
@@ -3524,7 +3509,7 @@
       </c>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>458</v>
       </c>
@@ -3558,7 +3543,7 @@
       </c>
       <c r="K12" s="28"/>
     </row>
-    <row r="14" spans="1:118" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:118" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>158</v>
       </c>
@@ -3622,7 +3607,7 @@
       <c r="DK14" s="16"/>
       <c r="DL14" s="16"/>
     </row>
-    <row r="15" spans="1:118" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:118" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>131</v>
       </c>
@@ -3700,7 +3685,7 @@
       <c r="DM15" s="16"/>
       <c r="DN15" s="16"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="str">
         <f>C4</f>
         <v>DEAL_PERSON_001,IND</v>
@@ -3728,14 +3713,14 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="18" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="154" t="s">
+    <row r="18" spans="1:117" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-    </row>
-    <row r="19" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+    </row>
+    <row r="19" spans="1:117" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>173</v>
       </c>
@@ -3752,7 +3737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>461</v>
       </c>
@@ -3769,7 +3754,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>178</v>
       </c>
@@ -3786,25 +3771,25 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="155" t="s">
+    <row r="23" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="146" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
       <c r="BM23" s="16"/>
       <c r="BN23" s="16"/>
       <c r="BO23" s="16"/>
@@ -3857,7 +3842,7 @@
       <c r="DJ23" s="16"/>
       <c r="DK23" s="16"/>
     </row>
-    <row r="24" spans="1:117" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:117" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>173</v>
       </c>
@@ -3960,7 +3945,7 @@
       <c r="DL24" s="16"/>
       <c r="DM24" s="16"/>
     </row>
-    <row r="25" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>178</v>
       </c>
@@ -4049,7 +4034,7 @@
       <c r="DL25" s="16"/>
       <c r="DM25" s="16"/>
     </row>
-    <row r="26" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31" t="s">
@@ -4134,7 +4119,7 @@
       <c r="DL26" s="16"/>
       <c r="DM26" s="16"/>
     </row>
-    <row r="27" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31" t="s">
@@ -4219,7 +4204,7 @@
       <c r="DL27" s="16"/>
       <c r="DM27" s="16"/>
     </row>
-    <row r="28" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31" t="s">
@@ -4304,7 +4289,7 @@
       <c r="DL28" s="16"/>
       <c r="DM28" s="16"/>
     </row>
-    <row r="29" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31" t="s">
@@ -4395,7 +4380,7 @@
       <c r="DL29" s="16"/>
       <c r="DM29" s="16"/>
     </row>
-    <row r="30" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -4478,7 +4463,7 @@
       <c r="DL30" s="16"/>
       <c r="DM30" s="16"/>
     </row>
-    <row r="31" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -4559,7 +4544,7 @@
       <c r="DL31" s="16"/>
       <c r="DM31" s="16"/>
     </row>
-    <row r="32" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31" t="s">
@@ -4650,7 +4635,7 @@
       <c r="DL32" s="16"/>
       <c r="DM32" s="16"/>
     </row>
-    <row r="33" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -4733,7 +4718,7 @@
       <c r="DL33" s="16"/>
       <c r="DM33" s="16"/>
     </row>
-    <row r="34" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -4814,7 +4799,7 @@
       <c r="DL34" s="16"/>
       <c r="DM34" s="16"/>
     </row>
-    <row r="35" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31" t="s">
@@ -4895,7 +4880,7 @@
       <c r="DL35" s="16"/>
       <c r="DM35" s="16"/>
     </row>
-    <row r="36" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -4978,7 +4963,7 @@
       <c r="DL36" s="16"/>
       <c r="DM36" s="16"/>
     </row>
-    <row r="37" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -5061,7 +5046,7 @@
       <c r="DL37" s="16"/>
       <c r="DM37" s="16"/>
     </row>
-    <row r="38" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -5142,7 +5127,7 @@
       <c r="DL38" s="16"/>
       <c r="DM38" s="16"/>
     </row>
-    <row r="39" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -5225,7 +5210,7 @@
       <c r="DL39" s="16"/>
       <c r="DM39" s="16"/>
     </row>
-    <row r="40" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -5308,7 +5293,7 @@
       <c r="DL40" s="16"/>
       <c r="DM40" s="16"/>
     </row>
-    <row r="41" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31" t="s">
@@ -5393,7 +5378,7 @@
       <c r="DL41" s="16"/>
       <c r="DM41" s="16"/>
     </row>
-    <row r="42" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31" t="s">
@@ -5480,7 +5465,7 @@
       <c r="DL42" s="16"/>
       <c r="DM42" s="16"/>
     </row>
-    <row r="43" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31" t="s">
@@ -5567,7 +5552,7 @@
       <c r="DL43" s="16"/>
       <c r="DM43" s="16"/>
     </row>
-    <row r="44" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31" t="s">
@@ -5656,7 +5641,7 @@
       <c r="DL44" s="16"/>
       <c r="DM44" s="16"/>
     </row>
-    <row r="45" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
       <c r="C45" s="31" t="s">
@@ -5741,7 +5726,7 @@
       <c r="DL45" s="16"/>
       <c r="DM45" s="16"/>
     </row>
-    <row r="46" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31" t="s">
@@ -5826,7 +5811,7 @@
       <c r="DL46" s="16"/>
       <c r="DM46" s="16"/>
     </row>
-    <row r="47" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31" t="s">
@@ -5911,7 +5896,7 @@
       <c r="DL47" s="16"/>
       <c r="DM47" s="16"/>
     </row>
-    <row r="48" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31" t="s">
@@ -5996,7 +5981,7 @@
       <c r="DL48" s="16"/>
       <c r="DM48" s="16"/>
     </row>
-    <row r="49" spans="1:117" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:117" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>234</v>
       </c>
@@ -6085,7 +6070,7 @@
       <c r="DL49" s="16"/>
       <c r="DM49" s="16"/>
     </row>
-    <row r="50" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31" t="s">
@@ -6170,7 +6155,7 @@
       <c r="DL50" s="16"/>
       <c r="DM50" s="16"/>
     </row>
-    <row r="51" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31" t="s">
@@ -6255,7 +6240,7 @@
       <c r="DL51" s="16"/>
       <c r="DM51" s="16"/>
     </row>
-    <row r="52" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31" t="s">
@@ -6340,7 +6325,7 @@
       <c r="DL52" s="16"/>
       <c r="DM52" s="16"/>
     </row>
-    <row r="53" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31" t="s">
@@ -6425,7 +6410,7 @@
       <c r="DL53" s="16"/>
       <c r="DM53" s="16"/>
     </row>
-    <row r="54" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31" t="s">
@@ -6516,7 +6501,7 @@
       <c r="DL54" s="16"/>
       <c r="DM54" s="16"/>
     </row>
-    <row r="55" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -6599,7 +6584,7 @@
       <c r="DL55" s="16"/>
       <c r="DM55" s="16"/>
     </row>
-    <row r="56" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:117" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -6680,7 +6665,7 @@
       <c r="DL56" s="16"/>
       <c r="DM56" s="16"/>
     </row>
-    <row r="58" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:117" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="115" t="s">
         <v>258</v>
       </c>
@@ -6688,7 +6673,7 @@
       <c r="C58" s="116"/>
       <c r="D58" s="117"/>
     </row>
-    <row r="59" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:117" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>173</v>
       </c>
@@ -6705,7 +6690,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:117" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>461</v>
       </c>
@@ -6723,7 +6708,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:117" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="115" t="s">
         <v>252</v>
       </c>
@@ -6737,7 +6722,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:117" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>253</v>
       </c>
@@ -6759,14 +6744,14 @@
       <c r="G63" s="25"/>
       <c r="J63" s="41" t="str">
         <f ca="1">TEXT(TODAY()-320,"MM-DD-YYYY")</f>
-        <v>09-22-2022</v>
+        <v>09-25-2022</v>
       </c>
       <c r="K63" s="41" t="str">
         <f ca="1">TEXT(TODAY()-290,"MM-DD-YYYY")</f>
-        <v>10-22-2022</v>
-      </c>
-    </row>
-    <row r="64" spans="1:117" x14ac:dyDescent="0.35">
+        <v>10-25-2022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>256</v>
       </c>
@@ -6789,14 +6774,14 @@
       <c r="G64" s="31"/>
       <c r="J64" s="41" t="str">
         <f ca="1">TEXT(TODAY()-289,"MM-DD-YYYY")</f>
-        <v>10-23-2022</v>
+        <v>10-26-2022</v>
       </c>
       <c r="K64" s="41" t="str">
         <f ca="1">TEXT(TODAY()-259,"MM-DD-YYYY")</f>
-        <v>11-22-2022</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11-25-2022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>256</v>
       </c>
@@ -6819,14 +6804,14 @@
       <c r="G65" s="31"/>
       <c r="J65" s="41" t="str">
         <f ca="1">TEXT(TODAY()-258,"MM-DD-YYYY")</f>
-        <v>11-23-2022</v>
+        <v>11-26-2022</v>
       </c>
       <c r="K65" s="41" t="str">
         <f ca="1">TEXT(TODAY()-229,"MM-DD-YYYY")</f>
-        <v>12-22-2022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12-25-2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>256</v>
       </c>
@@ -6849,14 +6834,14 @@
       <c r="G66" s="31"/>
       <c r="J66" s="41" t="str">
         <f ca="1">TEXT(TODAY()-381,"MM-DD-YYYY")</f>
-        <v>07-23-2022</v>
+        <v>07-26-2022</v>
       </c>
       <c r="K66" s="41" t="str">
         <f ca="1">TEXT(TODAY()-351,"MM-DD-YYYY")</f>
-        <v>08-22-2022</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <v>08-25-2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>256</v>
       </c>
@@ -6879,14 +6864,14 @@
       <c r="G67" s="31"/>
       <c r="J67" s="41" t="str">
         <f ca="1">TEXT(TODAY()-350,"MM-DD-YYYY")</f>
-        <v>08-23-2022</v>
+        <v>08-26-2022</v>
       </c>
       <c r="K67" s="41" t="str">
         <f ca="1">TEXT(TODAY()-321,"MM-DD-YYYY")</f>
-        <v>09-21-2022</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+        <v>09-24-2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="115" t="s">
         <v>237</v>
       </c>
@@ -6899,7 +6884,7 @@
       <c r="H69" s="116"/>
       <c r="I69" s="117"/>
     </row>
-    <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>131</v>
       </c>
@@ -6946,7 +6931,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>432</v>
       </c>
@@ -6970,11 +6955,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="110" t="str">
         <f ca="1">TEXT(TODAY()-60,"DD-MMM-YY")</f>
-        <v>09-Jun-23</v>
+        <v>12-Jun-23</v>
       </c>
       <c r="K71" s="110" t="str">
         <f ca="1">TEXT(TODAY()-30,"DD-MMM-YY")</f>
-        <v>09-Jul-23</v>
+        <v>12-Jul-23</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6983,13 +6968,13 @@
         <v>12</v>
       </c>
       <c r="N71" s="114" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O71" s="32" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>432</v>
       </c>
@@ -7013,11 +6998,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="110" t="str">
         <f ca="1">TEXT(TODAY()-90,"DD-MMM-YY")</f>
-        <v>10-May-23</v>
+        <v>13-May-23</v>
       </c>
       <c r="K72" s="110" t="str">
         <f ca="1">TEXT(TODAY()-61,"DD-MMM-YY")</f>
-        <v>08-Jun-23</v>
+        <v>11-Jun-23</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -7026,13 +7011,13 @@
         <v>13</v>
       </c>
       <c r="N72" s="114" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O72" s="32" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>432</v>
       </c>
@@ -7056,11 +7041,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="110" t="str">
         <f ca="1">TEXT(TODAY()-120,"DD-MMM-YY")</f>
-        <v>10-Apr-23</v>
+        <v>13-Apr-23</v>
       </c>
       <c r="K73" s="110" t="str">
         <f ca="1">TEXT(TODAY()-91,"DD-MMM-YY")</f>
-        <v>09-May-23</v>
+        <v>12-May-23</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -7069,13 +7054,13 @@
         <v>6</v>
       </c>
       <c r="N73" s="114" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O73" s="32" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>432</v>
       </c>
@@ -7107,11 +7092,11 @@
       </c>
       <c r="J74" s="110" t="str">
         <f ca="1">TEXT(TODAY()-150,"DD-MMM-YY")</f>
-        <v>11-Mar-23</v>
+        <v>14-Mar-23</v>
       </c>
       <c r="K74" s="110" t="str">
         <f ca="1">TEXT(TODAY()-121,"DD-MMM-YY")</f>
-        <v>09-Apr-23</v>
+        <v>12-Apr-23</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -7120,13 +7105,13 @@
         <v>7</v>
       </c>
       <c r="N74" s="114" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O74" s="32" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>432</v>
       </c>
@@ -7158,11 +7143,11 @@
       </c>
       <c r="J75" s="110" t="str">
         <f ca="1">TEXT(TODAY()-180,"DD-MMM-YY")</f>
-        <v>09-Feb-23</v>
+        <v>12-Feb-23</v>
       </c>
       <c r="K75" s="110" t="str">
         <f ca="1">TEXT(TODAY()-151,"DD-MMM-YY")</f>
-        <v>10-Mar-23</v>
+        <v>13-Mar-23</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -7171,36 +7156,36 @@
         <v>10</v>
       </c>
       <c r="N75" s="114" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O75" s="32" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="152" t="s">
+    <row r="77" spans="1:15" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="B77" s="152"/>
-      <c r="C77" s="152"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="152"/>
-      <c r="H77" s="152"/>
-      <c r="I77" s="152"/>
-      <c r="J77" s="152"/>
-      <c r="K77" s="152"/>
-    </row>
-    <row r="79" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="153" t="s">
+      <c r="B77" s="156"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="156"/>
+      <c r="K77" s="156"/>
+    </row>
+    <row r="79" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="157" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="153"/>
-      <c r="C79" s="153"/>
-      <c r="D79" s="153"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B79" s="157"/>
+      <c r="C79" s="157"/>
+      <c r="D79" s="157"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
         <v>269</v>
       </c>
@@ -7214,7 +7199,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:78" s="111" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:78" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="110" t="s">
         <v>272</v>
       </c>
@@ -7230,7 +7215,7 @@
         <v>DEAL_PERSON_CH1_001</v>
       </c>
     </row>
-    <row r="82" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A82" s="50"/>
       <c r="B82" s="50"/>
       <c r="C82" s="50"/>
@@ -7239,10 +7224,10 @@
       <c r="G82" s="111"/>
       <c r="H82" s="41" t="str">
         <f ca="1">TEXT(TODAY()-210,"YYYY-MM-DD")</f>
-        <v>2023-01-10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:78" x14ac:dyDescent="0.35">
+        <v>2023-01-13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
         <v>466</v>
       </c>
@@ -7281,7 +7266,7 @@
       <c r="AH83" s="44"/>
       <c r="AI83" s="44"/>
     </row>
-    <row r="84" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
         <v>274</v>
       </c>
@@ -7339,53 +7324,53 @@
       <c r="S84" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="T84" s="149" t="s">
+      <c r="T84" s="118" t="s">
         <v>293</v>
       </c>
-      <c r="U84" s="150"/>
-      <c r="V84" s="151"/>
-      <c r="W84" s="149" t="s">
+      <c r="U84" s="119"/>
+      <c r="V84" s="120"/>
+      <c r="W84" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="X84" s="151"/>
+      <c r="X84" s="120"/>
       <c r="Y84" s="47"/>
-      <c r="Z84" s="118" t="s">
+      <c r="Z84" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AA84" s="119"/>
-      <c r="AB84" s="119"/>
-      <c r="AC84" s="119"/>
-      <c r="AD84" s="119"/>
-      <c r="AE84" s="119"/>
-      <c r="AF84" s="120"/>
-      <c r="AG84" s="118" t="s">
+      <c r="AA84" s="122"/>
+      <c r="AB84" s="122"/>
+      <c r="AC84" s="122"/>
+      <c r="AD84" s="122"/>
+      <c r="AE84" s="122"/>
+      <c r="AF84" s="123"/>
+      <c r="AG84" s="121" t="s">
         <v>296</v>
       </c>
-      <c r="AH84" s="119"/>
-      <c r="AI84" s="119"/>
-      <c r="AJ84" s="119"/>
-      <c r="AK84" s="119"/>
-      <c r="AL84" s="120"/>
+      <c r="AH84" s="122"/>
+      <c r="AI84" s="122"/>
+      <c r="AJ84" s="122"/>
+      <c r="AK84" s="122"/>
+      <c r="AL84" s="123"/>
       <c r="AM84" s="48"/>
       <c r="AN84" s="49"/>
       <c r="AO84" s="49"/>
       <c r="AP84" s="49"/>
-      <c r="AQ84" s="118" t="s">
+      <c r="AQ84" s="121" t="s">
         <v>517</v>
       </c>
-      <c r="AR84" s="119"/>
-      <c r="AS84" s="120"/>
-      <c r="AT84" s="121" t="s">
+      <c r="AR84" s="122"/>
+      <c r="AS84" s="123"/>
+      <c r="AT84" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="AU84" s="122"/>
-      <c r="AV84" s="122"/>
-      <c r="AW84" s="122"/>
-      <c r="AX84" s="122"/>
-      <c r="AY84" s="122"/>
-      <c r="AZ84" s="122"/>
-      <c r="BA84" s="122"/>
-      <c r="BB84" s="122"/>
+      <c r="AU84" s="159"/>
+      <c r="AV84" s="159"/>
+      <c r="AW84" s="159"/>
+      <c r="AX84" s="159"/>
+      <c r="AY84" s="159"/>
+      <c r="AZ84" s="159"/>
+      <c r="BA84" s="159"/>
+      <c r="BB84" s="159"/>
       <c r="BC84" s="50"/>
       <c r="BD84" s="50"/>
       <c r="BE84" s="50"/>
@@ -7411,7 +7396,7 @@
       <c r="BY84" s="50"/>
       <c r="BZ84" s="50"/>
     </row>
-    <row r="85" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A85" s="51"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -7561,7 +7546,7 @@
       <c r="BY85" s="50"/>
       <c r="BZ85" s="50"/>
     </row>
-    <row r="86" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
         <v>319</v>
       </c>
@@ -7583,11 +7568,11 @@
       </c>
       <c r="G86" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="H86" s="41" t="str">
         <f ca="1">TEXT(TODAY()-190,"YYYY-MM-DD")</f>
-        <v>2023-01-30</v>
+        <v>2023-02-02</v>
       </c>
       <c r="I86" s="54"/>
       <c r="J86" s="54">
@@ -7675,7 +7660,7 @@
       </c>
       <c r="AU86" s="40" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-11</v>
       </c>
       <c r="AV86" s="40" t="s">
         <v>320</v>
@@ -7711,12 +7696,13 @@
       <c r="BY86" s="50"/>
       <c r="BZ86" s="50"/>
     </row>
-    <row r="87" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A87" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="B87" s="28" t="s">
-        <v>545</v>
+      <c r="B87" s="28" t="str">
+        <f>B81</f>
+        <v>2380202516</v>
       </c>
       <c r="C87" s="54" t="s">
         <v>467</v>
@@ -7732,11 +7718,11 @@
       </c>
       <c r="G87" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="H87" s="41" t="str">
         <f ca="1">TEXT(TODAY()-190,"YYYY-MM-DD")</f>
-        <v>2023-01-30</v>
+        <v>2023-02-02</v>
       </c>
       <c r="I87" s="54"/>
       <c r="J87" s="54">
@@ -7754,7 +7740,7 @@
         <v>DealManagement_Test_39944 Ver Desc</v>
       </c>
       <c r="N87" s="30" t="s">
-        <v>320</v>
+        <v>555</v>
       </c>
       <c r="O87" s="30" t="s">
         <v>320</v>
@@ -7828,7 +7814,7 @@
       </c>
       <c r="AU87" s="40" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-11</v>
       </c>
       <c r="AV87" s="40" t="s">
         <v>320</v>
@@ -7864,7 +7850,7 @@
       <c r="BY87" s="50"/>
       <c r="BZ87" s="50"/>
     </row>
-    <row r="88" spans="1:78" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:78" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
         <v>465</v>
       </c>
@@ -7905,7 +7891,7 @@
       <c r="BY88" s="50"/>
       <c r="BZ88" s="50"/>
     </row>
-    <row r="89" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>173</v>
       </c>
@@ -7966,7 +7952,7 @@
       <c r="BY89" s="50"/>
       <c r="BZ89" s="50"/>
     </row>
-    <row r="90" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>178</v>
       </c>
@@ -7975,7 +7961,7 @@
       </c>
       <c r="C90" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="D90" s="33" t="s">
         <v>153</v>
@@ -8025,7 +8011,7 @@
       <c r="BY90" s="50"/>
       <c r="BZ90" s="50"/>
     </row>
-    <row r="91" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
         <v>334</v>
       </c>
@@ -8034,7 +8020,7 @@
       </c>
       <c r="C91" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>153</v>
@@ -8084,64 +8070,64 @@
       <c r="BY91" s="50"/>
       <c r="BZ91" s="50"/>
     </row>
-    <row r="93" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A93" s="125" t="s">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A93" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="B93" s="126"/>
-      <c r="C93" s="126"/>
-      <c r="D93" s="126"/>
-      <c r="E93" s="126"/>
-      <c r="F93" s="126"/>
-      <c r="G93" s="126"/>
-      <c r="H93" s="126"/>
-      <c r="I93" s="126"/>
-      <c r="J93" s="126"/>
-    </row>
-    <row r="94" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="B93" s="129"/>
+      <c r="C93" s="129"/>
+      <c r="D93" s="129"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="129"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="129"/>
+      <c r="J93" s="129"/>
+    </row>
+    <row r="94" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A94" s="60"/>
       <c r="B94" s="61"/>
-      <c r="C94" s="127" t="s">
+      <c r="C94" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D94" s="127"/>
-      <c r="E94" s="127"/>
-      <c r="F94" s="127"/>
-      <c r="G94" s="127"/>
-      <c r="H94" s="127"/>
-      <c r="I94" s="127"/>
-      <c r="J94" s="127"/>
-      <c r="K94" s="127"/>
-    </row>
-    <row r="95" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A95" s="128" t="s">
+      <c r="D94" s="130"/>
+      <c r="E94" s="130"/>
+      <c r="F94" s="130"/>
+      <c r="G94" s="130"/>
+      <c r="H94" s="130"/>
+      <c r="I94" s="130"/>
+      <c r="J94" s="130"/>
+      <c r="K94" s="130"/>
+    </row>
+    <row r="95" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A95" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="B95" s="128" t="s">
+      <c r="B95" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C95" s="130" t="s">
+      <c r="C95" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="D95" s="131"/>
-      <c r="E95" s="131"/>
-      <c r="F95" s="132"/>
-      <c r="G95" s="133" t="s">
+      <c r="D95" s="139"/>
+      <c r="E95" s="139"/>
+      <c r="F95" s="140"/>
+      <c r="G95" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H95" s="134"/>
-      <c r="I95" s="134"/>
-      <c r="J95" s="135"/>
-      <c r="K95" s="128" t="s">
+      <c r="H95" s="143"/>
+      <c r="I95" s="143"/>
+      <c r="J95" s="142"/>
+      <c r="K95" s="136" t="s">
         <v>343</v>
       </c>
-      <c r="L95" s="128" t="s">
+      <c r="L95" s="136" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="96" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A96" s="129"/>
-      <c r="B96" s="129"/>
+    <row r="96" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A96" s="137"/>
+      <c r="B96" s="137"/>
       <c r="C96" s="62" t="s">
         <v>345</v>
       </c>
@@ -8166,10 +8152,10 @@
       <c r="J96" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K96" s="129"/>
-      <c r="L96" s="129"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K96" s="137"/>
+      <c r="L96" s="137"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
         <v>349</v>
       </c>
@@ -8216,77 +8202,77 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="125" t="s">
+    <row r="99" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="128" t="s">
         <v>351</v>
       </c>
-      <c r="B99" s="126"/>
-      <c r="C99" s="126"/>
-      <c r="D99" s="126"/>
-      <c r="E99" s="126"/>
-      <c r="F99" s="126"/>
-      <c r="G99" s="126"/>
-      <c r="H99" s="126"/>
-      <c r="I99" s="126"/>
-      <c r="J99" s="126"/>
-      <c r="K99" s="126"/>
-      <c r="L99" s="126"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="138" t="s">
+      <c r="B99" s="129"/>
+      <c r="C99" s="129"/>
+      <c r="D99" s="129"/>
+      <c r="E99" s="129"/>
+      <c r="F99" s="129"/>
+      <c r="G99" s="129"/>
+      <c r="H99" s="129"/>
+      <c r="I99" s="129"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="129"/>
+      <c r="L99" s="129"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="B100" s="138" t="s">
+      <c r="B100" s="133" t="s">
         <v>352</v>
       </c>
-      <c r="C100" s="141" t="s">
+      <c r="C100" s="148" t="s">
         <v>353</v>
       </c>
-      <c r="D100" s="144" t="s">
+      <c r="D100" s="151" t="s">
         <v>354</v>
       </c>
-      <c r="E100" s="147" t="s">
+      <c r="E100" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="F100" s="147"/>
-      <c r="G100" s="147"/>
-      <c r="H100" s="147"/>
-      <c r="I100" s="148" t="s">
+      <c r="F100" s="154"/>
+      <c r="G100" s="154"/>
+      <c r="H100" s="154"/>
+      <c r="I100" s="155" t="s">
         <v>355</v>
       </c>
-      <c r="J100" s="148"/>
-      <c r="K100" s="148"/>
-      <c r="L100" s="148"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A101" s="139"/>
-      <c r="B101" s="139"/>
-      <c r="C101" s="142"/>
-      <c r="D101" s="145"/>
-      <c r="E101" s="130" t="s">
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="155"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="134"/>
+      <c r="B101" s="134"/>
+      <c r="C101" s="149"/>
+      <c r="D101" s="152"/>
+      <c r="E101" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="F101" s="132"/>
-      <c r="G101" s="133" t="s">
+      <c r="F101" s="140"/>
+      <c r="G101" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H101" s="135"/>
-      <c r="I101" s="130" t="s">
+      <c r="H101" s="142"/>
+      <c r="I101" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="J101" s="132"/>
-      <c r="K101" s="133" t="s">
+      <c r="J101" s="140"/>
+      <c r="K101" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="L101" s="135"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A102" s="140"/>
-      <c r="B102" s="140" t="s">
+      <c r="L101" s="142"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="135"/>
+      <c r="B102" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C102" s="143"/>
-      <c r="D102" s="146"/>
+      <c r="C102" s="150"/>
+      <c r="D102" s="153"/>
       <c r="E102" s="62" t="s">
         <v>357</v>
       </c>
@@ -8312,7 +8298,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="str">
         <f>C5&amp;",IND"</f>
         <v>DEAL_PERSON_CH1_001,IND</v>
@@ -8360,62 +8346,62 @@
         <v>$0.00</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="125" t="s">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="B105" s="126"/>
-      <c r="C105" s="126"/>
-      <c r="D105" s="126"/>
-      <c r="E105" s="126"/>
-      <c r="F105" s="126"/>
-      <c r="G105" s="126"/>
-      <c r="H105" s="126"/>
-      <c r="I105" s="126"/>
-      <c r="J105" s="126"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B105" s="129"/>
+      <c r="C105" s="129"/>
+      <c r="D105" s="129"/>
+      <c r="E105" s="129"/>
+      <c r="F105" s="129"/>
+      <c r="G105" s="129"/>
+      <c r="H105" s="129"/>
+      <c r="I105" s="129"/>
+      <c r="J105" s="129"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="60"/>
       <c r="B106" s="61"/>
-      <c r="C106" s="127" t="s">
+      <c r="C106" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D106" s="127"/>
-      <c r="E106" s="127"/>
-      <c r="F106" s="127"/>
-      <c r="G106" s="127"/>
-      <c r="H106" s="127"/>
-      <c r="I106" s="127"/>
-      <c r="J106" s="127"/>
-      <c r="K106" s="127"/>
+      <c r="D106" s="130"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="130"/>
+      <c r="G106" s="130"/>
+      <c r="H106" s="130"/>
+      <c r="I106" s="130"/>
+      <c r="J106" s="130"/>
+      <c r="K106" s="130"/>
       <c r="Z106" s="67"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A107" s="128" t="s">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="B107" s="128" t="s">
+      <c r="B107" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C107" s="130" t="s">
+      <c r="C107" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="D107" s="131"/>
-      <c r="E107" s="131"/>
-      <c r="F107" s="132"/>
-      <c r="G107" s="133" t="s">
+      <c r="D107" s="139"/>
+      <c r="E107" s="139"/>
+      <c r="F107" s="140"/>
+      <c r="G107" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H107" s="134"/>
-      <c r="I107" s="134"/>
-      <c r="J107" s="135"/>
-      <c r="K107" s="136" t="s">
+      <c r="H107" s="143"/>
+      <c r="I107" s="143"/>
+      <c r="J107" s="142"/>
+      <c r="K107" s="131" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A108" s="129"/>
-      <c r="B108" s="129"/>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" s="137"/>
+      <c r="B108" s="137"/>
       <c r="C108" s="62" t="s">
         <v>345</v>
       </c>
@@ -8440,9 +8426,9 @@
       <c r="J108" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K108" s="137"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K108" s="132"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
         <v>349</v>
       </c>
@@ -8484,14 +8470,14 @@
         <v>64817.97</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="42" t="s">
         <v>364</v>
       </c>
@@ -8529,7 +8515,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="113" spans="1:78" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:78" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="69" t="s">
         <v>371</v>
       </c>
@@ -8551,7 +8537,7 @@
       <c r="I113" s="70"/>
       <c r="J113" s="71">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="K113" s="71">
         <v>234</v>
@@ -8560,7 +8546,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A115" s="43" t="s">
         <v>466</v>
       </c>
@@ -8599,7 +8585,7 @@
       <c r="AH115" s="44"/>
       <c r="AI115" s="44"/>
     </row>
-    <row r="116" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A116" s="45" t="s">
         <v>274</v>
       </c>
@@ -8657,33 +8643,33 @@
       <c r="S116" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="T116" s="149" t="s">
+      <c r="T116" s="118" t="s">
         <v>293</v>
       </c>
-      <c r="U116" s="150"/>
-      <c r="V116" s="151"/>
-      <c r="W116" s="149" t="s">
+      <c r="U116" s="119"/>
+      <c r="V116" s="120"/>
+      <c r="W116" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="X116" s="151"/>
+      <c r="X116" s="120"/>
       <c r="Y116" s="94"/>
-      <c r="Z116" s="118" t="s">
+      <c r="Z116" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AA116" s="119"/>
-      <c r="AB116" s="119"/>
-      <c r="AC116" s="119"/>
-      <c r="AD116" s="119"/>
-      <c r="AE116" s="119"/>
-      <c r="AF116" s="120"/>
-      <c r="AG116" s="118" t="s">
+      <c r="AA116" s="122"/>
+      <c r="AB116" s="122"/>
+      <c r="AC116" s="122"/>
+      <c r="AD116" s="122"/>
+      <c r="AE116" s="122"/>
+      <c r="AF116" s="123"/>
+      <c r="AG116" s="121" t="s">
         <v>296</v>
       </c>
-      <c r="AH116" s="119"/>
-      <c r="AI116" s="119"/>
-      <c r="AJ116" s="119"/>
-      <c r="AK116" s="119"/>
-      <c r="AL116" s="120"/>
+      <c r="AH116" s="122"/>
+      <c r="AI116" s="122"/>
+      <c r="AJ116" s="122"/>
+      <c r="AK116" s="122"/>
+      <c r="AL116" s="123"/>
       <c r="AM116" s="48"/>
       <c r="AN116" s="49"/>
       <c r="AO116" s="49"/>
@@ -8723,7 +8709,7 @@
       <c r="BY116" s="50"/>
       <c r="BZ116" s="50"/>
     </row>
-    <row r="117" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A117" s="51"/>
       <c r="B117" s="51"/>
       <c r="C117" s="51"/>
@@ -8847,7 +8833,7 @@
       <c r="BY117" s="50"/>
       <c r="BZ117" s="50"/>
     </row>
-    <row r="118" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A118" s="54" t="s">
         <v>319</v>
       </c>
@@ -8869,11 +8855,11 @@
       </c>
       <c r="G118" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="H118" s="41" t="str">
         <f ca="1">TEXT(TODAY()-190,"YYYY-MM-DD")</f>
-        <v>2023-01-30</v>
+        <v>2023-02-02</v>
       </c>
       <c r="I118" s="54"/>
       <c r="J118" s="54">
@@ -8994,64 +8980,64 @@
       <c r="BY118" s="50"/>
       <c r="BZ118" s="50"/>
     </row>
-    <row r="120" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A120" s="125" t="s">
+    <row r="120" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A120" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="B120" s="126"/>
-      <c r="C120" s="126"/>
-      <c r="D120" s="126"/>
-      <c r="E120" s="126"/>
-      <c r="F120" s="126"/>
-      <c r="G120" s="126"/>
-      <c r="H120" s="126"/>
-      <c r="I120" s="126"/>
-      <c r="J120" s="126"/>
-    </row>
-    <row r="121" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="B120" s="129"/>
+      <c r="C120" s="129"/>
+      <c r="D120" s="129"/>
+      <c r="E120" s="129"/>
+      <c r="F120" s="129"/>
+      <c r="G120" s="129"/>
+      <c r="H120" s="129"/>
+      <c r="I120" s="129"/>
+      <c r="J120" s="129"/>
+    </row>
+    <row r="121" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A121" s="92"/>
       <c r="B121" s="93"/>
-      <c r="C121" s="127" t="s">
+      <c r="C121" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D121" s="127"/>
-      <c r="E121" s="127"/>
-      <c r="F121" s="127"/>
-      <c r="G121" s="127"/>
-      <c r="H121" s="127"/>
-      <c r="I121" s="127"/>
-      <c r="J121" s="127"/>
-      <c r="K121" s="127"/>
-    </row>
-    <row r="122" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A122" s="128" t="s">
+      <c r="D121" s="130"/>
+      <c r="E121" s="130"/>
+      <c r="F121" s="130"/>
+      <c r="G121" s="130"/>
+      <c r="H121" s="130"/>
+      <c r="I121" s="130"/>
+      <c r="J121" s="130"/>
+      <c r="K121" s="130"/>
+    </row>
+    <row r="122" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A122" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="B122" s="128" t="s">
+      <c r="B122" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C122" s="130" t="s">
+      <c r="C122" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="D122" s="131"/>
-      <c r="E122" s="131"/>
-      <c r="F122" s="132"/>
-      <c r="G122" s="133" t="s">
+      <c r="D122" s="139"/>
+      <c r="E122" s="139"/>
+      <c r="F122" s="140"/>
+      <c r="G122" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H122" s="134"/>
-      <c r="I122" s="134"/>
-      <c r="J122" s="135"/>
-      <c r="K122" s="128" t="s">
+      <c r="H122" s="143"/>
+      <c r="I122" s="143"/>
+      <c r="J122" s="142"/>
+      <c r="K122" s="136" t="s">
         <v>343</v>
       </c>
-      <c r="L122" s="128" t="s">
+      <c r="L122" s="136" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="123" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A123" s="129"/>
-      <c r="B123" s="129"/>
+    <row r="123" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A123" s="137"/>
+      <c r="B123" s="137"/>
       <c r="C123" s="62" t="s">
         <v>345</v>
       </c>
@@ -9076,10 +9062,10 @@
       <c r="J123" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K123" s="129"/>
-      <c r="L123" s="129"/>
-    </row>
-    <row r="124" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="K123" s="137"/>
+      <c r="L123" s="137"/>
+    </row>
+    <row r="124" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
         <v>349</v>
       </c>
@@ -9126,77 +9112,77 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:78" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="125" t="s">
+    <row r="126" spans="1:78" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="128" t="s">
         <v>351</v>
       </c>
-      <c r="B126" s="126"/>
-      <c r="C126" s="126"/>
-      <c r="D126" s="126"/>
-      <c r="E126" s="126"/>
-      <c r="F126" s="126"/>
-      <c r="G126" s="126"/>
-      <c r="H126" s="126"/>
-      <c r="I126" s="126"/>
-      <c r="J126" s="126"/>
-      <c r="K126" s="126"/>
-      <c r="L126" s="126"/>
-    </row>
-    <row r="127" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A127" s="138" t="s">
+      <c r="B126" s="129"/>
+      <c r="C126" s="129"/>
+      <c r="D126" s="129"/>
+      <c r="E126" s="129"/>
+      <c r="F126" s="129"/>
+      <c r="G126" s="129"/>
+      <c r="H126" s="129"/>
+      <c r="I126" s="129"/>
+      <c r="J126" s="129"/>
+      <c r="K126" s="129"/>
+      <c r="L126" s="129"/>
+    </row>
+    <row r="127" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A127" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="138" t="s">
+      <c r="B127" s="133" t="s">
         <v>352</v>
       </c>
-      <c r="C127" s="141" t="s">
+      <c r="C127" s="148" t="s">
         <v>353</v>
       </c>
-      <c r="D127" s="144" t="s">
+      <c r="D127" s="151" t="s">
         <v>354</v>
       </c>
-      <c r="E127" s="147" t="s">
+      <c r="E127" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="F127" s="147"/>
-      <c r="G127" s="147"/>
-      <c r="H127" s="147"/>
-      <c r="I127" s="148" t="s">
+      <c r="F127" s="154"/>
+      <c r="G127" s="154"/>
+      <c r="H127" s="154"/>
+      <c r="I127" s="155" t="s">
         <v>355</v>
       </c>
-      <c r="J127" s="148"/>
-      <c r="K127" s="148"/>
-      <c r="L127" s="148"/>
-    </row>
-    <row r="128" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A128" s="139"/>
-      <c r="B128" s="139"/>
-      <c r="C128" s="142"/>
-      <c r="D128" s="145"/>
-      <c r="E128" s="130" t="s">
+      <c r="J127" s="155"/>
+      <c r="K127" s="155"/>
+      <c r="L127" s="155"/>
+    </row>
+    <row r="128" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A128" s="134"/>
+      <c r="B128" s="134"/>
+      <c r="C128" s="149"/>
+      <c r="D128" s="152"/>
+      <c r="E128" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="F128" s="132"/>
-      <c r="G128" s="133" t="s">
+      <c r="F128" s="140"/>
+      <c r="G128" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H128" s="135"/>
-      <c r="I128" s="130" t="s">
+      <c r="H128" s="142"/>
+      <c r="I128" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="J128" s="132"/>
-      <c r="K128" s="133" t="s">
+      <c r="J128" s="140"/>
+      <c r="K128" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="L128" s="135"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A129" s="140"/>
-      <c r="B129" s="140" t="s">
+      <c r="L128" s="142"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" s="135"/>
+      <c r="B129" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="143"/>
-      <c r="D129" s="146"/>
+      <c r="C129" s="150"/>
+      <c r="D129" s="153"/>
       <c r="E129" s="62" t="s">
         <v>357</v>
       </c>
@@ -9222,7 +9208,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="str">
         <f>C5&amp;",IND"</f>
         <v>DEAL_PERSON_CH1_001,IND</v>
@@ -9270,62 +9256,62 @@
         <v>$0.00</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A132" s="125" t="s">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="B132" s="126"/>
-      <c r="C132" s="126"/>
-      <c r="D132" s="126"/>
-      <c r="E132" s="126"/>
-      <c r="F132" s="126"/>
-      <c r="G132" s="126"/>
-      <c r="H132" s="126"/>
-      <c r="I132" s="126"/>
-      <c r="J132" s="126"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B132" s="129"/>
+      <c r="C132" s="129"/>
+      <c r="D132" s="129"/>
+      <c r="E132" s="129"/>
+      <c r="F132" s="129"/>
+      <c r="G132" s="129"/>
+      <c r="H132" s="129"/>
+      <c r="I132" s="129"/>
+      <c r="J132" s="129"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="92"/>
       <c r="B133" s="93"/>
-      <c r="C133" s="127" t="s">
+      <c r="C133" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D133" s="127"/>
-      <c r="E133" s="127"/>
-      <c r="F133" s="127"/>
-      <c r="G133" s="127"/>
-      <c r="H133" s="127"/>
-      <c r="I133" s="127"/>
-      <c r="J133" s="127"/>
-      <c r="K133" s="127"/>
+      <c r="D133" s="130"/>
+      <c r="E133" s="130"/>
+      <c r="F133" s="130"/>
+      <c r="G133" s="130"/>
+      <c r="H133" s="130"/>
+      <c r="I133" s="130"/>
+      <c r="J133" s="130"/>
+      <c r="K133" s="130"/>
       <c r="Z133" s="67"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A134" s="128" t="s">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="B134" s="128" t="s">
+      <c r="B134" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C134" s="130" t="s">
+      <c r="C134" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="D134" s="131"/>
-      <c r="E134" s="131"/>
-      <c r="F134" s="132"/>
-      <c r="G134" s="133" t="s">
+      <c r="D134" s="139"/>
+      <c r="E134" s="139"/>
+      <c r="F134" s="140"/>
+      <c r="G134" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H134" s="134"/>
-      <c r="I134" s="134"/>
-      <c r="J134" s="135"/>
-      <c r="K134" s="136" t="s">
+      <c r="H134" s="143"/>
+      <c r="I134" s="143"/>
+      <c r="J134" s="142"/>
+      <c r="K134" s="131" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A135" s="129"/>
-      <c r="B135" s="129"/>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" s="137"/>
+      <c r="B135" s="137"/>
       <c r="C135" s="62" t="s">
         <v>345</v>
       </c>
@@ -9350,9 +9336,9 @@
       <c r="J135" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K135" s="137"/>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K135" s="132"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="54" t="s">
         <v>349</v>
       </c>
@@ -9394,14 +9380,14 @@
         <v>65525.16</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="42" t="s">
         <v>364</v>
       </c>
@@ -9439,7 +9425,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="69" t="s">
         <v>371</v>
       </c>
@@ -9461,7 +9447,7 @@
       <c r="I140" s="70"/>
       <c r="J140" s="71">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="K140" s="71">
         <v>234</v>
@@ -9470,14 +9456,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="43" t="s">
         <v>375</v>
       </c>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="42" t="s">
         <v>376</v>
       </c>
@@ -9491,10 +9477,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B144" s="73" t="s">
         <v>382</v>
@@ -9506,10 +9492,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B145" s="73" t="s">
         <v>383</v>
@@ -9521,10 +9507,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B146" s="73" t="s">
         <v>384</v>
@@ -9536,27 +9522,27 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A148" s="123" t="s">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A148" s="124" t="s">
         <v>476</v>
       </c>
-      <c r="B148" s="124"/>
-      <c r="C148" s="124"/>
-      <c r="D148" s="124"/>
-      <c r="E148" s="124"/>
-      <c r="F148" s="124"/>
-      <c r="G148" s="124"/>
-      <c r="H148" s="124"/>
-      <c r="I148" s="124"/>
-      <c r="J148" s="124"/>
-      <c r="K148" s="124"/>
-      <c r="L148" s="124"/>
-      <c r="M148" s="124"/>
-      <c r="N148" s="124"/>
-      <c r="O148" s="124"/>
-      <c r="P148" s="124"/>
-      <c r="Q148" s="124"/>
-      <c r="R148" s="124"/>
+      <c r="B148" s="125"/>
+      <c r="C148" s="125"/>
+      <c r="D148" s="125"/>
+      <c r="E148" s="125"/>
+      <c r="F148" s="125"/>
+      <c r="G148" s="125"/>
+      <c r="H148" s="125"/>
+      <c r="I148" s="125"/>
+      <c r="J148" s="125"/>
+      <c r="K148" s="125"/>
+      <c r="L148" s="125"/>
+      <c r="M148" s="125"/>
+      <c r="N148" s="125"/>
+      <c r="O148" s="125"/>
+      <c r="P148" s="125"/>
+      <c r="Q148" s="125"/>
+      <c r="R148" s="125"/>
       <c r="S148" s="61"/>
       <c r="T148" s="61"/>
       <c r="U148" s="61"/>
@@ -9566,7 +9552,7 @@
       <c r="Y148" s="61"/>
       <c r="Z148" s="61"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A149" s="74" t="s">
         <v>386</v>
       </c>
@@ -9646,7 +9632,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A150" s="75" t="s">
         <v>200</v>
       </c>
@@ -9656,7 +9642,7 @@
       </c>
       <c r="D150" s="79" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E150" s="79"/>
       <c r="F150" s="79" t="str">
@@ -9713,7 +9699,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="75" t="s">
         <v>200</v>
       </c>
@@ -9723,7 +9709,7 @@
       </c>
       <c r="D151" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E151" s="78"/>
       <c r="F151" s="78">
@@ -9768,7 +9754,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="75" t="s">
         <v>200</v>
       </c>
@@ -9778,7 +9764,7 @@
       </c>
       <c r="D152" s="82" t="str">
         <f ca="1">TEXT(TODAY()+70,"YYYY-MM-DD")</f>
-        <v>2023-10-17</v>
+        <v>2023-10-20</v>
       </c>
       <c r="E152" s="82"/>
       <c r="F152" s="82">
@@ -9823,27 +9809,27 @@
         <v>503</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A154" s="123" t="s">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A154" s="124" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="124"/>
-      <c r="C154" s="124"/>
-      <c r="D154" s="124"/>
-      <c r="E154" s="124"/>
-      <c r="F154" s="124"/>
-      <c r="G154" s="124"/>
-      <c r="H154" s="124"/>
-      <c r="I154" s="124"/>
-      <c r="J154" s="124"/>
-      <c r="K154" s="124"/>
-      <c r="L154" s="124"/>
-      <c r="M154" s="124"/>
-      <c r="N154" s="124"/>
-      <c r="O154" s="124"/>
-      <c r="P154" s="124"/>
-      <c r="Q154" s="124"/>
-      <c r="R154" s="124"/>
+      <c r="B154" s="125"/>
+      <c r="C154" s="125"/>
+      <c r="D154" s="125"/>
+      <c r="E154" s="125"/>
+      <c r="F154" s="125"/>
+      <c r="G154" s="125"/>
+      <c r="H154" s="125"/>
+      <c r="I154" s="125"/>
+      <c r="J154" s="125"/>
+      <c r="K154" s="125"/>
+      <c r="L154" s="125"/>
+      <c r="M154" s="125"/>
+      <c r="N154" s="125"/>
+      <c r="O154" s="125"/>
+      <c r="P154" s="125"/>
+      <c r="Q154" s="125"/>
+      <c r="R154" s="125"/>
       <c r="S154" s="80"/>
       <c r="T154" s="80"/>
       <c r="U154" s="80"/>
@@ -9853,7 +9839,7 @@
       <c r="Y154" s="80"/>
       <c r="Z154" s="80"/>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="74" t="s">
         <v>386</v>
       </c>
@@ -9933,7 +9919,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="76" t="s">
         <v>207</v>
       </c>
@@ -9999,7 +9985,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="157" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="76" t="s">
         <v>207</v>
       </c>
@@ -10054,7 +10040,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="158" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="76" t="s">
         <v>207</v>
       </c>
@@ -10109,7 +10095,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="159" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="76" t="s">
         <v>207</v>
       </c>
@@ -10119,7 +10105,7 @@
       </c>
       <c r="D159" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-07</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E159" s="82"/>
       <c r="F159" s="82" t="s">
@@ -10164,32 +10150,32 @@
         <v>436</v>
       </c>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AU160" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A161" s="123" t="s">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A161" s="124" t="s">
         <v>474</v>
       </c>
-      <c r="B161" s="124"/>
-      <c r="C161" s="124"/>
-      <c r="D161" s="124"/>
-      <c r="E161" s="124"/>
-      <c r="F161" s="124"/>
-      <c r="G161" s="124"/>
-      <c r="H161" s="124"/>
-      <c r="I161" s="124"/>
-      <c r="J161" s="124"/>
-      <c r="K161" s="124"/>
-      <c r="L161" s="124"/>
-      <c r="M161" s="124"/>
-      <c r="N161" s="124"/>
-      <c r="O161" s="124"/>
-      <c r="P161" s="124"/>
-      <c r="Q161" s="124"/>
-      <c r="R161" s="124"/>
+      <c r="B161" s="125"/>
+      <c r="C161" s="125"/>
+      <c r="D161" s="125"/>
+      <c r="E161" s="125"/>
+      <c r="F161" s="125"/>
+      <c r="G161" s="125"/>
+      <c r="H161" s="125"/>
+      <c r="I161" s="125"/>
+      <c r="J161" s="125"/>
+      <c r="K161" s="125"/>
+      <c r="L161" s="125"/>
+      <c r="M161" s="125"/>
+      <c r="N161" s="125"/>
+      <c r="O161" s="125"/>
+      <c r="P161" s="125"/>
+      <c r="Q161" s="125"/>
+      <c r="R161" s="125"/>
       <c r="S161" s="81"/>
       <c r="T161" s="81"/>
       <c r="U161" s="81"/>
@@ -10199,7 +10185,7 @@
       <c r="Y161" s="81"/>
       <c r="Z161" s="81"/>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A162" s="74" t="s">
         <v>386</v>
       </c>
@@ -10279,7 +10265,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="163" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="76" t="s">
         <v>214</v>
       </c>
@@ -10345,7 +10331,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="76" t="s">
         <v>214</v>
       </c>
@@ -10398,7 +10384,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="165" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="76" t="s">
         <v>214</v>
       </c>
@@ -10451,7 +10437,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="166" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="76" t="s">
         <v>214</v>
       </c>
@@ -10461,7 +10447,7 @@
       </c>
       <c r="D166" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-07</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E166" s="82"/>
       <c r="F166" s="82" t="s">
@@ -10506,32 +10492,32 @@
         <v>438</v>
       </c>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AU167" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A168" s="123" t="s">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A168" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="124"/>
-      <c r="C168" s="124"/>
-      <c r="D168" s="124"/>
-      <c r="E168" s="124"/>
-      <c r="F168" s="124"/>
-      <c r="G168" s="124"/>
-      <c r="H168" s="124"/>
-      <c r="I168" s="124"/>
-      <c r="J168" s="124"/>
-      <c r="K168" s="124"/>
-      <c r="L168" s="124"/>
-      <c r="M168" s="124"/>
-      <c r="N168" s="124"/>
-      <c r="O168" s="124"/>
-      <c r="P168" s="124"/>
-      <c r="Q168" s="124"/>
-      <c r="R168" s="124"/>
+      <c r="B168" s="125"/>
+      <c r="C168" s="125"/>
+      <c r="D168" s="125"/>
+      <c r="E168" s="125"/>
+      <c r="F168" s="125"/>
+      <c r="G168" s="125"/>
+      <c r="H168" s="125"/>
+      <c r="I168" s="125"/>
+      <c r="J168" s="125"/>
+      <c r="K168" s="125"/>
+      <c r="L168" s="125"/>
+      <c r="M168" s="125"/>
+      <c r="N168" s="125"/>
+      <c r="O168" s="125"/>
+      <c r="P168" s="125"/>
+      <c r="Q168" s="125"/>
+      <c r="R168" s="125"/>
       <c r="S168" s="84"/>
       <c r="T168" s="84"/>
       <c r="U168" s="84"/>
@@ -10541,7 +10527,7 @@
       <c r="Y168" s="84"/>
       <c r="Z168" s="84"/>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A169" s="74" t="s">
         <v>386</v>
       </c>
@@ -10621,7 +10607,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="170" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="75" t="s">
         <v>222</v>
       </c>
@@ -10690,7 +10676,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="171" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="75" t="s">
         <v>222</v>
       </c>
@@ -10747,7 +10733,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="172" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="75" t="s">
         <v>222</v>
       </c>
@@ -10759,7 +10745,7 @@
       </c>
       <c r="D172" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E172" s="77"/>
       <c r="F172" s="77" t="s">
@@ -10804,7 +10790,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="173" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="75" t="s">
         <v>222</v>
       </c>
@@ -10816,7 +10802,7 @@
       </c>
       <c r="D173" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-07</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E173" s="82"/>
       <c r="F173" s="82" t="s">
@@ -10861,27 +10847,27 @@
         <v>440</v>
       </c>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A175" s="123" t="s">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A175" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="B175" s="124"/>
-      <c r="C175" s="124"/>
-      <c r="D175" s="124"/>
-      <c r="E175" s="124"/>
-      <c r="F175" s="124"/>
-      <c r="G175" s="124"/>
-      <c r="H175" s="124"/>
-      <c r="I175" s="124"/>
-      <c r="J175" s="124"/>
-      <c r="K175" s="124"/>
-      <c r="L175" s="124"/>
-      <c r="M175" s="124"/>
-      <c r="N175" s="124"/>
-      <c r="O175" s="124"/>
-      <c r="P175" s="124"/>
-      <c r="Q175" s="124"/>
-      <c r="R175" s="124"/>
+      <c r="B175" s="125"/>
+      <c r="C175" s="125"/>
+      <c r="D175" s="125"/>
+      <c r="E175" s="125"/>
+      <c r="F175" s="125"/>
+      <c r="G175" s="125"/>
+      <c r="H175" s="125"/>
+      <c r="I175" s="125"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="125"/>
+      <c r="L175" s="125"/>
+      <c r="M175" s="125"/>
+      <c r="N175" s="125"/>
+      <c r="O175" s="125"/>
+      <c r="P175" s="125"/>
+      <c r="Q175" s="125"/>
+      <c r="R175" s="125"/>
       <c r="S175" s="85"/>
       <c r="T175" s="85"/>
       <c r="U175" s="85"/>
@@ -10891,7 +10877,7 @@
       <c r="Y175" s="85"/>
       <c r="Z175" s="85"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A176" s="74" t="s">
         <v>386</v>
       </c>
@@ -10971,7 +10957,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="177" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="75" t="s">
         <v>247</v>
       </c>
@@ -10983,7 +10969,7 @@
       </c>
       <c r="D177" s="79" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E177" s="79"/>
       <c r="F177" s="79"/>
@@ -11040,7 +11026,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="178" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="75" t="s">
         <v>247</v>
       </c>
@@ -11095,7 +11081,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="179" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="75" t="s">
         <v>247</v>
       </c>
@@ -11107,7 +11093,7 @@
       </c>
       <c r="D179" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E179" s="78"/>
       <c r="F179" s="78" t="s">
@@ -11150,7 +11136,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="180" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="75" t="s">
         <v>247</v>
       </c>
@@ -11162,7 +11148,7 @@
       </c>
       <c r="D180" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-07</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E180" s="82"/>
       <c r="F180" s="82" t="s">
@@ -11205,27 +11191,27 @@
         <v>442</v>
       </c>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A182" s="123" t="s">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A182" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="B182" s="124"/>
-      <c r="C182" s="124"/>
-      <c r="D182" s="124"/>
-      <c r="E182" s="124"/>
-      <c r="F182" s="124"/>
-      <c r="G182" s="124"/>
-      <c r="H182" s="124"/>
-      <c r="I182" s="124"/>
-      <c r="J182" s="124"/>
-      <c r="K182" s="124"/>
-      <c r="L182" s="124"/>
-      <c r="M182" s="124"/>
-      <c r="N182" s="124"/>
-      <c r="O182" s="124"/>
-      <c r="P182" s="124"/>
-      <c r="Q182" s="124"/>
-      <c r="R182" s="124"/>
+      <c r="B182" s="125"/>
+      <c r="C182" s="125"/>
+      <c r="D182" s="125"/>
+      <c r="E182" s="125"/>
+      <c r="F182" s="125"/>
+      <c r="G182" s="125"/>
+      <c r="H182" s="125"/>
+      <c r="I182" s="125"/>
+      <c r="J182" s="125"/>
+      <c r="K182" s="125"/>
+      <c r="L182" s="125"/>
+      <c r="M182" s="125"/>
+      <c r="N182" s="125"/>
+      <c r="O182" s="125"/>
+      <c r="P182" s="125"/>
+      <c r="Q182" s="125"/>
+      <c r="R182" s="125"/>
       <c r="S182" s="95"/>
       <c r="T182" s="95"/>
       <c r="U182" s="95"/>
@@ -11235,7 +11221,7 @@
       <c r="Y182" s="95"/>
       <c r="Z182" s="95"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A183" s="74" t="s">
         <v>386</v>
       </c>
@@ -11315,7 +11301,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="184" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="75" t="s">
         <v>247</v>
       </c>
@@ -11327,7 +11313,7 @@
       </c>
       <c r="D184" s="79" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E184" s="79"/>
       <c r="F184" s="79"/>
@@ -11381,7 +11367,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="185" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="75" t="s">
         <v>247</v>
       </c>
@@ -11436,7 +11422,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="186" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="75" t="s">
         <v>247</v>
       </c>
@@ -11448,7 +11434,7 @@
       </c>
       <c r="D186" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E186" s="78"/>
       <c r="F186" s="78" t="s">
@@ -11491,7 +11477,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="187" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="75" t="s">
         <v>247</v>
       </c>
@@ -11503,7 +11489,7 @@
       </c>
       <c r="D187" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-07</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E187" s="82"/>
       <c r="F187" s="82" t="s">
@@ -11546,27 +11532,27 @@
         <v>444</v>
       </c>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A189" s="123" t="s">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A189" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="B189" s="124"/>
-      <c r="C189" s="124"/>
-      <c r="D189" s="124"/>
-      <c r="E189" s="124"/>
-      <c r="F189" s="124"/>
-      <c r="G189" s="124"/>
-      <c r="H189" s="124"/>
-      <c r="I189" s="124"/>
-      <c r="J189" s="124"/>
-      <c r="K189" s="124"/>
-      <c r="L189" s="124"/>
-      <c r="M189" s="124"/>
-      <c r="N189" s="124"/>
-      <c r="O189" s="124"/>
-      <c r="P189" s="124"/>
-      <c r="Q189" s="124"/>
-      <c r="R189" s="124"/>
+      <c r="B189" s="125"/>
+      <c r="C189" s="125"/>
+      <c r="D189" s="125"/>
+      <c r="E189" s="125"/>
+      <c r="F189" s="125"/>
+      <c r="G189" s="125"/>
+      <c r="H189" s="125"/>
+      <c r="I189" s="125"/>
+      <c r="J189" s="125"/>
+      <c r="K189" s="125"/>
+      <c r="L189" s="125"/>
+      <c r="M189" s="125"/>
+      <c r="N189" s="125"/>
+      <c r="O189" s="125"/>
+      <c r="P189" s="125"/>
+      <c r="Q189" s="125"/>
+      <c r="R189" s="125"/>
       <c r="S189" s="88"/>
       <c r="T189" s="88"/>
       <c r="U189" s="88"/>
@@ -11576,7 +11562,7 @@
       <c r="Y189" s="88"/>
       <c r="Z189" s="88"/>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A190" s="74" t="s">
         <v>386</v>
       </c>
@@ -11656,7 +11642,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="191" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="76" t="s">
         <v>422</v>
       </c>
@@ -11725,7 +11711,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="192" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="76" t="s">
         <v>422</v>
       </c>
@@ -11780,7 +11766,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="193" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="76" t="s">
         <v>422</v>
       </c>
@@ -11790,7 +11776,7 @@
       </c>
       <c r="D193" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E193" s="77"/>
       <c r="F193" s="78">
@@ -11835,7 +11821,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="76" t="s">
         <v>422</v>
       </c>
@@ -11845,7 +11831,7 @@
       </c>
       <c r="D194" s="82" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-07</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E194" s="82"/>
       <c r="F194" s="82">
@@ -11890,27 +11876,27 @@
         <v>446</v>
       </c>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A196" s="123" t="s">
+    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A196" s="124" t="s">
         <v>477</v>
       </c>
-      <c r="B196" s="124"/>
-      <c r="C196" s="124"/>
-      <c r="D196" s="124"/>
-      <c r="E196" s="124"/>
-      <c r="F196" s="124"/>
-      <c r="G196" s="124"/>
-      <c r="H196" s="124"/>
-      <c r="I196" s="124"/>
-      <c r="J196" s="124"/>
-      <c r="K196" s="124"/>
-      <c r="L196" s="124"/>
-      <c r="M196" s="124"/>
-      <c r="N196" s="124"/>
-      <c r="O196" s="124"/>
-      <c r="P196" s="124"/>
-      <c r="Q196" s="124"/>
-      <c r="R196" s="124"/>
+      <c r="B196" s="125"/>
+      <c r="C196" s="125"/>
+      <c r="D196" s="125"/>
+      <c r="E196" s="125"/>
+      <c r="F196" s="125"/>
+      <c r="G196" s="125"/>
+      <c r="H196" s="125"/>
+      <c r="I196" s="125"/>
+      <c r="J196" s="125"/>
+      <c r="K196" s="125"/>
+      <c r="L196" s="125"/>
+      <c r="M196" s="125"/>
+      <c r="N196" s="125"/>
+      <c r="O196" s="125"/>
+      <c r="P196" s="125"/>
+      <c r="Q196" s="125"/>
+      <c r="R196" s="125"/>
       <c r="S196" s="89"/>
       <c r="T196" s="89"/>
       <c r="U196" s="89"/>
@@ -11920,7 +11906,7 @@
       <c r="Y196" s="89"/>
       <c r="Z196" s="89"/>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A197" s="74" t="s">
         <v>386</v>
       </c>
@@ -12000,7 +11986,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="198" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="76" t="s">
         <v>216</v>
       </c>
@@ -12066,27 +12052,27 @@
         <v>447</v>
       </c>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A200" s="123" t="s">
+    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A200" s="124" t="s">
         <v>477</v>
       </c>
-      <c r="B200" s="124"/>
-      <c r="C200" s="124"/>
-      <c r="D200" s="124"/>
-      <c r="E200" s="124"/>
-      <c r="F200" s="124"/>
-      <c r="G200" s="124"/>
-      <c r="H200" s="124"/>
-      <c r="I200" s="124"/>
-      <c r="J200" s="124"/>
-      <c r="K200" s="124"/>
-      <c r="L200" s="124"/>
-      <c r="M200" s="124"/>
-      <c r="N200" s="124"/>
-      <c r="O200" s="124"/>
-      <c r="P200" s="124"/>
-      <c r="Q200" s="124"/>
-      <c r="R200" s="124"/>
+      <c r="B200" s="125"/>
+      <c r="C200" s="125"/>
+      <c r="D200" s="125"/>
+      <c r="E200" s="125"/>
+      <c r="F200" s="125"/>
+      <c r="G200" s="125"/>
+      <c r="H200" s="125"/>
+      <c r="I200" s="125"/>
+      <c r="J200" s="125"/>
+      <c r="K200" s="125"/>
+      <c r="L200" s="125"/>
+      <c r="M200" s="125"/>
+      <c r="N200" s="125"/>
+      <c r="O200" s="125"/>
+      <c r="P200" s="125"/>
+      <c r="Q200" s="125"/>
+      <c r="R200" s="125"/>
       <c r="S200" s="91"/>
       <c r="T200" s="91"/>
       <c r="U200" s="91"/>
@@ -12096,7 +12082,7 @@
       <c r="Y200" s="91"/>
       <c r="Z200" s="91"/>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A201" s="74" t="s">
         <v>386</v>
       </c>
@@ -12176,7 +12162,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="202" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="76" t="s">
         <v>194</v>
       </c>
@@ -12246,7 +12232,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="203" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="76" t="s">
         <v>194</v>
       </c>
@@ -12256,7 +12242,7 @@
       </c>
       <c r="D203" s="78" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E203" s="77"/>
       <c r="F203" s="78">
@@ -12301,7 +12287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="76" t="s">
         <v>194</v>
       </c>
@@ -12311,7 +12297,7 @@
       </c>
       <c r="D204" s="82" t="str">
         <f ca="1">TEXT(TODAY()+70,"YYYY-MM-DD")</f>
-        <v>2023-10-17</v>
+        <v>2023-10-20</v>
       </c>
       <c r="E204" s="82"/>
       <c r="F204" s="82">
@@ -12356,14 +12342,14 @@
         <v>501</v>
       </c>
     </row>
-    <row r="206" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A206" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B206" s="44"/>
       <c r="C206" s="44"/>
     </row>
-    <row r="207" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A207" s="42" t="s">
         <v>364</v>
       </c>
@@ -12401,7 +12387,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="208" spans="1:47" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:47" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="69" t="s">
         <v>371</v>
       </c>
@@ -12423,7 +12409,7 @@
       <c r="I208" s="70"/>
       <c r="J208" s="71">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="K208" s="71">
         <v>234</v>
@@ -12432,14 +12418,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B210" s="44"/>
       <c r="C210" s="44"/>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="42" t="s">
         <v>364</v>
       </c>
@@ -12477,7 +12463,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="69" t="s">
         <v>371</v>
       </c>
@@ -12499,7 +12485,7 @@
       <c r="I212" s="70"/>
       <c r="J212" s="71">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="K212" s="71">
         <v>234</v>
@@ -12508,77 +12494,77 @@
         <v>155</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="125" t="s">
+    <row r="214" spans="1:26" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="128" t="s">
         <v>351</v>
       </c>
-      <c r="B214" s="126"/>
-      <c r="C214" s="126"/>
-      <c r="D214" s="126"/>
-      <c r="E214" s="126"/>
-      <c r="F214" s="126"/>
-      <c r="G214" s="126"/>
-      <c r="H214" s="126"/>
-      <c r="I214" s="126"/>
-      <c r="J214" s="126"/>
-      <c r="K214" s="126"/>
-      <c r="L214" s="126"/>
-    </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A215" s="138" t="s">
+      <c r="B214" s="129"/>
+      <c r="C214" s="129"/>
+      <c r="D214" s="129"/>
+      <c r="E214" s="129"/>
+      <c r="F214" s="129"/>
+      <c r="G214" s="129"/>
+      <c r="H214" s="129"/>
+      <c r="I214" s="129"/>
+      <c r="J214" s="129"/>
+      <c r="K214" s="129"/>
+      <c r="L214" s="129"/>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A215" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="B215" s="138" t="s">
+      <c r="B215" s="133" t="s">
         <v>352</v>
       </c>
-      <c r="C215" s="141" t="s">
+      <c r="C215" s="148" t="s">
         <v>353</v>
       </c>
-      <c r="D215" s="144" t="s">
+      <c r="D215" s="151" t="s">
         <v>354</v>
       </c>
-      <c r="E215" s="147" t="s">
+      <c r="E215" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="F215" s="147"/>
-      <c r="G215" s="147"/>
-      <c r="H215" s="147"/>
-      <c r="I215" s="148" t="s">
+      <c r="F215" s="154"/>
+      <c r="G215" s="154"/>
+      <c r="H215" s="154"/>
+      <c r="I215" s="155" t="s">
         <v>355</v>
       </c>
-      <c r="J215" s="148"/>
-      <c r="K215" s="148"/>
-      <c r="L215" s="148"/>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A216" s="139"/>
-      <c r="B216" s="139"/>
-      <c r="C216" s="142"/>
-      <c r="D216" s="145"/>
-      <c r="E216" s="130" t="s">
+      <c r="J215" s="155"/>
+      <c r="K215" s="155"/>
+      <c r="L215" s="155"/>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A216" s="134"/>
+      <c r="B216" s="134"/>
+      <c r="C216" s="149"/>
+      <c r="D216" s="152"/>
+      <c r="E216" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="F216" s="132"/>
-      <c r="G216" s="133" t="s">
+      <c r="F216" s="140"/>
+      <c r="G216" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H216" s="135"/>
-      <c r="I216" s="130" t="s">
+      <c r="H216" s="142"/>
+      <c r="I216" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="J216" s="132"/>
-      <c r="K216" s="133" t="s">
+      <c r="J216" s="140"/>
+      <c r="K216" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="L216" s="135"/>
-    </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A217" s="140"/>
-      <c r="B217" s="140" t="s">
+      <c r="L216" s="142"/>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A217" s="135"/>
+      <c r="B217" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C217" s="143"/>
-      <c r="D217" s="146"/>
+      <c r="C217" s="150"/>
+      <c r="D217" s="153"/>
       <c r="E217" s="62" t="s">
         <v>357</v>
       </c>
@@ -12604,7 +12590,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="30" t="str">
         <f>C5&amp;",IND"</f>
         <v>DEAL_PERSON_CH1_001,IND</v>
@@ -12652,62 +12638,62 @@
         <v>$0.00</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A220" s="125" t="s">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A220" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="B220" s="126"/>
-      <c r="C220" s="126"/>
-      <c r="D220" s="126"/>
-      <c r="E220" s="126"/>
-      <c r="F220" s="126"/>
-      <c r="G220" s="126"/>
-      <c r="H220" s="126"/>
-      <c r="I220" s="126"/>
-      <c r="J220" s="126"/>
-    </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B220" s="129"/>
+      <c r="C220" s="129"/>
+      <c r="D220" s="129"/>
+      <c r="E220" s="129"/>
+      <c r="F220" s="129"/>
+      <c r="G220" s="129"/>
+      <c r="H220" s="129"/>
+      <c r="I220" s="129"/>
+      <c r="J220" s="129"/>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="97"/>
       <c r="B221" s="98"/>
-      <c r="C221" s="127" t="s">
+      <c r="C221" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D221" s="127"/>
-      <c r="E221" s="127"/>
-      <c r="F221" s="127"/>
-      <c r="G221" s="127"/>
-      <c r="H221" s="127"/>
-      <c r="I221" s="127"/>
-      <c r="J221" s="127"/>
-      <c r="K221" s="127"/>
+      <c r="D221" s="130"/>
+      <c r="E221" s="130"/>
+      <c r="F221" s="130"/>
+      <c r="G221" s="130"/>
+      <c r="H221" s="130"/>
+      <c r="I221" s="130"/>
+      <c r="J221" s="130"/>
+      <c r="K221" s="130"/>
       <c r="Z221" s="67"/>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A222" s="128" t="s">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A222" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="B222" s="128" t="s">
+      <c r="B222" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C222" s="130" t="s">
+      <c r="C222" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="D222" s="131"/>
-      <c r="E222" s="131"/>
-      <c r="F222" s="132"/>
-      <c r="G222" s="133" t="s">
+      <c r="D222" s="139"/>
+      <c r="E222" s="139"/>
+      <c r="F222" s="140"/>
+      <c r="G222" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H222" s="134"/>
-      <c r="I222" s="134"/>
-      <c r="J222" s="135"/>
-      <c r="K222" s="136" t="s">
+      <c r="H222" s="143"/>
+      <c r="I222" s="143"/>
+      <c r="J222" s="142"/>
+      <c r="K222" s="131" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A223" s="129"/>
-      <c r="B223" s="129"/>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A223" s="137"/>
+      <c r="B223" s="137"/>
       <c r="C223" s="62" t="s">
         <v>345</v>
       </c>
@@ -12732,9 +12718,9 @@
       <c r="J223" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K223" s="137"/>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K223" s="132"/>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="54" t="s">
         <v>349</v>
       </c>
@@ -12776,14 +12762,14 @@
         <v>65518.91</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B226" s="44"/>
       <c r="C226" s="44"/>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="42" t="s">
         <v>364</v>
       </c>
@@ -12821,7 +12807,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A228" s="69" t="s">
         <v>449</v>
       </c>
@@ -12843,7 +12829,7 @@
       <c r="I228" s="70"/>
       <c r="J228" s="71">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="K228" s="71">
         <v>234</v>
@@ -12852,72 +12838,72 @@
         <v>155</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A230" s="125" t="s">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A230" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="B230" s="126"/>
-      <c r="C230" s="126"/>
-      <c r="D230" s="126"/>
-      <c r="E230" s="126"/>
-      <c r="F230" s="126"/>
-      <c r="G230" s="126"/>
-      <c r="H230" s="126"/>
-      <c r="I230" s="126"/>
-      <c r="J230" s="126"/>
-    </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B230" s="129"/>
+      <c r="C230" s="129"/>
+      <c r="D230" s="129"/>
+      <c r="E230" s="129"/>
+      <c r="F230" s="129"/>
+      <c r="G230" s="129"/>
+      <c r="H230" s="129"/>
+      <c r="I230" s="129"/>
+      <c r="J230" s="129"/>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="99"/>
       <c r="B231" s="100"/>
-      <c r="C231" s="127" t="s">
+      <c r="C231" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D231" s="127"/>
-      <c r="E231" s="127"/>
-      <c r="F231" s="127"/>
-      <c r="G231" s="127"/>
-      <c r="H231" s="127"/>
-      <c r="I231" s="127"/>
-      <c r="J231" s="127"/>
-      <c r="K231" s="127"/>
-      <c r="L231" s="157" t="s">
+      <c r="D231" s="130"/>
+      <c r="E231" s="130"/>
+      <c r="F231" s="130"/>
+      <c r="G231" s="130"/>
+      <c r="H231" s="130"/>
+      <c r="I231" s="130"/>
+      <c r="J231" s="130"/>
+      <c r="K231" s="130"/>
+      <c r="L231" s="126" t="s">
         <v>430</v>
       </c>
-      <c r="M231" s="158"/>
-      <c r="N231" s="158"/>
+      <c r="M231" s="127"/>
+      <c r="N231" s="127"/>
       <c r="Z231" s="67"/>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A232" s="128" t="s">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A232" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="B232" s="128" t="s">
+      <c r="B232" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C232" s="130" t="s">
+      <c r="C232" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="D232" s="131"/>
-      <c r="E232" s="131"/>
-      <c r="F232" s="132"/>
-      <c r="G232" s="133" t="s">
+      <c r="D232" s="139"/>
+      <c r="E232" s="139"/>
+      <c r="F232" s="140"/>
+      <c r="G232" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H232" s="134"/>
-      <c r="I232" s="134"/>
-      <c r="J232" s="135"/>
-      <c r="K232" s="136" t="s">
+      <c r="H232" s="143"/>
+      <c r="I232" s="143"/>
+      <c r="J232" s="142"/>
+      <c r="K232" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="L232" s="157" t="s">
+      <c r="L232" s="126" t="s">
         <v>338</v>
       </c>
-      <c r="M232" s="158"/>
-      <c r="N232" s="159"/>
-    </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A233" s="129"/>
-      <c r="B233" s="129"/>
+      <c r="M232" s="127"/>
+      <c r="N232" s="144"/>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A233" s="137"/>
+      <c r="B233" s="137"/>
       <c r="C233" s="62" t="s">
         <v>345</v>
       </c>
@@ -12942,7 +12928,7 @@
       <c r="J233" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K233" s="137"/>
+      <c r="K233" s="132"/>
       <c r="L233" s="90" t="s">
         <v>345</v>
       </c>
@@ -12953,7 +12939,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="54" t="s">
         <v>349</v>
       </c>
@@ -13007,72 +12993,72 @@
         <v>99.97</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A236" s="125" t="s">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A236" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="B236" s="126"/>
-      <c r="C236" s="126"/>
-      <c r="D236" s="126"/>
-      <c r="E236" s="126"/>
-      <c r="F236" s="126"/>
-      <c r="G236" s="126"/>
-      <c r="H236" s="126"/>
-      <c r="I236" s="126"/>
-      <c r="J236" s="126"/>
-    </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B236" s="129"/>
+      <c r="C236" s="129"/>
+      <c r="D236" s="129"/>
+      <c r="E236" s="129"/>
+      <c r="F236" s="129"/>
+      <c r="G236" s="129"/>
+      <c r="H236" s="129"/>
+      <c r="I236" s="129"/>
+      <c r="J236" s="129"/>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="101"/>
       <c r="B237" s="102"/>
-      <c r="C237" s="127" t="s">
+      <c r="C237" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D237" s="127"/>
-      <c r="E237" s="127"/>
-      <c r="F237" s="127"/>
-      <c r="G237" s="127"/>
-      <c r="H237" s="127"/>
-      <c r="I237" s="127"/>
-      <c r="J237" s="127"/>
-      <c r="K237" s="127"/>
-      <c r="L237" s="157" t="s">
+      <c r="D237" s="130"/>
+      <c r="E237" s="130"/>
+      <c r="F237" s="130"/>
+      <c r="G237" s="130"/>
+      <c r="H237" s="130"/>
+      <c r="I237" s="130"/>
+      <c r="J237" s="130"/>
+      <c r="K237" s="130"/>
+      <c r="L237" s="126" t="s">
         <v>430</v>
       </c>
-      <c r="M237" s="158"/>
-      <c r="N237" s="158"/>
+      <c r="M237" s="127"/>
+      <c r="N237" s="127"/>
       <c r="Z237" s="67"/>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A238" s="128" t="s">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A238" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="B238" s="128" t="s">
+      <c r="B238" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C238" s="130" t="s">
+      <c r="C238" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="D238" s="131"/>
-      <c r="E238" s="131"/>
-      <c r="F238" s="132"/>
-      <c r="G238" s="133" t="s">
+      <c r="D238" s="139"/>
+      <c r="E238" s="139"/>
+      <c r="F238" s="140"/>
+      <c r="G238" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H238" s="134"/>
-      <c r="I238" s="134"/>
-      <c r="J238" s="135"/>
-      <c r="K238" s="136" t="s">
+      <c r="H238" s="143"/>
+      <c r="I238" s="143"/>
+      <c r="J238" s="142"/>
+      <c r="K238" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="L238" s="157" t="s">
+      <c r="L238" s="126" t="s">
         <v>338</v>
       </c>
-      <c r="M238" s="158"/>
-      <c r="N238" s="159"/>
-    </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A239" s="129"/>
-      <c r="B239" s="129"/>
+      <c r="M238" s="127"/>
+      <c r="N238" s="144"/>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A239" s="137"/>
+      <c r="B239" s="137"/>
       <c r="C239" s="62" t="s">
         <v>345</v>
       </c>
@@ -13097,7 +13083,7 @@
       <c r="J239" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K239" s="137"/>
+      <c r="K239" s="132"/>
       <c r="L239" s="90" t="s">
         <v>345</v>
       </c>
@@ -13108,7 +13094,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="54" t="s">
         <v>349</v>
       </c>
@@ -13162,27 +13148,27 @@
         <v>99.97</v>
       </c>
     </row>
-    <row r="242" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A242" s="123" t="s">
+    <row r="242" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A242" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="B242" s="124"/>
-      <c r="C242" s="124"/>
-      <c r="D242" s="124"/>
-      <c r="E242" s="124"/>
-      <c r="F242" s="124"/>
-      <c r="G242" s="124"/>
-      <c r="H242" s="124"/>
-      <c r="I242" s="124"/>
-      <c r="J242" s="124"/>
-      <c r="K242" s="124"/>
-      <c r="L242" s="124"/>
-      <c r="M242" s="124"/>
-      <c r="N242" s="124"/>
-      <c r="O242" s="124"/>
-      <c r="P242" s="124"/>
-      <c r="Q242" s="124"/>
-      <c r="R242" s="124"/>
+      <c r="B242" s="125"/>
+      <c r="C242" s="125"/>
+      <c r="D242" s="125"/>
+      <c r="E242" s="125"/>
+      <c r="F242" s="125"/>
+      <c r="G242" s="125"/>
+      <c r="H242" s="125"/>
+      <c r="I242" s="125"/>
+      <c r="J242" s="125"/>
+      <c r="K242" s="125"/>
+      <c r="L242" s="125"/>
+      <c r="M242" s="125"/>
+      <c r="N242" s="125"/>
+      <c r="O242" s="125"/>
+      <c r="P242" s="125"/>
+      <c r="Q242" s="125"/>
+      <c r="R242" s="125"/>
       <c r="S242" s="105"/>
       <c r="T242" s="105"/>
       <c r="U242" s="105"/>
@@ -13192,7 +13178,7 @@
       <c r="Y242" s="105"/>
       <c r="Z242" s="105"/>
     </row>
-    <row r="243" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A243" s="74" t="s">
         <v>386</v>
       </c>
@@ -13272,7 +13258,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="244" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A244" s="106" t="s">
         <v>494</v>
       </c>
@@ -13310,7 +13296,7 @@
       <c r="Y244" s="106"/>
       <c r="Z244" s="106"/>
     </row>
-    <row r="245" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A245" s="106" t="s">
         <v>495</v>
       </c>
@@ -13348,7 +13334,7 @@
       <c r="Y245" s="106"/>
       <c r="Z245" s="106"/>
     </row>
-    <row r="246" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="76" t="s">
         <v>463</v>
       </c>
@@ -13410,7 +13396,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="247" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="76" t="s">
         <v>222</v>
       </c>
@@ -13468,7 +13454,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="248" spans="1:47" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="76" t="s">
         <v>222</v>
       </c>
@@ -13523,14 +13509,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="250" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A250" s="43" t="s">
         <v>479</v>
       </c>
       <c r="B250" s="44"/>
       <c r="C250" s="44"/>
     </row>
-    <row r="251" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A251" s="42" t="s">
         <v>183</v>
       </c>
@@ -13541,27 +13527,27 @@
         <v>481</v>
       </c>
     </row>
-    <row r="252" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A252" s="71" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="B252" s="103" t="str">
         <f ca="1">TEXT(TODAY()+75,"YYYY-MM-DD")</f>
-        <v>2023-10-22</v>
+        <v>2023-10-25</v>
       </c>
       <c r="C252" s="70" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="254" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A254" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B254" s="44"/>
       <c r="C254" s="44"/>
     </row>
-    <row r="255" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A255" s="42" t="s">
         <v>364</v>
       </c>
@@ -13599,7 +13585,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="256" spans="1:47" ht="58" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:47" ht="75" x14ac:dyDescent="0.25">
       <c r="A256" s="69" t="s">
         <v>449</v>
       </c>
@@ -13621,7 +13607,7 @@
       <c r="I256" s="70"/>
       <c r="J256" s="71">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="K256" s="71">
         <v>234</v>
@@ -13630,77 +13616,77 @@
         <v>155</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="125" t="s">
+    <row r="258" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="128" t="s">
         <v>351</v>
       </c>
-      <c r="B258" s="126"/>
-      <c r="C258" s="126"/>
-      <c r="D258" s="126"/>
-      <c r="E258" s="126"/>
-      <c r="F258" s="126"/>
-      <c r="G258" s="126"/>
-      <c r="H258" s="126"/>
-      <c r="I258" s="126"/>
-      <c r="J258" s="126"/>
-      <c r="K258" s="126"/>
-      <c r="L258" s="126"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A259" s="138" t="s">
+      <c r="B258" s="129"/>
+      <c r="C258" s="129"/>
+      <c r="D258" s="129"/>
+      <c r="E258" s="129"/>
+      <c r="F258" s="129"/>
+      <c r="G258" s="129"/>
+      <c r="H258" s="129"/>
+      <c r="I258" s="129"/>
+      <c r="J258" s="129"/>
+      <c r="K258" s="129"/>
+      <c r="L258" s="129"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="B259" s="138" t="s">
+      <c r="B259" s="133" t="s">
         <v>352</v>
       </c>
-      <c r="C259" s="141" t="s">
+      <c r="C259" s="148" t="s">
         <v>353</v>
       </c>
-      <c r="D259" s="144" t="s">
+      <c r="D259" s="151" t="s">
         <v>354</v>
       </c>
-      <c r="E259" s="147" t="s">
+      <c r="E259" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="F259" s="147"/>
-      <c r="G259" s="147"/>
-      <c r="H259" s="147"/>
-      <c r="I259" s="148" t="s">
+      <c r="F259" s="154"/>
+      <c r="G259" s="154"/>
+      <c r="H259" s="154"/>
+      <c r="I259" s="155" t="s">
         <v>355</v>
       </c>
-      <c r="J259" s="148"/>
-      <c r="K259" s="148"/>
-      <c r="L259" s="148"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A260" s="139"/>
-      <c r="B260" s="139"/>
-      <c r="C260" s="142"/>
-      <c r="D260" s="145"/>
-      <c r="E260" s="130" t="s">
+      <c r="J259" s="155"/>
+      <c r="K259" s="155"/>
+      <c r="L259" s="155"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="134"/>
+      <c r="B260" s="134"/>
+      <c r="C260" s="149"/>
+      <c r="D260" s="152"/>
+      <c r="E260" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="F260" s="132"/>
-      <c r="G260" s="133" t="s">
+      <c r="F260" s="140"/>
+      <c r="G260" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H260" s="135"/>
-      <c r="I260" s="130" t="s">
+      <c r="H260" s="142"/>
+      <c r="I260" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="J260" s="132"/>
-      <c r="K260" s="133" t="s">
+      <c r="J260" s="140"/>
+      <c r="K260" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="L260" s="135"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A261" s="140"/>
-      <c r="B261" s="140" t="s">
+      <c r="L260" s="142"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="135"/>
+      <c r="B261" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C261" s="143"/>
-      <c r="D261" s="146"/>
+      <c r="C261" s="150"/>
+      <c r="D261" s="153"/>
       <c r="E261" s="62" t="s">
         <v>357</v>
       </c>
@@ -13713,10 +13699,10 @@
       <c r="H261" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="I261" s="130" t="s">
+      <c r="I261" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="J261" s="132" t="s">
+      <c r="J261" s="140" t="s">
         <v>358</v>
       </c>
       <c r="K261" s="63" t="s">
@@ -13726,7 +13712,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="30" t="str">
         <f>C5&amp;",IND"</f>
         <v>DEAL_PERSON_CH1_001,IND</v>
@@ -13774,14 +13760,14 @@
         <v>$0.00</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B264" s="44"/>
       <c r="C264" s="44"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="42" t="s">
         <v>364</v>
       </c>
@@ -13819,7 +13805,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A266" s="69" t="s">
         <v>449</v>
       </c>
@@ -13841,7 +13827,7 @@
       <c r="I266" s="70"/>
       <c r="J266" s="71">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="K266" s="71">
         <v>234</v>
@@ -13850,14 +13836,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="43" t="s">
         <v>364</v>
       </c>
       <c r="B268" s="44"/>
       <c r="C268" s="44"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="42" t="s">
         <v>364</v>
       </c>
@@ -13895,7 +13881,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A270" s="69" t="s">
         <v>449</v>
       </c>
@@ -13917,7 +13903,7 @@
       <c r="I270" s="70"/>
       <c r="J270" s="71">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="K270" s="71">
         <v>234</v>
@@ -13926,62 +13912,62 @@
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A272" s="125" t="s">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="B272" s="126"/>
-      <c r="C272" s="126"/>
-      <c r="D272" s="126"/>
-      <c r="E272" s="126"/>
-      <c r="F272" s="126"/>
-      <c r="G272" s="126"/>
-      <c r="H272" s="126"/>
-      <c r="I272" s="126"/>
-      <c r="J272" s="126"/>
-    </row>
-    <row r="273" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="B272" s="129"/>
+      <c r="C272" s="129"/>
+      <c r="D272" s="129"/>
+      <c r="E272" s="129"/>
+      <c r="F272" s="129"/>
+      <c r="G272" s="129"/>
+      <c r="H272" s="129"/>
+      <c r="I272" s="129"/>
+      <c r="J272" s="129"/>
+    </row>
+    <row r="273" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A273" s="104"/>
       <c r="B273" s="105"/>
-      <c r="C273" s="127" t="s">
+      <c r="C273" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D273" s="127"/>
-      <c r="E273" s="127"/>
-      <c r="F273" s="127"/>
-      <c r="G273" s="127"/>
-      <c r="H273" s="127"/>
-      <c r="I273" s="127"/>
-      <c r="J273" s="127"/>
-      <c r="K273" s="127"/>
+      <c r="D273" s="130"/>
+      <c r="E273" s="130"/>
+      <c r="F273" s="130"/>
+      <c r="G273" s="130"/>
+      <c r="H273" s="130"/>
+      <c r="I273" s="130"/>
+      <c r="J273" s="130"/>
+      <c r="K273" s="130"/>
       <c r="Z273" s="67"/>
     </row>
-    <row r="274" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A274" s="128" t="s">
+    <row r="274" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A274" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="B274" s="128" t="s">
+      <c r="B274" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="C274" s="130" t="s">
+      <c r="C274" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="D274" s="131"/>
-      <c r="E274" s="131"/>
-      <c r="F274" s="132"/>
-      <c r="G274" s="133" t="s">
+      <c r="D274" s="139"/>
+      <c r="E274" s="139"/>
+      <c r="F274" s="140"/>
+      <c r="G274" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="H274" s="134"/>
-      <c r="I274" s="134"/>
-      <c r="J274" s="135"/>
-      <c r="K274" s="136" t="s">
+      <c r="H274" s="143"/>
+      <c r="I274" s="143"/>
+      <c r="J274" s="142"/>
+      <c r="K274" s="131" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="275" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A275" s="129"/>
-      <c r="B275" s="129"/>
+    <row r="275" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="A275" s="137"/>
+      <c r="B275" s="137"/>
       <c r="C275" s="62" t="s">
         <v>345</v>
       </c>
@@ -14006,9 +13992,9 @@
       <c r="J275" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="K275" s="137"/>
-    </row>
-    <row r="276" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="K275" s="132"/>
+    </row>
+    <row r="276" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A276" s="54" t="s">
         <v>349</v>
       </c>
@@ -14050,7 +14036,7 @@
         <v>693.78</v>
       </c>
     </row>
-    <row r="278" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A278" s="43" t="s">
         <v>466</v>
       </c>
@@ -14089,7 +14075,7 @@
       <c r="AH278" s="44"/>
       <c r="AI278" s="44"/>
     </row>
-    <row r="279" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A279" s="45" t="s">
         <v>274</v>
       </c>
@@ -14147,33 +14133,33 @@
       <c r="S279" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="T279" s="149" t="s">
+      <c r="T279" s="118" t="s">
         <v>293</v>
       </c>
-      <c r="U279" s="150"/>
-      <c r="V279" s="151"/>
-      <c r="W279" s="149" t="s">
+      <c r="U279" s="119"/>
+      <c r="V279" s="120"/>
+      <c r="W279" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="X279" s="151"/>
+      <c r="X279" s="120"/>
       <c r="Y279" s="109"/>
-      <c r="Z279" s="118" t="s">
+      <c r="Z279" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AA279" s="119"/>
-      <c r="AB279" s="119"/>
-      <c r="AC279" s="119"/>
-      <c r="AD279" s="119"/>
-      <c r="AE279" s="119"/>
-      <c r="AF279" s="120"/>
-      <c r="AG279" s="118" t="s">
+      <c r="AA279" s="122"/>
+      <c r="AB279" s="122"/>
+      <c r="AC279" s="122"/>
+      <c r="AD279" s="122"/>
+      <c r="AE279" s="122"/>
+      <c r="AF279" s="123"/>
+      <c r="AG279" s="121" t="s">
         <v>296</v>
       </c>
-      <c r="AH279" s="119"/>
-      <c r="AI279" s="119"/>
-      <c r="AJ279" s="119"/>
-      <c r="AK279" s="119"/>
-      <c r="AL279" s="120"/>
+      <c r="AH279" s="122"/>
+      <c r="AI279" s="122"/>
+      <c r="AJ279" s="122"/>
+      <c r="AK279" s="122"/>
+      <c r="AL279" s="123"/>
       <c r="AM279" s="48"/>
       <c r="AN279" s="49"/>
       <c r="AO279" s="49"/>
@@ -14213,7 +14199,7 @@
       <c r="BY279" s="50"/>
       <c r="BZ279" s="50"/>
     </row>
-    <row r="280" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A280" s="51"/>
       <c r="B280" s="51"/>
       <c r="C280" s="51"/>
@@ -14337,7 +14323,7 @@
       <c r="BY280" s="50"/>
       <c r="BZ280" s="50"/>
     </row>
-    <row r="281" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A281" s="54" t="s">
         <v>319</v>
       </c>
@@ -14359,11 +14345,11 @@
       </c>
       <c r="G281" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-25</v>
       </c>
       <c r="H281" s="41" t="str">
         <f ca="1">TEXT(TODAY()-190,"YYYY-MM-DD")</f>
-        <v>2023-01-30</v>
+        <v>2023-02-02</v>
       </c>
       <c r="I281" s="54"/>
       <c r="J281" s="54">
@@ -14484,7 +14470,7 @@
       <c r="BY281" s="50"/>
       <c r="BZ281" s="50"/>
     </row>
-    <row r="283" spans="1:78" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:78" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A283" s="115" t="s">
         <v>237</v>
       </c>
@@ -14498,7 +14484,7 @@
       <c r="I283" s="117"/>
       <c r="Y283" s="112"/>
     </row>
-    <row r="284" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="25" t="s">
         <v>131</v>
       </c>
@@ -14545,7 +14531,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="285" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A285" s="113" t="s">
         <v>537</v>
       </c>
@@ -14567,11 +14553,11 @@
       <c r="I285" s="31"/>
       <c r="J285" s="110" t="str">
         <f ca="1">TEXT(TODAY()-241,"DD-MMM-YY")</f>
-        <v>10-Dec-22</v>
+        <v>13-Dec-22</v>
       </c>
       <c r="K285" s="110" t="str">
         <f ca="1">TEXT(TODAY()-211,"DD-MMM-YY")</f>
-        <v>09-Jan-23</v>
+        <v>12-Jan-23</v>
       </c>
       <c r="L285" s="32" t="s">
         <v>168</v>
@@ -14586,7 +14572,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="286" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A286" s="113" t="s">
         <v>537</v>
       </c>
@@ -14608,11 +14594,11 @@
       <c r="I286" s="31"/>
       <c r="J286" s="110" t="str">
         <f ca="1">TEXT(TODAY()-241,"DD-MMM-YY")</f>
-        <v>10-Dec-22</v>
+        <v>13-Dec-22</v>
       </c>
       <c r="K286" s="110" t="str">
         <f ca="1">TEXT(TODAY()-211,"DD-MMM-YY")</f>
-        <v>09-Jan-23</v>
+        <v>12-Jan-23</v>
       </c>
       <c r="L286" s="32" t="s">
         <v>168</v>
@@ -14627,7 +14613,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="288" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
         <v>432</v>
       </c>
@@ -14649,11 +14635,11 @@
       <c r="I288" s="31"/>
       <c r="J288" s="110" t="str">
         <f ca="1">TEXT(TODAY()-60,"MM-DD-YYYY")</f>
-        <v>06-09-2023</v>
+        <v>06-12-2023</v>
       </c>
       <c r="K288" s="110" t="str">
         <f ca="1">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>07-09-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="L288" s="32" t="s">
         <v>168</v>
@@ -14662,13 +14648,13 @@
         <v>12</v>
       </c>
       <c r="N288" s="114" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="O288" s="32" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="28" t="s">
         <v>432</v>
       </c>
@@ -14690,11 +14676,11 @@
       <c r="I289" s="31"/>
       <c r="J289" s="110" t="str">
         <f ca="1">TEXT(TODAY()-90,"MM-DD-YYYY")</f>
-        <v>05-10-2023</v>
+        <v>05-13-2023</v>
       </c>
       <c r="K289" s="110" t="str">
         <f ca="1">TEXT(TODAY()-61,"MM-DD-YYYY")</f>
-        <v>06-08-2023</v>
+        <v>06-11-2023</v>
       </c>
       <c r="L289" s="32" t="s">
         <v>168</v>
@@ -14703,13 +14689,13 @@
         <v>13</v>
       </c>
       <c r="N289" s="114" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="O289" s="32" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="28" t="s">
         <v>432</v>
       </c>
@@ -14731,11 +14717,11 @@
       <c r="I290" s="31"/>
       <c r="J290" s="110" t="str">
         <f ca="1">TEXT(TODAY()-120,"MM-DD-YYYY")</f>
-        <v>04-10-2023</v>
+        <v>04-13-2023</v>
       </c>
       <c r="K290" s="110" t="str">
         <f ca="1">TEXT(TODAY()-91,"MM-DD-YYYY")</f>
-        <v>05-09-2023</v>
+        <v>05-12-2023</v>
       </c>
       <c r="L290" s="32" t="s">
         <v>168</v>
@@ -14744,13 +14730,13 @@
         <v>6</v>
       </c>
       <c r="N290" s="114" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="O290" s="32" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
         <v>432</v>
       </c>
@@ -14780,11 +14766,11 @@
       </c>
       <c r="J291" s="110" t="str">
         <f ca="1">TEXT(TODAY()-150,"MM-DD-YYYY")</f>
-        <v>03-11-2023</v>
+        <v>03-14-2023</v>
       </c>
       <c r="K291" s="110" t="str">
         <f ca="1">TEXT(TODAY()-121,"MM-DD-YYYY")</f>
-        <v>04-09-2023</v>
+        <v>04-12-2023</v>
       </c>
       <c r="L291" s="32" t="s">
         <v>168</v>
@@ -14793,13 +14779,13 @@
         <v>7</v>
       </c>
       <c r="N291" s="114" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="O291" s="32" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
         <v>432</v>
       </c>
@@ -14829,11 +14815,11 @@
       </c>
       <c r="J292" s="110" t="str">
         <f ca="1">TEXT(TODAY()-180,"MM-DD-YYYY")</f>
-        <v>02-09-2023</v>
+        <v>02-12-2023</v>
       </c>
       <c r="K292" s="110" t="str">
         <f ca="1">TEXT(TODAY()-151,"MM-DD-YYYY")</f>
-        <v>03-10-2023</v>
+        <v>03-13-2023</v>
       </c>
       <c r="L292" s="32" t="s">
         <v>168</v>
@@ -14842,13 +14828,13 @@
         <v>10</v>
       </c>
       <c r="N292" s="114" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="O292" s="32" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A415" s="115" t="s">
         <v>237</v>
       </c>
@@ -14861,7 +14847,7 @@
       <c r="H415" s="116"/>
       <c r="I415" s="117"/>
     </row>
-    <row r="416" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="25" t="s">
         <v>131</v>
       </c>
@@ -14908,7 +14894,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="28" t="s">
         <v>432</v>
       </c>
@@ -14932,11 +14918,11 @@
       <c r="I417" s="31"/>
       <c r="J417" s="41" t="str">
         <f ca="1">TEXT(TODAY()-60,"MM-DD-YYYY")</f>
-        <v>06-09-2023</v>
+        <v>06-12-2023</v>
       </c>
       <c r="K417" s="41" t="str">
         <f ca="1">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>07-09-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="L417" s="32" t="s">
         <v>168</v>
@@ -14951,7 +14937,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="28" t="s">
         <v>432</v>
       </c>
@@ -14975,11 +14961,11 @@
       <c r="I418" s="31"/>
       <c r="J418" s="41" t="str">
         <f ca="1">TEXT(TODAY()-90,"MM-DD-YYYY")</f>
-        <v>05-10-2023</v>
+        <v>05-13-2023</v>
       </c>
       <c r="K418" s="41" t="str">
         <f ca="1">TEXT(TODAY()-61,"MM-DD-YYYY")</f>
-        <v>06-08-2023</v>
+        <v>06-11-2023</v>
       </c>
       <c r="L418" s="32" t="s">
         <v>168</v>
@@ -14994,7 +14980,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="28" t="s">
         <v>432</v>
       </c>
@@ -15018,11 +15004,11 @@
       <c r="I419" s="31"/>
       <c r="J419" s="41" t="str">
         <f ca="1">TEXT(TODAY()-120,"MM-DD-YYYY")</f>
-        <v>04-10-2023</v>
+        <v>04-13-2023</v>
       </c>
       <c r="K419" s="41" t="str">
         <f ca="1">TEXT(TODAY()-91,"MM-DD-YYYY")</f>
-        <v>05-09-2023</v>
+        <v>05-12-2023</v>
       </c>
       <c r="L419" s="32" t="s">
         <v>168</v>
@@ -15037,7 +15023,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="28" t="s">
         <v>432</v>
       </c>
@@ -15069,11 +15055,11 @@
       </c>
       <c r="J420" s="41" t="str">
         <f ca="1">TEXT(TODAY()-150,"MM-DD-YYYY")</f>
-        <v>03-11-2023</v>
+        <v>03-14-2023</v>
       </c>
       <c r="K420" s="41" t="str">
         <f ca="1">TEXT(TODAY()-121,"MM-DD-YYYY")</f>
-        <v>04-09-2023</v>
+        <v>04-12-2023</v>
       </c>
       <c r="L420" s="32" t="s">
         <v>168</v>
@@ -15088,7 +15074,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="28" t="s">
         <v>432</v>
       </c>
@@ -15120,11 +15106,11 @@
       </c>
       <c r="J421" s="41" t="str">
         <f ca="1">TEXT(TODAY()-180,"MM-DD-YYYY")</f>
-        <v>02-09-2023</v>
+        <v>02-12-2023</v>
       </c>
       <c r="K421" s="41" t="str">
         <f ca="1">TEXT(TODAY()-151,"MM-DD-YYYY")</f>
-        <v>03-10-2023</v>
+        <v>03-13-2023</v>
       </c>
       <c r="L421" s="32" t="s">
         <v>168</v>
@@ -15141,6 +15127,122 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="A415:I415"/>
+    <mergeCell ref="AQ84:AS84"/>
+    <mergeCell ref="AT84:BB84"/>
+    <mergeCell ref="A242:R242"/>
+    <mergeCell ref="A272:J272"/>
+    <mergeCell ref="C273:K273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="C274:F274"/>
+    <mergeCell ref="G274:J274"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="D259:D261"/>
+    <mergeCell ref="E259:H259"/>
+    <mergeCell ref="I259:L259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="I260:J260"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="I261:J261"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C222:F222"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="E215:H215"/>
+    <mergeCell ref="I215:L215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="I216:J216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="AG84:AL84"/>
+    <mergeCell ref="T84:V84"/>
+    <mergeCell ref="W84:X84"/>
+    <mergeCell ref="Z84:AF84"/>
+    <mergeCell ref="A189:R189"/>
+    <mergeCell ref="A175:R175"/>
+    <mergeCell ref="A161:R161"/>
+    <mergeCell ref="A148:R148"/>
+    <mergeCell ref="E100:H100"/>
+    <mergeCell ref="A120:J120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W116:X116"/>
+    <mergeCell ref="Z116:AF116"/>
+    <mergeCell ref="AG116:AL116"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A168:R168"/>
+    <mergeCell ref="A154:R154"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="A126:L126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="G232:J232"/>
+    <mergeCell ref="K232:K233"/>
+    <mergeCell ref="L232:N232"/>
+    <mergeCell ref="A236:J236"/>
+    <mergeCell ref="C237:K237"/>
+    <mergeCell ref="L237:N237"/>
+    <mergeCell ref="G238:J238"/>
+    <mergeCell ref="K238:K239"/>
+    <mergeCell ref="L238:N238"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="A132:J132"/>
+    <mergeCell ref="C133:K133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="K134:K135"/>
     <mergeCell ref="A283:I283"/>
     <mergeCell ref="T279:V279"/>
     <mergeCell ref="W279:X279"/>
@@ -15165,122 +15267,6 @@
     <mergeCell ref="A232:A233"/>
     <mergeCell ref="B232:B233"/>
     <mergeCell ref="C232:F232"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="A132:J132"/>
-    <mergeCell ref="C133:K133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="G134:J134"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="G232:J232"/>
-    <mergeCell ref="K232:K233"/>
-    <mergeCell ref="L232:N232"/>
-    <mergeCell ref="A236:J236"/>
-    <mergeCell ref="C237:K237"/>
-    <mergeCell ref="L237:N237"/>
-    <mergeCell ref="G238:J238"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="L238:N238"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A168:R168"/>
-    <mergeCell ref="A154:R154"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="A126:L126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="AG84:AL84"/>
-    <mergeCell ref="T84:V84"/>
-    <mergeCell ref="W84:X84"/>
-    <mergeCell ref="Z84:AF84"/>
-    <mergeCell ref="A189:R189"/>
-    <mergeCell ref="A175:R175"/>
-    <mergeCell ref="A161:R161"/>
-    <mergeCell ref="A148:R148"/>
-    <mergeCell ref="E100:H100"/>
-    <mergeCell ref="A120:J120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W116:X116"/>
-    <mergeCell ref="Z116:AF116"/>
-    <mergeCell ref="AG116:AL116"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="A93:J93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="G222:J222"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="E215:H215"/>
-    <mergeCell ref="I215:L215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="I216:J216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="A415:I415"/>
-    <mergeCell ref="AQ84:AS84"/>
-    <mergeCell ref="AT84:BB84"/>
-    <mergeCell ref="A242:R242"/>
-    <mergeCell ref="A272:J272"/>
-    <mergeCell ref="C273:K273"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="C274:F274"/>
-    <mergeCell ref="G274:J274"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="D259:D261"/>
-    <mergeCell ref="E259:H259"/>
-    <mergeCell ref="I259:L259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="I260:J260"/>
-    <mergeCell ref="K260:L260"/>
-    <mergeCell ref="I261:J261"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="C222:F222"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C58 MFR184:MFR187 MZJ170:MZJ173 MZJ177:MZJ180 OCX202:OCX204 OMT202:OMT204 OWP202:OWP204 PGL202:PGL204 PQH202:PQH204 QAD202:QAD204 QJZ202:QJZ204 QTV202:QTV204 RDR202:RDR204 RNN202:RNN204 RXJ202:RXJ204 SHF202:SHF204 SRB202:SRB204 TAX202:TAX204 TKT202:TKT204 TUP202:TUP204 UEL202:UEL204 UOH202:UOH204 UYD202:UYD204 VHZ202:VHZ204 VRV202:VRV204 WBR202:WBR204 WLN202:WLN204 WVJ202:WVJ204 IX202:IX204 ST202:ST204 ACP202:ACP204 AML202:AML204 AWH202:AWH204 BGD202:BGD204 BPZ202:BPZ204 BZV202:BZV204 CJR202:CJR204 CTN202:CTN204 DDJ202:DDJ204 DNF202:DNF204 DXB202:DXB204 EGX202:EGX204 EQT202:EQT204 FAP202:FAP204 LCD202:LCD204 FKL202:FKL204 FUH202:FUH204 GED202:GED204 GNZ202:GNZ204 GXV202:GXV204 HHR202:HHR204 HRN202:HRN204 IBJ202:IBJ204 ILF202:ILF204 IVB202:IVB204 JEX202:JEX204 JOT202:JOT204 JYP202:JYP204 KIL202:KIL204 KSH202:KSH204 LLZ202:LLZ204 LVV202:LVV204 MFR202:MFR204 MPN202:MPN204 MZJ202:MZJ204 NJF202:NJF204 MPN191:MPN194 MZJ150:MZJ152 MPN150:MPN152 MFR150:MFR152 LVV150:LVV152 LLZ150:LLZ152 KSH150:KSH152 KIL150:KIL152 JYP150:JYP152 JOT150:JOT152 JEX150:JEX152 IVB150:IVB152 ILF150:ILF152 IBJ150:IBJ152 HRN150:HRN152 HHR150:HHR152 GXV150:GXV152 GNZ150:GNZ152 GED150:GED152 FUH150:FUH152 FKL150:FKL152 LCD150:LCD152 FAP150:FAP152 EQT150:EQT152 EGX150:EGX152 DXB150:DXB152 DNF150:DNF152 DDJ150:DDJ152 CTN150:CTN152 CJR150:CJR152 BZV150:BZV152 BPZ150:BPZ152 BGD150:BGD152 AWH150:AWH152 AML150:AML152 ACP150:ACP152 ST150:ST152 IX150:IX152 WVJ150:WVJ152 WLN150:WLN152 WBR150:WBR152 VRV150:VRV152 VHZ150:VHZ152 UYD150:UYD152 UOH150:UOH152 UEL150:UEL152 TUP150:TUP152 TKT150:TKT152 TAX150:TAX152 SRB150:SRB152 SHF150:SHF152 RXJ150:RXJ152 RNN150:RNN152 RDR150:RDR152 QTV150:QTV152 QJZ150:QJZ152 QAD150:QAD152 PQH150:PQH152 PGL150:PGL152 OWP150:OWP152 OMT150:OMT152 OCX150:OCX152 NTB150:NTB152 NJF150:NJF152 OCX198 NTB198 NJF198 MZJ198 MPN198 MFR198 LVV198 LLZ198 KSH198 KIL198 JYP198 JOT198 JEX198 IVB198 ILF198 IBJ198 HRN198 HHR198 GXV198 GNZ198 GED198 FUH198 FKL198 LCD198 FAP198 EQT198 EGX198 DXB198 DNF198 DDJ198 CTN198 CJR198 BZV198 BPZ198 BGD198 AWH198 AML198 ACP198 ST198 IX198 WVJ198 WLN198 WBR198 VRV198 VHZ198 UYD198 UOH198 UEL198 TUP198 TKT198 TAX198 SRB198 SHF198 RXJ198 RNN198 RDR198 QTV198 QJZ198 QAD198 PQH198 PGL198 OWP198 OMT198 NTB202:NTB204 MFR163:MFR166 NJF170:NJF173 NTB170:NTB173 OCX170:OCX173 OMT170:OMT173 OWP170:OWP173 PGL170:PGL173 PQH170:PQH173 QAD170:QAD173 QJZ170:QJZ173 QTV170:QTV173 RDR170:RDR173 RNN170:RNN173 RXJ170:RXJ173 SHF170:SHF173 SRB170:SRB173 TAX170:TAX173 TKT170:TKT173 TUP170:TUP173 UEL170:UEL173 UOH170:UOH173 UYD170:UYD173 VHZ170:VHZ173 VRV170:VRV173 WBR170:WBR173 WLN170:WLN173 WVJ170:WVJ173 IX170:IX173 ST170:ST173 ACP170:ACP173 AML170:AML173 AWH170:AWH173 BGD170:BGD173 BPZ170:BPZ173 BZV170:BZV173 CJR170:CJR173 CTN170:CTN173 DDJ170:DDJ173 DNF170:DNF173 DXB170:DXB173 EGX170:EGX173 EQT170:EQT173 FAP170:FAP173 LCD170:LCD173 FKL170:FKL173 FUH170:FUH173 GED170:GED173 GNZ170:GNZ173 GXV170:GXV173 HHR170:HHR173 HRN170:HRN173 IBJ170:IBJ173 ILF170:ILF173 IVB170:IVB173 JEX170:JEX173 JOT170:JOT173 JYP170:JYP173 KIL170:KIL173 KSH170:KSH173 LLZ170:LLZ173 LVV170:LVV173 MFR170:MFR173 MPN170:MPN173 MPN177:MPN180 MFR177:MFR180 LVV177:LVV180 LLZ177:LLZ180 KSH177:KSH180 KIL177:KIL180 JYP177:JYP180 JOT177:JOT180 JEX177:JEX180 IVB177:IVB180 ILF177:ILF180 IBJ177:IBJ180 HRN177:HRN180 HHR177:HHR180 GXV177:GXV180 GNZ177:GNZ180 GED177:GED180 FUH177:FUH180 FKL177:FKL180 LCD177:LCD180 FAP177:FAP180 EQT177:EQT180 EGX177:EGX180 DXB177:DXB180 DNF177:DNF180 DDJ177:DDJ180 CTN177:CTN180 CJR177:CJR180 BZV177:BZV180 BPZ177:BPZ180 BGD177:BGD180 AWH177:AWH180 AML177:AML180 ACP177:ACP180 ST177:ST180 IX177:IX180 WVJ177:WVJ180 WLN177:WLN180 WBR177:WBR180 VRV177:VRV180 VHZ177:VHZ180 UYD177:UYD180 UOH177:UOH180 UEL177:UEL180 TUP177:TUP180 TKT177:TKT180 TAX177:TAX180 SRB177:SRB180 SHF177:SHF180 RXJ177:RXJ180 RNN177:RNN180 RDR177:RDR180 QTV177:QTV180 QJZ177:QJZ180 QAD177:QAD180 PQH177:PQH180 PGL177:PGL180 OWP177:OWP180 OMT177:OMT180 OCX177:OCX180 NTB177:NTB180 NJF177:NJF180 MPN184:MPN187 MZJ184:MZJ187 NJF184:NJF187 NTB184:NTB187 OCX184:OCX187 OMT184:OMT187 OWP184:OWP187 PGL184:PGL187 PQH184:PQH187 QAD184:QAD187 QJZ184:QJZ187 QTV184:QTV187 RDR184:RDR187 RNN184:RNN187 RXJ184:RXJ187 SHF184:SHF187 SRB184:SRB187 TAX184:TAX187 TKT184:TKT187 TUP184:TUP187 UEL184:UEL187 UOH184:UOH187 UYD184:UYD187 VHZ184:VHZ187 VRV184:VRV187 WBR184:WBR187 WLN184:WLN187 WVJ184:WVJ187 IX184:IX187 ST184:ST187 ACP184:ACP187 AML184:AML187 AWH184:AWH187 BGD184:BGD187 BPZ184:BPZ187 BZV184:BZV187 CJR184:CJR187 CTN184:CTN187 DDJ184:DDJ187 DNF184:DNF187 DXB184:DXB187 EGX184:EGX187 EQT184:EQT187 FAP184:FAP187 LCD184:LCD187 FKL184:FKL187 FUH184:FUH187 GED184:GED187 GNZ184:GNZ187 GXV184:GXV187 HHR184:HHR187 HRN184:HRN187 IBJ184:IBJ187 ILF184:ILF187 IVB184:IVB187 JEX184:JEX187 JOT184:JOT187 JYP184:JYP187 KIL184:KIL187 KSH184:KSH187 LLZ184:LLZ187 LVV184:LVV187 MZJ191:MZJ194 NJF191:NJF194 NTB191:NTB194 OCX191:OCX194 OMT191:OMT194 OWP191:OWP194 PGL191:PGL194 PQH191:PQH194 QAD191:QAD194 QJZ191:QJZ194 QTV191:QTV194 RDR191:RDR194 RNN191:RNN194 RXJ191:RXJ194 SHF191:SHF194 SRB191:SRB194 TAX191:TAX194 TKT191:TKT194 TUP191:TUP194 UEL191:UEL194 UOH191:UOH194 UYD191:UYD194 VHZ191:VHZ194 VRV191:VRV194 WBR191:WBR194 WLN191:WLN194 WVJ191:WVJ194 IX191:IX194 ST191:ST194 ACP191:ACP194 AML191:AML194 AWH191:AWH194 BGD191:BGD194 BPZ191:BPZ194 BZV191:BZV194 CJR191:CJR194 CTN191:CTN194 DDJ191:DDJ194 DNF191:DNF194 DXB191:DXB194 EGX191:EGX194 EQT191:EQT194 FAP191:FAP194 LCD191:LCD194 FKL191:FKL194 FUH191:FUH194 GED191:GED194 GNZ191:GNZ194 GXV191:GXV194 HHR191:HHR194 HRN191:HRN194 IBJ191:IBJ194 ILF191:ILF194 IVB191:IVB194 JEX191:JEX194 JOT191:JOT194 JYP191:JYP194 KIL191:KIL194 KSH191:KSH194 LLZ191:LLZ194 LVV191:LVV194 MFR191:MFR194 MPN163:MPN166 MZJ163:MZJ166 NJF163:NJF166 NTB163:NTB166 OCX163:OCX166 OMT163:OMT166 OWP163:OWP166 PGL163:PGL166 PQH163:PQH166 QAD163:QAD166 QJZ163:QJZ166 QTV163:QTV166 RDR163:RDR166 RNN163:RNN166 RXJ163:RXJ166 SHF163:SHF166 SRB163:SRB166 TAX163:TAX166 TKT163:TKT166 TUP163:TUP166 UEL163:UEL166 UOH163:UOH166 UYD163:UYD166 VHZ163:VHZ166 VRV163:VRV166 WBR163:WBR166 WLN163:WLN166 WVJ163:WVJ166 IX163:IX166 ST163:ST166 ACP163:ACP166 AML163:AML166 AWH163:AWH166 BGD163:BGD166 BPZ163:BPZ166 BZV163:BZV166 CJR163:CJR166 CTN163:CTN166 DDJ163:DDJ166 DNF163:DNF166 DXB163:DXB166 EGX163:EGX166 EQT163:EQT166 FAP163:FAP166 LCD163:LCD166 FKL163:FKL166 FUH163:FUH166 GED163:GED166 GNZ163:GNZ166 GXV163:GXV166 HHR163:HHR166 HRN163:HRN166 IBJ163:IBJ166 ILF163:ILF166 IVB163:IVB166 JEX163:JEX166 JOT163:JOT166 JYP163:JYP166 KIL163:KIL166 KSH163:KSH166 LLZ163:LLZ166 LVV163:LVV166 LVV156:LVV159 MFR156:MFR159 MPN156:MPN159 MZJ156:MZJ159 NJF156:NJF159 NTB156:NTB159 OCX156:OCX159 OMT156:OMT159 OWP156:OWP159 PGL156:PGL159 PQH156:PQH159 QAD156:QAD159 QJZ156:QJZ159 QTV156:QTV159 RDR156:RDR159 RNN156:RNN159 RXJ156:RXJ159 SHF156:SHF159 SRB156:SRB159 TAX156:TAX159 TKT156:TKT159 TUP156:TUP159 UEL156:UEL159 UOH156:UOH159 UYD156:UYD159 VHZ156:VHZ159 VRV156:VRV159 WBR156:WBR159 WLN156:WLN159 WVJ156:WVJ159 IX156:IX159 ST156:ST159 ACP156:ACP159 AML156:AML159 AWH156:AWH159 BGD156:BGD159 BPZ156:BPZ159 BZV156:BZV159 CJR156:CJR159 CTN156:CTN159 DDJ156:DDJ159 DNF156:DNF159 DXB156:DXB159 EGX156:EGX159 EQT156:EQT159 FAP156:FAP159 LCD156:LCD159 FKL156:FKL159 FUH156:FUH159 GED156:GED159 GNZ156:GNZ159 GXV156:GXV159 HHR156:HHR159 HRN156:HRN159 IBJ156:IBJ159 ILF156:ILF159 IVB156:IVB159 JEX156:JEX159 JOT156:JOT159 JYP156:JYP159 KIL156:KIL159 KSH156:KSH159 LLZ156:LLZ159 NJF246:NJF248 NTB246:NTB248 OCX246:OCX248 OMT246:OMT248 OWP246:OWP248 PGL246:PGL248 PQH246:PQH248 QAD246:QAD248 QJZ246:QJZ248 QTV246:QTV248 RDR246:RDR248 RNN246:RNN248 RXJ246:RXJ248 SHF246:SHF248 SRB246:SRB248 TAX246:TAX248 TKT246:TKT248 TUP246:TUP248 UEL246:UEL248 UOH246:UOH248 UYD246:UYD248 VHZ246:VHZ248 VRV246:VRV248 WBR246:WBR248 WLN246:WLN248 WVJ246:WVJ248 IX246:IX248 ST246:ST248 ACP246:ACP248 AML246:AML248 AWH246:AWH248 BGD246:BGD248 BPZ246:BPZ248 BZV246:BZV248 CJR246:CJR248 CTN246:CTN248 DDJ246:DDJ248 DNF246:DNF248 DXB246:DXB248 EGX246:EGX248 EQT246:EQT248 FAP246:FAP248 LCD246:LCD248 FKL246:FKL248 FUH246:FUH248 GED246:GED248 GNZ246:GNZ248 GXV246:GXV248 HHR246:HHR248 HRN246:HRN248 IBJ246:IBJ248 ILF246:ILF248 IVB246:IVB248 JEX246:JEX248 JOT246:JOT248 JYP246:JYP248 KIL246:KIL248 KSH246:KSH248 LLZ246:LLZ248 LVV246:LVV248 MFR246:MFR248 MPN246:MPN248 MZJ246:MZJ248">
@@ -15310,18 +15296,18 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="59.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15380,7 +15366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -15427,7 +15413,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -15454,7 +15440,7 @@
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -15485,7 +15471,7 @@
       </c>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -15512,7 +15498,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -15541,7 +15527,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -15570,7 +15556,7 @@
       </c>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -15599,7 +15585,7 @@
       </c>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -15630,7 +15616,7 @@
       </c>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" ht="117" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -15659,7 +15645,7 @@
       </c>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" ht="52" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -15686,7 +15672,7 @@
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -15713,7 +15699,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -15740,7 +15726,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -15769,7 +15755,7 @@
       </c>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" ht="182" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -15800,7 +15786,7 @@
       </c>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" ht="117" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -15827,7 +15813,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -15858,7 +15844,7 @@
       </c>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -15885,7 +15871,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" ht="52" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -15912,7 +15898,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -15939,7 +15925,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -15966,7 +15952,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -15995,7 +15981,7 @@
       </c>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -16022,7 +16008,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -16049,7 +16035,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -16076,7 +16062,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -16103,7 +16089,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -16130,7 +16116,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -16163,7 +16149,7 @@
       </c>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" ht="117" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -16190,7 +16176,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" ht="52" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -16217,7 +16203,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -16244,7 +16230,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" ht="52" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -16275,7 +16261,7 @@
       </c>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -16302,7 +16288,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -16329,7 +16315,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -16356,7 +16342,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -16383,7 +16369,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -16410,7 +16396,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="1:19" ht="52" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -16443,7 +16429,7 @@
       </c>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" ht="52" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -16470,7 +16456,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" ht="39" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -16497,7 +16483,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -16528,7 +16514,7 @@
       </c>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" ht="117" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -16557,7 +16543,7 @@
       </c>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -16584,7 +16570,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -16615,7 +16601,7 @@
       </c>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" ht="117" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -16644,7 +16630,7 @@
       </c>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -16673,7 +16659,7 @@
       </c>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" ht="26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>

--- a/DM/databank/banking/deal_management/DealManagement_Test_39944.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39944.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="555">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1804,9 +1804,6 @@
   </si>
   <si>
     <t>631615658134</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
@@ -2953,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R66" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="Z84" sqref="Z84:AF84"/>
+    <sheetView tabSelected="1" topLeftCell="I66" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7740,7 +7737,7 @@
         <v>DealManagement_Test_39944 Ver Desc</v>
       </c>
       <c r="N87" s="30" t="s">
-        <v>555</v>
+        <v>321</v>
       </c>
       <c r="O87" s="30" t="s">
         <v>320</v>
